--- a/localização clientes.xlsx
+++ b/localização clientes.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Empresa\google\Sinc_Empresa\Projetos\Python\Mapa_Energens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\Gits\energens-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEEB08A-31D0-4F75-8511-3B7151DB88EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DE0F17-90CE-4757-A35C-3C1A0613BBA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E4D8A3-B036-45B9-BFB1-CE1FD37008B3}">
   <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,10 +1183,10 @@
         <v>130007</v>
       </c>
       <c r="D4" s="5">
-        <v>-28.528387593121799</v>
+        <v>-28.529050982775999</v>
       </c>
       <c r="E4" s="5">
-        <v>-54.1499724121052</v>
+        <v>-54.147971325912799</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3751,10 +3751,10 @@
         <v>130573</v>
       </c>
       <c r="D155" s="5">
-        <v>-28.304173174988101</v>
+        <v>-28.307559131245501</v>
       </c>
       <c r="E155" s="5">
-        <v>-54.269415588877699</v>
+        <v>-54.258050775619999</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">

--- a/localização clientes.xlsx
+++ b/localização clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\Gits\energens-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DE0F17-90CE-4757-A35C-3C1A0613BBA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6C03F3-092B-4FDF-BCAA-3672DBBAC5E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
   </bookViews>
@@ -141,9 +141,6 @@
     <t>Ivo Amaral De Oliveira</t>
   </si>
   <si>
-    <t>Silvio Robert Lemos Avila</t>
-  </si>
-  <si>
     <t>Eldo Rost</t>
   </si>
   <si>
@@ -658,6 +655,9 @@
   </si>
   <si>
     <t>projeto</t>
+  </si>
+  <si>
+    <t>Valmir Avila</t>
   </si>
 </sst>
 </file>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E4D8A3-B036-45B9-BFB1-CE1FD37008B3}">
   <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -1721,16 +1721,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="C36">
         <v>130413</v>
       </c>
       <c r="D36" s="5">
-        <v>-28.308626</v>
+        <v>-28.308658737359298</v>
       </c>
       <c r="E36" s="5">
-        <v>-54.250639999999997</v>
+        <v>-54.250679752380897</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1738,7 +1738,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <v>130381</v>
@@ -1755,7 +1755,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38">
         <v>130178</v>
@@ -1772,7 +1772,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39">
         <v>130440</v>
@@ -1789,7 +1789,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40">
         <v>130461</v>
@@ -1806,7 +1806,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41">
         <v>130476</v>
@@ -1823,7 +1823,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42">
         <v>130225</v>
@@ -1840,7 +1840,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43">
         <v>130093</v>
@@ -1857,7 +1857,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44">
         <v>130451</v>
@@ -1874,16 +1874,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45">
         <v>130023</v>
       </c>
       <c r="D45" s="5">
-        <v>-28.308626</v>
+        <v>-28.309272716835199</v>
       </c>
       <c r="E45" s="5">
-        <v>-54.250639999999997</v>
+        <v>-54.250475022730697</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1891,7 +1891,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46">
         <v>130519</v>
@@ -1908,7 +1908,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47">
         <v>130521</v>
@@ -1925,7 +1925,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48">
         <v>130525</v>
@@ -1942,16 +1942,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49">
         <v>130536</v>
       </c>
       <c r="D49" s="5">
-        <v>-28.287054999999999</v>
+        <v>-28.3108433848418</v>
       </c>
       <c r="E49" s="5">
-        <v>-54.264141000000002</v>
+        <v>-54.263374491885301</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1959,7 +1959,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50">
         <v>130438</v>
@@ -1976,7 +1976,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51">
         <v>130055</v>
@@ -1993,7 +1993,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52">
         <v>130400</v>
@@ -2010,7 +2010,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53">
         <v>130412</v>
@@ -2027,7 +2027,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54">
         <v>130532</v>
@@ -2044,7 +2044,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55">
         <v>130542</v>
@@ -2061,7 +2061,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56">
         <v>130555</v>
@@ -2078,7 +2078,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57">
         <v>130285</v>
@@ -2095,7 +2095,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58">
         <v>130558</v>
@@ -2112,7 +2112,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59">
         <v>130538</v>
@@ -2129,7 +2129,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60">
         <v>130565</v>
@@ -2146,7 +2146,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61">
         <v>130172</v>
@@ -2163,7 +2163,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62">
         <v>130308</v>
@@ -2180,16 +2180,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63">
         <v>130630</v>
       </c>
       <c r="D63" s="5">
-        <v>-28.303789999999999</v>
+        <v>-28.308298131557201</v>
       </c>
       <c r="E63" s="5">
-        <v>-54.270814999999999</v>
+        <v>-54.250931690960797</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2197,7 +2197,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64">
         <v>130591</v>
@@ -2214,7 +2214,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65">
         <v>130462</v>
@@ -2231,7 +2231,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66">
         <v>130596</v>
@@ -2248,16 +2248,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67">
         <v>130090</v>
       </c>
       <c r="D67" s="5">
-        <v>-28.286231999999998</v>
+        <v>-28.286805837969201</v>
       </c>
       <c r="E67" s="5">
-        <v>-54.265264999999999</v>
+        <v>-54.265236868478297</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2265,7 +2265,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68">
         <v>130613</v>
@@ -2282,7 +2282,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69">
         <v>130562</v>
@@ -2299,7 +2299,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70">
         <v>130630</v>
@@ -2316,7 +2316,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71">
         <v>130581</v>
@@ -2333,7 +2333,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72">
         <v>130629</v>
@@ -2350,7 +2350,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73">
         <v>130627</v>
@@ -2367,7 +2367,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74">
         <v>130633</v>
@@ -2384,7 +2384,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75">
         <v>130499</v>
@@ -2401,7 +2401,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76">
         <v>130361</v>
@@ -2418,7 +2418,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77">
         <v>130354</v>
@@ -2435,7 +2435,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78">
         <v>130640</v>
@@ -2452,7 +2452,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79">
         <v>130497</v>
@@ -2469,7 +2469,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80">
         <v>130498</v>
@@ -2486,7 +2486,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C81">
         <v>130074</v>
@@ -2503,7 +2503,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C82">
         <v>130653</v>
@@ -2520,7 +2520,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C83">
         <v>130642</v>
@@ -2537,7 +2537,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C84">
         <v>130628</v>
@@ -2554,7 +2554,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C85">
         <v>130656</v>
@@ -2571,7 +2571,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86">
         <v>130674</v>
@@ -2588,7 +2588,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87">
         <v>130665</v>
@@ -2605,7 +2605,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C88">
         <v>130666</v>
@@ -2622,7 +2622,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89">
         <v>130668</v>
@@ -2639,7 +2639,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90">
         <v>130271</v>
@@ -2656,7 +2656,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C91">
         <v>130715</v>
@@ -2673,7 +2673,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C92">
         <v>130713</v>
@@ -2690,7 +2690,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C93">
         <v>130710</v>
@@ -2707,7 +2707,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C94">
         <v>130677</v>
@@ -2724,7 +2724,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C95">
         <v>130657</v>
@@ -2741,7 +2741,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C96">
         <v>130714</v>
@@ -2758,16 +2758,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C97">
         <v>130439</v>
       </c>
       <c r="D97" s="5">
-        <v>-28.305554799999999</v>
+        <v>-28.305638898327899</v>
       </c>
       <c r="E97" s="5">
-        <v>-54.265743000000001</v>
+        <v>-54.265296894791398</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2775,7 +2775,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C98">
         <v>130079</v>
@@ -2792,7 +2792,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C99">
         <v>130729</v>
@@ -2809,7 +2809,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C100">
         <v>130763</v>
@@ -2826,7 +2826,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C101">
         <v>130760</v>
@@ -2843,7 +2843,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C102">
         <v>130754</v>
@@ -2860,7 +2860,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C103">
         <v>130244</v>
@@ -2877,7 +2877,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C104">
         <v>130778</v>
@@ -2894,7 +2894,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C105">
         <v>130483</v>
@@ -2911,7 +2911,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C106">
         <v>130644</v>
@@ -2928,7 +2928,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C107">
         <v>130643</v>
@@ -2945,7 +2945,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C108">
         <v>130785</v>
@@ -2962,7 +2962,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109">
         <v>130790</v>
@@ -2979,7 +2979,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C110">
         <v>130792</v>
@@ -2996,7 +2996,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C111">
         <v>130459</v>
@@ -3013,7 +3013,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C112">
         <v>130791</v>
@@ -3030,7 +3030,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C113">
         <v>130807</v>
@@ -3047,7 +3047,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C114">
         <v>130799</v>
@@ -3064,7 +3064,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C115">
         <v>130812</v>
@@ -3081,7 +3081,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C116">
         <v>130229</v>
@@ -3098,7 +3098,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C117">
         <v>130822</v>
@@ -3115,7 +3115,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C118">
         <v>130817</v>
@@ -3132,7 +3132,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C119">
         <v>130171</v>
@@ -3149,7 +3149,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C120">
         <v>130808</v>
@@ -3166,16 +3166,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C121">
         <v>130819</v>
       </c>
       <c r="D121" s="5">
-        <v>-28.304578800000002</v>
+        <v>-28.3045620221592</v>
       </c>
       <c r="E121" s="5">
-        <v>-54.264709199999999</v>
+        <v>-54.264109224696902</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3183,16 +3183,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C122">
         <v>130831</v>
       </c>
       <c r="D122" s="5">
-        <v>-28.302249799999998</v>
+        <v>-28.302249478252602</v>
       </c>
       <c r="E122" s="5">
-        <v>-54.269208200000001</v>
+        <v>-54.268636309595003</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3200,16 +3200,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C123">
         <v>130418</v>
       </c>
       <c r="D123" s="5">
-        <v>-28.302249799999998</v>
+        <v>-28.256105899693701</v>
       </c>
       <c r="E123" s="5">
-        <v>-54.269208200000001</v>
+        <v>-54.021334364576099</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3217,7 +3217,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C124">
         <v>130834</v>
@@ -3234,7 +3234,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C125">
         <v>130857</v>
@@ -3251,7 +3251,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C126">
         <v>130738</v>
@@ -3268,7 +3268,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C127">
         <v>130851</v>
@@ -3285,7 +3285,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C128">
         <v>130864</v>
@@ -3302,7 +3302,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C129">
         <v>130867</v>
@@ -3319,7 +3319,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C130">
         <v>130683</v>
@@ -3336,7 +3336,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C131">
         <v>130855</v>
@@ -3353,7 +3353,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C132">
         <v>130869</v>
@@ -3370,7 +3370,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C133">
         <v>130875</v>
@@ -3387,7 +3387,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C134">
         <v>130833</v>
@@ -3404,7 +3404,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C135">
         <v>130886</v>
@@ -3421,7 +3421,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C136">
         <v>130890</v>
@@ -3438,7 +3438,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C137">
         <v>130861</v>
@@ -3455,7 +3455,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C138">
         <v>130911</v>
@@ -3472,7 +3472,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C139">
         <v>130898</v>
@@ -3489,7 +3489,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C140">
         <v>130908</v>
@@ -3506,7 +3506,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C141">
         <v>130904</v>
@@ -3523,7 +3523,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C142">
         <v>130909</v>
@@ -3540,7 +3540,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C143">
         <v>130917</v>
@@ -3557,7 +3557,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C144">
         <v>130915</v>
@@ -3574,7 +3574,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C145">
         <v>130056</v>
@@ -3592,7 +3592,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C146">
         <v>130931</v>
@@ -3609,7 +3609,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C147">
         <v>130933</v>
@@ -3626,7 +3626,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C148">
         <v>130935</v>
@@ -3643,7 +3643,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C149">
         <v>130936</v>
@@ -3660,7 +3660,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C150">
         <v>130937</v>
@@ -3677,7 +3677,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C151">
         <v>130938</v>
@@ -3694,7 +3694,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C152">
         <v>130943</v>
@@ -3711,7 +3711,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C153">
         <v>130944</v>
@@ -3728,7 +3728,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C154">
         <v>130945</v>
@@ -3745,7 +3745,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C155">
         <v>130573</v>
@@ -3762,7 +3762,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C156">
         <v>130544</v>
@@ -3779,7 +3779,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C157">
         <v>130946</v>
@@ -3796,7 +3796,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C158">
         <v>130960</v>
@@ -3813,7 +3813,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C159">
         <v>130961</v>
@@ -3830,7 +3830,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C160">
         <v>130895</v>
@@ -3847,16 +3847,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C161">
         <v>130280</v>
       </c>
       <c r="D161" s="5">
-        <v>-28.3094775</v>
+        <v>-28.309564142919601</v>
       </c>
       <c r="E161" s="5">
-        <v>-54.277610099999997</v>
+        <v>-54.278522602642902</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3864,7 +3864,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C162">
         <v>130804</v>
@@ -3881,7 +3881,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C163">
         <v>130968</v>
@@ -3898,7 +3898,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C164">
         <v>130982</v>
@@ -3915,7 +3915,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C165">
         <v>130980</v>
@@ -3932,7 +3932,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C166">
         <v>130967</v>
@@ -3949,7 +3949,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C167">
         <v>130816</v>
@@ -3966,7 +3966,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C168">
         <v>130986</v>
@@ -3983,7 +3983,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C169">
         <v>130992</v>
@@ -4000,7 +4000,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C170">
         <v>131005</v>
@@ -4017,7 +4017,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C171">
         <v>131014</v>
@@ -4034,7 +4034,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C172">
         <v>131032</v>
@@ -4051,7 +4051,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C173">
         <v>130948</v>
@@ -4068,7 +4068,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C174">
         <v>130540</v>
@@ -4085,7 +4085,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C175">
         <v>130921</v>
@@ -4102,7 +4102,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C176">
         <v>130956</v>
@@ -4119,7 +4119,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C177">
         <v>130984</v>
@@ -4136,7 +4136,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C178">
         <v>131010</v>
@@ -4153,7 +4153,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C179">
         <v>131012</v>
@@ -4170,7 +4170,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C180">
         <v>131030</v>
@@ -4187,7 +4187,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C181">
         <v>131034</v>
@@ -4204,16 +4204,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C182">
         <v>131045</v>
       </c>
       <c r="D182" s="5">
-        <v>-28.3091704685223</v>
+        <v>-28.309409865810402</v>
       </c>
       <c r="E182" s="5">
-        <v>-54.278252129830001</v>
+        <v>-54.278233381763101</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -4221,7 +4221,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C183">
         <v>131052</v>
@@ -4238,7 +4238,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C184">
         <v>131051</v>
@@ -4255,7 +4255,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C185">
         <v>131059</v>
@@ -4272,7 +4272,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C186">
         <v>131068</v>
@@ -4289,7 +4289,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C187">
         <v>131081</v>
@@ -4306,7 +4306,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C188">
         <v>131124</v>
@@ -4323,7 +4323,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C189">
         <v>130004</v>
@@ -4340,7 +4340,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C190">
         <v>130533</v>
@@ -4357,7 +4357,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C191">
         <v>130863</v>
@@ -4374,7 +4374,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C192">
         <v>130885</v>
@@ -4391,7 +4391,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C193">
         <v>130998</v>
@@ -4408,7 +4408,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C194">
         <v>131083</v>
@@ -4425,7 +4425,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C195">
         <v>131115</v>
@@ -4442,7 +4442,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C196">
         <v>131157</v>
@@ -4459,7 +4459,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C197">
         <v>131157</v>
@@ -4476,7 +4476,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C198">
         <v>131170</v>
@@ -4493,7 +4493,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C199">
         <v>131177</v>
@@ -4510,7 +4510,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C200">
         <v>131182</v>
@@ -4527,7 +4527,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C201">
         <v>131183</v>
@@ -4544,7 +4544,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C202">
         <v>131198</v>
@@ -4561,7 +4561,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C203">
         <v>131188</v>
@@ -4578,7 +4578,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C204">
         <v>131158</v>
@@ -4595,7 +4595,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C205">
         <v>131082</v>
@@ -4612,7 +4612,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C206">
         <v>131194</v>
@@ -4629,7 +4629,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C207">
         <v>131202</v>

--- a/localização clientes.xlsx
+++ b/localização clientes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23926"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\Gits\energens-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6C03F3-092B-4FDF-BCAA-3672DBBAC5E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5288A835-DE8C-4615-A79D-50018422027B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
   </bookViews>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E4D8A3-B036-45B9-BFB1-CE1FD37008B3}">
   <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3375,11 +3375,11 @@
       <c r="C133">
         <v>130875</v>
       </c>
-      <c r="D133" s="4">
-        <v>-282803878</v>
+      <c r="D133" s="5">
+        <v>-28.2804902735976</v>
       </c>
       <c r="E133" s="5">
-        <v>-54.259758499999997</v>
+        <v>-54.258725446597502</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -4312,10 +4312,10 @@
         <v>131124</v>
       </c>
       <c r="D188" s="5">
-        <v>-28.261207468479999</v>
+        <v>-28.260720173883701</v>
       </c>
       <c r="E188" s="5">
-        <v>-52.429909799999997</v>
+        <v>-52.430103140053703</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -4516,10 +4516,10 @@
         <v>131182</v>
       </c>
       <c r="D200" s="5">
-        <v>-28.281018799999998</v>
+        <v>-28.3480411850081</v>
       </c>
       <c r="E200" s="5">
-        <v>-54.270733960000001</v>
+        <v>-54.500246901099501</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">

--- a/localização clientes.xlsx
+++ b/localização clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\Gits\energens-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5288A835-DE8C-4615-A79D-50018422027B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D81ED5-EC91-4603-B81C-820E8758B01F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
   </bookViews>
@@ -1108,7 +1108,7 @@
   <dimension ref="A1:G207"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="D200" sqref="D200"/>
+      <selection activeCell="E201" sqref="E201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4516,10 +4516,10 @@
         <v>131182</v>
       </c>
       <c r="D200" s="5">
-        <v>-28.3480411850081</v>
+        <v>-28.2810602748207</v>
       </c>
       <c r="E200" s="5">
-        <v>-54.500246901099501</v>
+        <v>-54.2703482713233</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -4533,10 +4533,10 @@
         <v>131183</v>
       </c>
       <c r="D201" s="5">
-        <v>-28.501372216278401</v>
+        <v>-28.3480411850081</v>
       </c>
       <c r="E201" s="5">
-        <v>-54.499885431674599</v>
+        <v>-54.500246901099501</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">

--- a/localização clientes.xlsx
+++ b/localização clientes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\Gits\energens-map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Empresa\google\Sinc_Empresa\Projetos\Python\energens-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D81ED5-EC91-4603-B81C-820E8758B01F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8F9372-F3D5-4E9C-9E38-FAE2DF9C9CD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E4D8A3-B036-45B9-BFB1-CE1FD37008B3}">
   <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="E201" sqref="E201"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3308,10 +3308,10 @@
         <v>130867</v>
       </c>
       <c r="D129" s="5">
-        <v>-28.1347588</v>
+        <v>-28.134748750519801</v>
       </c>
       <c r="E129" s="5">
-        <v>-55.030827199999997</v>
+        <v>-55.0302255282486</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3700,10 +3700,10 @@
         <v>130943</v>
       </c>
       <c r="D152" s="5">
-        <v>-28.1344387</v>
+        <v>-28.134681989524601</v>
       </c>
       <c r="E152" s="5">
-        <v>-55.028073300000003</v>
+        <v>-55.028486873868701</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">

--- a/localização clientes.xlsx
+++ b/localização clientes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Empresa\google\Sinc_Empresa\Projetos\Python\energens-map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Medicina Ocupacional\PROCEDIMENTOS DE SEGURANÇA E SAÚDE\Localização Instalações\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8F9372-F3D5-4E9C-9E38-FAE2DF9C9CD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7575DA63-7F7C-445E-9E8B-4819D0309EFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>id</t>
   </si>
@@ -603,9 +603,6 @@
     <t>Los Passo</t>
   </si>
   <si>
-    <t>Delnise Maria Karling (Jordão Entre-ijuis)</t>
-  </si>
-  <si>
     <t>Fernanda Palharini Steffler (Andrei)</t>
   </si>
   <si>
@@ -658,6 +655,12 @@
   </si>
   <si>
     <t>Valmir Avila</t>
+  </si>
+  <si>
+    <t>Felícia Dos Santos Canabarro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delnise Maria Karling de Oliveira </t>
   </si>
 </sst>
 </file>
@@ -687,12 +690,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -707,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -717,6 +732,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,8 +810,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FD6B3B7-5DCF-4893-B21A-B1CB3118375F}" name="Tabela1" displayName="Tabela1" ref="A1:E207" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E207" xr:uid="{3E3CFA4C-A6AD-46F0-AAC7-262EE49187F1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FD6B3B7-5DCF-4893-B21A-B1CB3118375F}" name="Tabela1" displayName="Tabela1" ref="A1:E208" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E208" xr:uid="{3E3CFA4C-A6AD-46F0-AAC7-262EE49187F1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E207">
     <sortCondition ref="A1:A207"/>
   </sortState>
@@ -1105,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E4D8A3-B036-45B9-BFB1-CE1FD37008B3}">
-  <dimension ref="A1:G207"/>
+  <dimension ref="A1:G208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -1721,7 +1739,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C36">
         <v>130413</v>
@@ -4357,16 +4375,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="C191">
         <v>130863</v>
       </c>
       <c r="D191" s="5">
-        <v>-28.357254650600002</v>
+        <v>-28.357138830087401</v>
       </c>
       <c r="E191" s="5">
-        <v>-54.268811988000003</v>
+        <v>-54.268598560509602</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -4374,92 +4392,92 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C192">
         <v>130885</v>
       </c>
       <c r="D192" s="5">
-        <v>-28.304173174988101</v>
+        <v>-28.291195456229399</v>
       </c>
       <c r="E192" s="5">
-        <v>-54.269415588877699</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.239932323416298</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C193">
         <v>130998</v>
       </c>
       <c r="D193" s="5">
-        <v>-28.317224710390001</v>
+        <v>-28.317174193357602</v>
       </c>
       <c r="E193" s="5">
-        <v>-54.25945892</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.259667531675397</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C194">
         <v>131083</v>
       </c>
       <c r="D194" s="5">
-        <v>-28.298391800000001</v>
+        <v>-28.298391842871101</v>
       </c>
       <c r="E194" s="5">
-        <v>-54.243693700000001</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.243693718148897</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C195">
         <v>131115</v>
       </c>
       <c r="D195" s="5">
-        <v>-28.302881330000002</v>
+        <v>-28.302881334995401</v>
       </c>
       <c r="E195" s="5">
-        <v>-54.277671560000002</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.277671568686699</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C196">
         <v>131157</v>
       </c>
       <c r="D196" s="5">
-        <v>-28.304173174988101</v>
+        <v>-28.1331444348851</v>
       </c>
       <c r="E196" s="5">
-        <v>-54.269415588877699</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.357324660516298</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C197">
         <v>131157</v>
@@ -4471,63 +4489,63 @@
         <v>-54.499439309373201</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C198">
         <v>131170</v>
       </c>
       <c r="D198" s="5">
-        <v>-28.304173174988101</v>
+        <v>-28.328882372323601</v>
       </c>
       <c r="E198" s="5">
-        <v>-54.269415588877699</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.2798596028397</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C199">
         <v>131177</v>
       </c>
       <c r="D199" s="5">
-        <v>-28.219274633720001</v>
+        <v>-28.219274633723799</v>
       </c>
       <c r="E199" s="5">
-        <v>-54.20823232</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.208232321902699</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C200">
         <v>131182</v>
       </c>
       <c r="D200" s="5">
-        <v>-28.2810602748207</v>
+        <v>-28.281018814435701</v>
       </c>
       <c r="E200" s="5">
-        <v>-54.2703482713233</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.270733960899399</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C201">
         <v>131183</v>
@@ -4539,106 +4557,127 @@
         <v>-54.500246901099501</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C202">
         <v>131198</v>
       </c>
       <c r="D202" s="5">
-        <v>-54.499885431674599</v>
+        <v>-28.298182580637398</v>
       </c>
       <c r="E202" s="5">
-        <v>-54.499885431674599</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.243677046830797</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C203">
         <v>131188</v>
       </c>
       <c r="D203" s="5">
-        <v>-28.304173174988101</v>
+        <v>-28.3036576974166</v>
       </c>
       <c r="E203" s="5">
-        <v>-54.269415588877699</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-54.273855521290102</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C204">
         <v>131158</v>
       </c>
-      <c r="D204" s="5">
+      <c r="D204" s="9">
         <v>-28.304173174988101</v>
       </c>
-      <c r="E204" s="5">
+      <c r="E204" s="9">
         <v>-54.269415588877699</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204" s="10"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C205">
         <v>131082</v>
       </c>
-      <c r="D205" s="5">
+      <c r="D205" s="9">
         <v>-28.304173174988101</v>
       </c>
-      <c r="E205" s="5">
+      <c r="E205" s="9">
         <v>-54.269415588877699</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205" s="10"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C206">
         <v>131194</v>
       </c>
-      <c r="D206" s="5">
-        <v>-28.304173174988101</v>
-      </c>
-      <c r="E206" s="5">
-        <v>-54.269415588877699</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D206" s="11">
+        <v>-28.305960505379499</v>
+      </c>
+      <c r="E206" s="11">
+        <v>-54.2517506054999</v>
+      </c>
+      <c r="F206" s="10"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C207">
         <v>131202</v>
       </c>
-      <c r="D207" s="5">
+      <c r="D207" s="9">
         <v>-28.304173174988101</v>
       </c>
-      <c r="E207" s="5">
+      <c r="E207" s="9">
         <v>-54.269415588877699</v>
+      </c>
+      <c r="F207" s="10"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C208" s="1">
+        <v>131240</v>
+      </c>
+      <c r="D208" s="5">
+        <v>-28.302599557386401</v>
+      </c>
+      <c r="E208" s="1">
+        <v>-54.242064045169798</v>
       </c>
     </row>
   </sheetData>

--- a/localização clientes.xlsx
+++ b/localização clientes.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Medicina Ocupacional\PROCEDIMENTOS DE SEGURANÇA E SAÚDE\Localização Instalações\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Empresa\google\Sinc_Empresa\Projetos\Python\energens-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7575DA63-7F7C-445E-9E8B-4819D0309EFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16599966-15A6-41B4-94F6-05C61C4926A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>id</t>
   </si>
@@ -661,6 +670,15 @@
   </si>
   <si>
     <t xml:space="preserve">Delnise Maria Karling de Oliveira </t>
+  </si>
+  <si>
+    <t>power_total</t>
+  </si>
+  <si>
+    <t>modules_number</t>
+  </si>
+  <si>
+    <t>modules_power</t>
   </si>
 </sst>
 </file>
@@ -722,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -731,15 +749,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -810,17 +851,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FD6B3B7-5DCF-4893-B21A-B1CB3118375F}" name="Tabela1" displayName="Tabela1" ref="A1:E208" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E208" xr:uid="{3E3CFA4C-A6AD-46F0-AAC7-262EE49187F1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FD6B3B7-5DCF-4893-B21A-B1CB3118375F}" name="Tabela1" displayName="Tabela1" ref="A1:H208" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H208" xr:uid="{3E3CFA4C-A6AD-46F0-AAC7-262EE49187F1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E207">
     <sortCondition ref="A1:A207"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CCD2CADB-2565-441A-828D-00D74F0809F5}" name="id" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{FDE2D2B7-AD22-44C2-98C0-49A465D33E06}" name="cliente" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{A8F6EEDB-3F3A-45D5-B3E5-A53D8AAFD9F6}" name="projeto" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00854ECD-E95D-4C56-80F2-1B5ED74A4A12}" name="latitude" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{4D4E3FC9-742D-4889-972D-F534F996F771}" name="longitude" dataDxfId="0"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{CCD2CADB-2565-441A-828D-00D74F0809F5}" name="id" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{FDE2D2B7-AD22-44C2-98C0-49A465D33E06}" name="cliente" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{A8F6EEDB-3F3A-45D5-B3E5-A53D8AAFD9F6}" name="projeto" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00854ECD-E95D-4C56-80F2-1B5ED74A4A12}" name="latitude" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{4D4E3FC9-742D-4889-972D-F534F996F771}" name="longitude" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{711A01AB-1EC4-4EF7-A329-1E714FC37145}" name="modules_number" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{95873DDC-B96F-4C54-8832-29E8FBB97A84}" name="modules_power" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{81D1B476-7E82-467F-A395-0A35CFE04C4A}" name="power_total" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1123,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E4D8A3-B036-45B9-BFB1-CE1FD37008B3}">
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:H208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="D207" sqref="D207"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1183,7 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1155,8 +1199,17 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1172,8 +1225,17 @@
       <c r="E2" s="5">
         <v>-54.273384951630803</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="10">
+        <v>14</v>
+      </c>
+      <c r="G2" s="10">
+        <v>325</v>
+      </c>
+      <c r="H2" s="10">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1189,8 +1251,17 @@
       <c r="E3" s="5">
         <v>-54.276491087498101</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="10">
+        <v>11</v>
+      </c>
+      <c r="G3" s="10">
+        <v>270</v>
+      </c>
+      <c r="H3" s="10">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1206,8 +1277,17 @@
       <c r="E4" s="5">
         <v>-54.147971325912799</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="10">
+        <v>7</v>
+      </c>
+      <c r="G4" s="10">
+        <v>270</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1223,8 +1303,17 @@
       <c r="E5" s="5">
         <v>-54.263504060510698</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="10">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10">
+        <v>330</v>
+      </c>
+      <c r="H5" s="10">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1240,8 +1329,17 @@
       <c r="E6" s="5">
         <v>-54.259248118182001</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="10">
+        <v>24</v>
+      </c>
+      <c r="G6" s="10">
+        <v>270</v>
+      </c>
+      <c r="H6" s="10">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1257,8 +1355,17 @@
       <c r="E7" s="5">
         <v>-54.2680229893448</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="10">
+        <v>11</v>
+      </c>
+      <c r="G7" s="10">
+        <v>270</v>
+      </c>
+      <c r="H7" s="10">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1274,8 +1381,17 @@
       <c r="E8" s="5">
         <v>-54.268957374005304</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="10">
+        <v>48</v>
+      </c>
+      <c r="G8" s="10">
+        <v>330</v>
+      </c>
+      <c r="H8" s="10">
+        <v>15.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1291,8 +1407,17 @@
       <c r="E9" s="5">
         <v>-54.270496999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="10">
+        <v>10</v>
+      </c>
+      <c r="G9" s="10">
+        <v>330</v>
+      </c>
+      <c r="H9" s="10">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1308,8 +1433,17 @@
       <c r="E10" s="5">
         <v>-54.258198999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="10">
+        <v>186</v>
+      </c>
+      <c r="G10" s="10">
+        <v>330</v>
+      </c>
+      <c r="H10" s="10">
+        <v>61.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1325,8 +1459,17 @@
       <c r="E11" s="5">
         <v>-54.260733999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="10">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10">
+        <v>330</v>
+      </c>
+      <c r="H11" s="10">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1342,8 +1485,17 @@
       <c r="E12" s="5">
         <v>-54.258282000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="10">
+        <v>19</v>
+      </c>
+      <c r="G12" s="10">
+        <v>330</v>
+      </c>
+      <c r="H12" s="10">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1359,8 +1511,17 @@
       <c r="E13" s="5">
         <v>-54.272979999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="10">
+        <v>14</v>
+      </c>
+      <c r="G13" s="10">
+        <v>330</v>
+      </c>
+      <c r="H13" s="10">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1376,8 +1537,17 @@
       <c r="E14" s="5">
         <v>-54.281835999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="10">
+        <v>80</v>
+      </c>
+      <c r="G14" s="10">
+        <v>330</v>
+      </c>
+      <c r="H14" s="10">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1393,8 +1563,17 @@
       <c r="E15" s="5">
         <v>-54.259720000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="10">
+        <v>38</v>
+      </c>
+      <c r="G15" s="10">
+        <v>330</v>
+      </c>
+      <c r="H15" s="10">
+        <v>12.54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1410,8 +1589,17 @@
       <c r="E16" s="5">
         <v>-54.272626000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="10">
+        <v>12</v>
+      </c>
+      <c r="G16" s="10">
+        <v>330</v>
+      </c>
+      <c r="H16" s="10">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1427,8 +1615,17 @@
       <c r="E17" s="5">
         <v>-54.272308000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="10">
+        <v>180</v>
+      </c>
+      <c r="G17" s="10">
+        <v>360</v>
+      </c>
+      <c r="H17" s="10">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1444,8 +1641,17 @@
       <c r="E18" s="5">
         <v>-54.348612000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="10">
+        <v>18</v>
+      </c>
+      <c r="G18" s="10">
+        <v>330</v>
+      </c>
+      <c r="H18" s="10">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1461,8 +1667,17 @@
       <c r="E19" s="5">
         <v>-54.252977000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="10">
+        <v>80</v>
+      </c>
+      <c r="G19" s="10">
+        <v>330</v>
+      </c>
+      <c r="H19" s="10">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1478,8 +1693,17 @@
       <c r="E20" s="5">
         <v>-54.265177999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="10">
+        <v>20</v>
+      </c>
+      <c r="G20" s="10">
+        <v>337.5</v>
+      </c>
+      <c r="H20" s="10">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1495,8 +1719,17 @@
       <c r="E21" s="5">
         <v>-54.274675000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="10">
+        <v>10</v>
+      </c>
+      <c r="G21" s="10">
+        <v>360</v>
+      </c>
+      <c r="H21" s="10">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1512,8 +1745,17 @@
       <c r="E22" s="5">
         <v>-54.266337999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="10">
+        <v>30</v>
+      </c>
+      <c r="G22" s="10">
+        <v>330</v>
+      </c>
+      <c r="H22" s="10">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1529,8 +1771,17 @@
       <c r="E23" s="5">
         <v>-54.262501999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="10">
+        <v>18</v>
+      </c>
+      <c r="G23" s="10">
+        <v>330</v>
+      </c>
+      <c r="H23" s="10">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1546,8 +1797,17 @@
       <c r="E24" s="5">
         <v>-54.267876999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="10">
+        <v>28</v>
+      </c>
+      <c r="G24" s="10">
+        <v>330</v>
+      </c>
+      <c r="H24" s="10">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1563,8 +1823,17 @@
       <c r="E25" s="5">
         <v>-54.272500999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="10">
+        <v>80</v>
+      </c>
+      <c r="G25" s="10">
+        <v>330</v>
+      </c>
+      <c r="H25" s="10">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1580,8 +1849,17 @@
       <c r="E26" s="5">
         <v>-53.064269000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="10">
+        <v>28</v>
+      </c>
+      <c r="G26" s="10">
+        <v>330</v>
+      </c>
+      <c r="H26" s="10">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1597,8 +1875,17 @@
       <c r="E27" s="5">
         <v>-53.701976000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="10">
+        <v>50</v>
+      </c>
+      <c r="G27" s="10">
+        <v>360</v>
+      </c>
+      <c r="H27" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1614,8 +1901,17 @@
       <c r="E28" s="5">
         <v>-54.264141000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="10">
+        <v>108</v>
+      </c>
+      <c r="G28" s="10">
+        <v>360</v>
+      </c>
+      <c r="H28" s="10">
+        <v>38.880000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1631,8 +1927,17 @@
       <c r="E29" s="5">
         <v>-54.274748000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="10">
+        <v>60</v>
+      </c>
+      <c r="G29" s="10">
+        <v>330</v>
+      </c>
+      <c r="H29" s="10">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1648,8 +1953,17 @@
       <c r="E30" s="5">
         <v>-54.266762999999997</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="10">
+        <v>152</v>
+      </c>
+      <c r="G30" s="10">
+        <v>335</v>
+      </c>
+      <c r="H30" s="10">
+        <v>50.92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1665,8 +1979,17 @@
       <c r="E31" s="5">
         <v>-54.249099999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="10">
+        <v>10</v>
+      </c>
+      <c r="G31" s="10">
+        <v>335</v>
+      </c>
+      <c r="H31" s="10">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1682,8 +2005,17 @@
       <c r="E32" s="5">
         <v>-54.265701</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="10">
+        <v>34</v>
+      </c>
+      <c r="G32" s="10">
+        <v>335</v>
+      </c>
+      <c r="H32" s="10">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1699,8 +2031,17 @@
       <c r="E33" s="5">
         <v>-54.262726999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="10">
+        <v>20</v>
+      </c>
+      <c r="G33" s="10">
+        <v>335</v>
+      </c>
+      <c r="H33" s="10">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1716,8 +2057,17 @@
       <c r="E34" s="5">
         <v>-54.284744000000003</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="10">
+        <v>28</v>
+      </c>
+      <c r="G34" s="10">
+        <v>335</v>
+      </c>
+      <c r="H34" s="10">
+        <v>9.3800000000000008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1733,8 +2083,17 @@
       <c r="E35" s="5">
         <v>-54.271402999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="10">
+        <v>34</v>
+      </c>
+      <c r="G35" s="10">
+        <v>335</v>
+      </c>
+      <c r="H35" s="10">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1750,8 +2109,17 @@
       <c r="E36" s="5">
         <v>-54.250679752380897</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="10">
+        <v>12</v>
+      </c>
+      <c r="G36" s="10">
+        <v>335</v>
+      </c>
+      <c r="H36" s="10">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1767,8 +2135,17 @@
       <c r="E37" s="5">
         <v>-54.230375000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="10">
+        <v>12</v>
+      </c>
+      <c r="G37" s="10">
+        <v>335</v>
+      </c>
+      <c r="H37" s="10">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1784,8 +2161,17 @@
       <c r="E38" s="5">
         <v>-54.266130502840603</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="10">
+        <v>148</v>
+      </c>
+      <c r="G38" s="10">
+        <v>365</v>
+      </c>
+      <c r="H38" s="10">
+        <v>54.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1801,8 +2187,17 @@
       <c r="E39" s="5">
         <v>-54.245705000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="10">
+        <v>20</v>
+      </c>
+      <c r="G39" s="10">
+        <v>340</v>
+      </c>
+      <c r="H39" s="10">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1818,8 +2213,17 @@
       <c r="E40" s="5">
         <v>-54.263739000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="10">
+        <v>30</v>
+      </c>
+      <c r="G40" s="10">
+        <v>340</v>
+      </c>
+      <c r="H40" s="10">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1835,8 +2239,17 @@
       <c r="E41" s="5">
         <v>-54.268686000000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="10">
+        <v>18</v>
+      </c>
+      <c r="G41" s="10">
+        <v>340</v>
+      </c>
+      <c r="H41" s="10">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1852,8 +2265,17 @@
       <c r="E42" s="5">
         <v>-54.274478999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="10">
+        <v>12</v>
+      </c>
+      <c r="G42" s="10">
+        <v>335</v>
+      </c>
+      <c r="H42" s="10">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1869,8 +2291,17 @@
       <c r="E43" s="5">
         <v>-54.255923000000003</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="10">
+        <v>200</v>
+      </c>
+      <c r="G43" s="10">
+        <v>330</v>
+      </c>
+      <c r="H43" s="10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1886,8 +2317,17 @@
       <c r="E44" s="5">
         <v>-54.357852999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="10">
+        <v>18</v>
+      </c>
+      <c r="G44" s="10">
+        <v>340</v>
+      </c>
+      <c r="H44" s="10">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1903,8 +2343,17 @@
       <c r="E45" s="5">
         <v>-54.250475022730697</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="10">
+        <v>76</v>
+      </c>
+      <c r="G45" s="10">
+        <v>365</v>
+      </c>
+      <c r="H45" s="10">
+        <v>27.74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1920,8 +2369,17 @@
       <c r="E46" s="5">
         <v>-54.276201</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="10">
+        <v>36</v>
+      </c>
+      <c r="G46" s="10">
+        <v>340</v>
+      </c>
+      <c r="H46" s="10">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1937,8 +2395,17 @@
       <c r="E47" s="5">
         <v>-54.259942000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="10">
+        <v>14</v>
+      </c>
+      <c r="G47" s="10">
+        <v>340</v>
+      </c>
+      <c r="H47" s="10">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1954,8 +2421,17 @@
       <c r="E48" s="5">
         <v>-54.274099</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="10">
+        <v>14</v>
+      </c>
+      <c r="G48" s="10">
+        <v>375</v>
+      </c>
+      <c r="H48" s="10">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1971,8 +2447,17 @@
       <c r="E49" s="5">
         <v>-54.263374491885301</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="10">
+        <v>150</v>
+      </c>
+      <c r="G49" s="10">
+        <v>375</v>
+      </c>
+      <c r="H49" s="10">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1988,8 +2473,17 @@
       <c r="E50" s="5">
         <v>-54.259650999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="10">
+        <v>130</v>
+      </c>
+      <c r="G50" s="10">
+        <v>340</v>
+      </c>
+      <c r="H50" s="10">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2005,8 +2499,17 @@
       <c r="E51" s="5">
         <v>-54.5022093265694</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="10">
+        <v>12</v>
+      </c>
+      <c r="G51" s="10">
+        <v>330</v>
+      </c>
+      <c r="H51" s="10">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2022,8 +2525,17 @@
       <c r="E52" s="5">
         <v>-54.267175999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="10">
+        <v>24</v>
+      </c>
+      <c r="G52" s="10">
+        <v>340</v>
+      </c>
+      <c r="H52" s="10">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2039,8 +2551,17 @@
       <c r="E53" s="5">
         <v>-54.257396999999997</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="10">
+        <v>20</v>
+      </c>
+      <c r="G53" s="10">
+        <v>375</v>
+      </c>
+      <c r="H53" s="10">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2056,8 +2577,17 @@
       <c r="E54" s="5">
         <v>-54.221615999999997</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="10">
+        <v>11</v>
+      </c>
+      <c r="G54" s="10">
+        <v>375</v>
+      </c>
+      <c r="H54" s="10">
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2073,8 +2603,17 @@
       <c r="E55" s="5">
         <v>-54.273496999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="10">
+        <v>12</v>
+      </c>
+      <c r="G55" s="10">
+        <v>375</v>
+      </c>
+      <c r="H55" s="10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2090,8 +2629,17 @@
       <c r="E56" s="5">
         <v>-54.260921000000003</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="10">
+        <v>14</v>
+      </c>
+      <c r="G56" s="10">
+        <v>370</v>
+      </c>
+      <c r="H56" s="10">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2107,8 +2655,17 @@
       <c r="E57" s="5">
         <v>-54.274248999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="10">
+        <v>16</v>
+      </c>
+      <c r="G57" s="10">
+        <v>370</v>
+      </c>
+      <c r="H57" s="10">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2124,8 +2681,17 @@
       <c r="E58" s="5">
         <v>-54.238835999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="10">
+        <v>26</v>
+      </c>
+      <c r="G58" s="10">
+        <v>370</v>
+      </c>
+      <c r="H58" s="10">
+        <v>9.6199999999999992</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2141,8 +2707,17 @@
       <c r="E59" s="5">
         <v>-54.356262999999998</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="10">
+        <v>30</v>
+      </c>
+      <c r="G59" s="10">
+        <v>370</v>
+      </c>
+      <c r="H59" s="10">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2158,8 +2733,17 @@
       <c r="E60" s="5">
         <v>-54.251455</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="10">
+        <v>12</v>
+      </c>
+      <c r="G60" s="10">
+        <v>370</v>
+      </c>
+      <c r="H60" s="10">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2175,8 +2759,17 @@
       <c r="E61" s="5">
         <v>-54.269570000000002</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="10">
+        <v>14</v>
+      </c>
+      <c r="G61" s="10">
+        <v>340</v>
+      </c>
+      <c r="H61" s="10">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2192,8 +2785,17 @@
       <c r="E62" s="5">
         <v>-54.259118999999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="10">
+        <v>14</v>
+      </c>
+      <c r="G62" s="10">
+        <v>370</v>
+      </c>
+      <c r="H62" s="10">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2209,8 +2811,17 @@
       <c r="E63" s="5">
         <v>-54.250931690960797</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="10">
+        <v>8</v>
+      </c>
+      <c r="G63" s="10">
+        <v>370</v>
+      </c>
+      <c r="H63" s="10">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2226,8 +2837,17 @@
       <c r="E64" s="5">
         <v>-54.267324000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="10">
+        <v>240</v>
+      </c>
+      <c r="G64" s="10">
+        <v>340</v>
+      </c>
+      <c r="H64" s="10">
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2243,8 +2863,17 @@
       <c r="E65" s="6">
         <v>-54.267302999999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="10">
+        <v>288</v>
+      </c>
+      <c r="G65" s="10">
+        <v>340</v>
+      </c>
+      <c r="H65" s="10">
+        <v>97.92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2260,8 +2889,17 @@
       <c r="E66" s="5">
         <v>-54.270797000000002</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="10">
+        <v>20</v>
+      </c>
+      <c r="G66" s="10">
+        <v>340</v>
+      </c>
+      <c r="H66" s="10">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2277,8 +2915,17 @@
       <c r="E67" s="5">
         <v>-54.265236868478297</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="10">
+        <v>98</v>
+      </c>
+      <c r="G67" s="10">
+        <v>390</v>
+      </c>
+      <c r="H67" s="10">
+        <v>38.22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2294,8 +2941,17 @@
       <c r="E68" s="5">
         <v>-54.253343999999998</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="10">
+        <v>12</v>
+      </c>
+      <c r="G68" s="10">
+        <v>340</v>
+      </c>
+      <c r="H68" s="10">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2311,8 +2967,17 @@
       <c r="E69" s="5">
         <v>-54.258890999999998</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="10">
+        <v>36</v>
+      </c>
+      <c r="G69" s="10">
+        <v>390</v>
+      </c>
+      <c r="H69" s="10">
+        <v>14.04</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2328,8 +2993,17 @@
       <c r="E70" s="5">
         <v>-54.270814999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="10">
+        <v>14</v>
+      </c>
+      <c r="G70" s="10">
+        <v>340</v>
+      </c>
+      <c r="H70" s="10">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2345,8 +3019,17 @@
       <c r="E71" s="5">
         <v>-51.167195999999997</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="10">
+        <v>32</v>
+      </c>
+      <c r="G71" s="10">
+        <v>390</v>
+      </c>
+      <c r="H71" s="10">
+        <v>12.48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2362,8 +3045,17 @@
       <c r="E72" s="5">
         <v>-54.277341999999997</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="10">
+        <v>16</v>
+      </c>
+      <c r="G72" s="10">
+        <v>340</v>
+      </c>
+      <c r="H72" s="10">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2379,8 +3071,17 @@
       <c r="E73" s="5">
         <v>-54.268453000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="10">
+        <v>14</v>
+      </c>
+      <c r="G73" s="10">
+        <v>340</v>
+      </c>
+      <c r="H73" s="10">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2396,8 +3097,17 @@
       <c r="E74" s="5">
         <v>-54.268120000000003</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="10">
+        <v>9</v>
+      </c>
+      <c r="G74" s="10">
+        <v>340</v>
+      </c>
+      <c r="H74" s="10">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2413,8 +3123,17 @@
       <c r="E75" s="5">
         <v>-54.274098000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="10">
+        <v>22</v>
+      </c>
+      <c r="G75" s="10">
+        <v>345</v>
+      </c>
+      <c r="H75" s="10">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2430,8 +3149,17 @@
       <c r="E76" s="5">
         <v>-54.251457000000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="10">
+        <v>16</v>
+      </c>
+      <c r="G76" s="10">
+        <v>340</v>
+      </c>
+      <c r="H76" s="10">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2447,8 +3175,17 @@
       <c r="E77" s="5">
         <v>-54.251524000000003</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="10">
+        <v>18</v>
+      </c>
+      <c r="G77" s="10">
+        <v>340</v>
+      </c>
+      <c r="H77" s="10">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2464,8 +3201,17 @@
       <c r="E78" s="5">
         <v>-54.296765999999998</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="10">
+        <v>20</v>
+      </c>
+      <c r="G78" s="10">
+        <v>340</v>
+      </c>
+      <c r="H78" s="10">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2481,8 +3227,17 @@
       <c r="E79" s="5">
         <v>-53.940485008778303</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="10">
+        <v>30</v>
+      </c>
+      <c r="G79" s="10">
+        <v>400</v>
+      </c>
+      <c r="H79" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2498,8 +3253,17 @@
       <c r="E80" s="5">
         <v>-54.248925</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="10">
+        <v>12</v>
+      </c>
+      <c r="G80" s="10">
+        <v>345</v>
+      </c>
+      <c r="H80" s="10">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2515,8 +3279,17 @@
       <c r="E81" s="5">
         <v>-53.908592326569298</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="10">
+        <v>10</v>
+      </c>
+      <c r="G81" s="10">
+        <v>400</v>
+      </c>
+      <c r="H81" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2532,8 +3305,17 @@
       <c r="E82" s="5">
         <v>-54.279991000000003</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="10">
+        <v>12</v>
+      </c>
+      <c r="G82" s="10">
+        <v>345</v>
+      </c>
+      <c r="H82" s="10">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2549,8 +3331,17 @@
       <c r="E83" s="5">
         <v>-54.273010999999997</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="10">
+        <v>16</v>
+      </c>
+      <c r="G83" s="10">
+        <v>345</v>
+      </c>
+      <c r="H83" s="10">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2566,8 +3357,17 @@
       <c r="E84" s="5">
         <v>-54.360798000000003</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="10">
+        <v>12</v>
+      </c>
+      <c r="G84" s="10">
+        <v>345</v>
+      </c>
+      <c r="H84" s="10">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2583,8 +3383,17 @@
       <c r="E85" s="5">
         <v>-54.271813000000002</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="10">
+        <v>12</v>
+      </c>
+      <c r="G85" s="10">
+        <v>345</v>
+      </c>
+      <c r="H85" s="10">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2600,8 +3409,17 @@
       <c r="E86" s="5">
         <v>-54.267198999999998</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="10">
+        <v>14</v>
+      </c>
+      <c r="G86" s="10">
+        <v>345</v>
+      </c>
+      <c r="H86" s="10">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2617,8 +3435,17 @@
       <c r="E87" s="5">
         <v>-54.263520999999997</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="10">
+        <v>16</v>
+      </c>
+      <c r="G87" s="10">
+        <v>400</v>
+      </c>
+      <c r="H87" s="10">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2634,8 +3461,17 @@
       <c r="E88" s="5">
         <v>-54.264209000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="10">
+        <v>18</v>
+      </c>
+      <c r="G88" s="10">
+        <v>400</v>
+      </c>
+      <c r="H88" s="10">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2651,8 +3487,17 @@
       <c r="E89" s="5">
         <v>-54.248770999999998</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" s="10">
+        <v>16</v>
+      </c>
+      <c r="G89" s="10">
+        <v>345</v>
+      </c>
+      <c r="H89" s="10">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2668,8 +3513,17 @@
       <c r="E90" s="5">
         <v>-54.266972000000003</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="10">
+        <v>12</v>
+      </c>
+      <c r="G90" s="10">
+        <v>350</v>
+      </c>
+      <c r="H90" s="10">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2685,8 +3539,17 @@
       <c r="E91" s="5">
         <v>-54.236417299999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="10">
+        <v>20</v>
+      </c>
+      <c r="G91" s="10">
+        <v>350</v>
+      </c>
+      <c r="H91" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2702,8 +3565,17 @@
       <c r="E92" s="5">
         <v>-54.258096999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="10">
+        <v>18</v>
+      </c>
+      <c r="G92" s="10">
+        <v>350</v>
+      </c>
+      <c r="H92" s="10">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2719,8 +3591,17 @@
       <c r="E93" s="5">
         <v>-54.264854</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="10">
+        <v>12</v>
+      </c>
+      <c r="G93" s="10">
+        <v>405</v>
+      </c>
+      <c r="H93" s="10">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2736,8 +3617,17 @@
       <c r="E94" s="5">
         <v>-54.265129999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="10">
+        <v>84</v>
+      </c>
+      <c r="G94" s="10">
+        <v>400</v>
+      </c>
+      <c r="H94" s="10">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2753,8 +3643,17 @@
       <c r="E95" s="5">
         <v>-54.269433999999997</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="10">
+        <v>24</v>
+      </c>
+      <c r="G95" s="10">
+        <v>350</v>
+      </c>
+      <c r="H95" s="10">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2770,8 +3669,17 @@
       <c r="E96" s="5">
         <v>-54.261862000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" s="10">
+        <v>20</v>
+      </c>
+      <c r="G96" s="10">
+        <v>350</v>
+      </c>
+      <c r="H96" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2787,8 +3695,17 @@
       <c r="E97" s="5">
         <v>-54.265296894791398</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" s="10">
+        <v>14</v>
+      </c>
+      <c r="G97" s="10">
+        <v>350</v>
+      </c>
+      <c r="H97" s="10">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2804,8 +3721,17 @@
       <c r="E98" s="5">
         <v>-54.266038999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" s="10">
+        <v>16</v>
+      </c>
+      <c r="G98" s="10">
+        <v>405</v>
+      </c>
+      <c r="H98" s="10">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2821,8 +3747,17 @@
       <c r="E99" s="5">
         <v>-54.268788999999998</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" s="10">
+        <v>8</v>
+      </c>
+      <c r="G99" s="10">
+        <v>345</v>
+      </c>
+      <c r="H99" s="10">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -2838,8 +3773,17 @@
       <c r="E100" s="5">
         <v>-54.249544999999998</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" s="10">
+        <v>110</v>
+      </c>
+      <c r="G100" s="10">
+        <v>405</v>
+      </c>
+      <c r="H100" s="10">
+        <v>44.55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -2855,8 +3799,17 @@
       <c r="E101" s="5">
         <v>-54.265797999999997</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" s="10">
+        <v>8</v>
+      </c>
+      <c r="G101" s="10">
+        <v>345</v>
+      </c>
+      <c r="H101" s="10">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -2872,8 +3825,17 @@
       <c r="E102" s="5">
         <v>-54.265754999999999</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" s="10">
+        <v>8</v>
+      </c>
+      <c r="G102" s="10">
+        <v>345</v>
+      </c>
+      <c r="H102" s="10">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -2889,8 +3851,17 @@
       <c r="E103" s="5">
         <v>-54.243279999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" s="10">
+        <v>10</v>
+      </c>
+      <c r="G103" s="10">
+        <v>345</v>
+      </c>
+      <c r="H103" s="10">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -2906,8 +3877,17 @@
       <c r="E104" s="5">
         <v>-54.277214000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" s="10">
+        <v>28</v>
+      </c>
+      <c r="G104" s="10">
+        <v>345</v>
+      </c>
+      <c r="H104" s="10">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -2923,8 +3903,17 @@
       <c r="E105" s="5">
         <v>-54.263043000000003</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="10">
+        <v>10</v>
+      </c>
+      <c r="G105" s="10">
+        <v>405</v>
+      </c>
+      <c r="H105" s="10">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -2940,8 +3929,17 @@
       <c r="E106" s="5">
         <v>-54.264229</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" s="10">
+        <v>12</v>
+      </c>
+      <c r="G106" s="10">
+        <v>345</v>
+      </c>
+      <c r="H106" s="10">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -2957,8 +3955,17 @@
       <c r="E107" s="5">
         <v>-54.264201999999997</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" s="10">
+        <v>12</v>
+      </c>
+      <c r="G107" s="10">
+        <v>345</v>
+      </c>
+      <c r="H107" s="10">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -2974,8 +3981,17 @@
       <c r="E108" s="5">
         <v>-54.262683000000003</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" s="10">
+        <v>12</v>
+      </c>
+      <c r="G108" s="10">
+        <v>405</v>
+      </c>
+      <c r="H108" s="10">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -2991,8 +4007,17 @@
       <c r="E109" s="5">
         <v>-54.56644</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" s="10">
+        <v>12</v>
+      </c>
+      <c r="G109" s="10">
+        <v>345</v>
+      </c>
+      <c r="H109" s="10">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3008,8 +4033,17 @@
       <c r="E110" s="5">
         <v>-54.265562000000003</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" s="10">
+        <v>12</v>
+      </c>
+      <c r="G110" s="10">
+        <v>405</v>
+      </c>
+      <c r="H110" s="10">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3025,8 +4059,17 @@
       <c r="E111" s="5">
         <v>-54.265562000000003</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" s="10">
+        <v>8</v>
+      </c>
+      <c r="G111" s="10">
+        <v>405</v>
+      </c>
+      <c r="H111" s="10">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3042,8 +4085,17 @@
       <c r="E112" s="5">
         <v>-54.255563299999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="10">
+        <v>50</v>
+      </c>
+      <c r="G112" s="10">
+        <v>405</v>
+      </c>
+      <c r="H112" s="10">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3059,8 +4111,17 @@
       <c r="E113" s="5">
         <v>-54.2766108</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="10">
+        <v>16</v>
+      </c>
+      <c r="G113" s="10">
+        <v>405</v>
+      </c>
+      <c r="H113" s="10">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3076,8 +4137,17 @@
       <c r="E114" s="5">
         <v>-54.264176200000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="10">
+        <v>16</v>
+      </c>
+      <c r="G114" s="10">
+        <v>345</v>
+      </c>
+      <c r="H114" s="10">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3093,8 +4163,17 @@
       <c r="E115" s="5">
         <v>-55.251213999999997</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="10">
+        <v>28</v>
+      </c>
+      <c r="G115" s="10">
+        <v>405</v>
+      </c>
+      <c r="H115" s="10">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3110,8 +4189,17 @@
       <c r="E116" s="5">
         <v>-54.277309199999998</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="10">
+        <v>42</v>
+      </c>
+      <c r="G116" s="10">
+        <v>345</v>
+      </c>
+      <c r="H116" s="10">
+        <v>14.49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3127,8 +4215,17 @@
       <c r="E117" s="5">
         <v>-54.265631200000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="10">
+        <v>48</v>
+      </c>
+      <c r="G117" s="10">
+        <v>405</v>
+      </c>
+      <c r="H117" s="10">
+        <v>19.440000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3144,8 +4241,17 @@
       <c r="E118" s="5">
         <v>-54.265521999999997</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="10">
+        <v>24</v>
+      </c>
+      <c r="G118" s="10">
+        <v>405</v>
+      </c>
+      <c r="H118" s="10">
+        <v>9.7200000000000006</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3161,8 +4267,17 @@
       <c r="E119" s="5">
         <v>-54.265631200000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="10">
+        <v>26</v>
+      </c>
+      <c r="G119" s="10">
+        <v>405</v>
+      </c>
+      <c r="H119" s="10">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3178,8 +4293,17 @@
       <c r="E120" s="5">
         <v>-54.246411000000002</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="10">
+        <v>24</v>
+      </c>
+      <c r="G120" s="10">
+        <v>405</v>
+      </c>
+      <c r="H120" s="10">
+        <v>9.7200000000000006</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3195,8 +4319,17 @@
       <c r="E121" s="5">
         <v>-54.264109224696902</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="10">
+        <v>24</v>
+      </c>
+      <c r="G121" s="10">
+        <v>405</v>
+      </c>
+      <c r="H121" s="10">
+        <v>9.7200000000000006</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3212,8 +4345,17 @@
       <c r="E122" s="5">
         <v>-54.268636309595003</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="10">
+        <v>12</v>
+      </c>
+      <c r="G122" s="10">
+        <v>405</v>
+      </c>
+      <c r="H122" s="10">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3229,8 +4371,17 @@
       <c r="E123" s="5">
         <v>-54.021334364576099</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="10">
+        <v>12</v>
+      </c>
+      <c r="G123" s="10">
+        <v>405</v>
+      </c>
+      <c r="H123" s="10">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3246,8 +4397,17 @@
       <c r="E124" s="5">
         <v>-54.260783520063697</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="10">
+        <v>16</v>
+      </c>
+      <c r="G124" s="10">
+        <v>405</v>
+      </c>
+      <c r="H124" s="10">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3263,8 +4423,17 @@
       <c r="E125" s="5">
         <v>-54.296879199999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="10">
+        <v>10</v>
+      </c>
+      <c r="G125" s="10">
+        <v>405</v>
+      </c>
+      <c r="H125" s="10">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3280,8 +4449,17 @@
       <c r="E126" s="5">
         <v>-54.550433400000003</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" s="10">
+        <v>48</v>
+      </c>
+      <c r="G126" s="10">
+        <v>400</v>
+      </c>
+      <c r="H126" s="10">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3297,8 +4475,17 @@
       <c r="E127" s="5">
         <v>54.551089300000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" s="10">
+        <v>30</v>
+      </c>
+      <c r="G127" s="10">
+        <v>400</v>
+      </c>
+      <c r="H127" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3314,8 +4501,17 @@
       <c r="E128" s="5">
         <v>-54.551089300000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="10">
+        <v>30</v>
+      </c>
+      <c r="G128" s="10">
+        <v>400</v>
+      </c>
+      <c r="H128" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3331,8 +4527,17 @@
       <c r="E129" s="5">
         <v>-55.0302255282486</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="10">
+        <v>22</v>
+      </c>
+      <c r="G129" s="10">
+        <v>405</v>
+      </c>
+      <c r="H129" s="10">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3348,8 +4553,17 @@
       <c r="E130" s="5">
         <v>-54.5534848</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130" s="10">
+        <v>16</v>
+      </c>
+      <c r="G130" s="10">
+        <v>405</v>
+      </c>
+      <c r="H130" s="10">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3365,8 +4579,17 @@
       <c r="E131" s="5">
         <v>-54.242130199999998</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="10">
+        <v>7</v>
+      </c>
+      <c r="G131" s="10">
+        <v>405</v>
+      </c>
+      <c r="H131" s="10">
+        <v>2.835</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3382,8 +4605,17 @@
       <c r="E132" s="5">
         <v>-54.557296600000001</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="10">
+        <v>10</v>
+      </c>
+      <c r="G132" s="10">
+        <v>345</v>
+      </c>
+      <c r="H132" s="10">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3399,8 +4631,17 @@
       <c r="E133" s="5">
         <v>-54.258725446597502</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="10">
+        <v>30</v>
+      </c>
+      <c r="G133" s="10">
+        <v>405</v>
+      </c>
+      <c r="H133" s="10">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3416,8 +4657,17 @@
       <c r="E134" s="5">
         <v>-54.275769199999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="10">
+        <v>14</v>
+      </c>
+      <c r="G134" s="10">
+        <v>405</v>
+      </c>
+      <c r="H134" s="10">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3433,8 +4683,17 @@
       <c r="E135" s="5">
         <v>-54.429679499999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="10">
+        <v>24</v>
+      </c>
+      <c r="G135" s="10">
+        <v>405</v>
+      </c>
+      <c r="H135" s="10">
+        <v>9.7200000000000006</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3450,8 +4709,17 @@
       <c r="E136" s="5">
         <v>-54.268834200000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" s="10">
+        <v>8</v>
+      </c>
+      <c r="G136" s="10">
+        <v>405</v>
+      </c>
+      <c r="H136" s="10">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3467,8 +4735,17 @@
       <c r="E137" s="5">
         <v>-54.282385599999998</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137" s="10">
+        <v>22</v>
+      </c>
+      <c r="G137" s="10">
+        <v>405</v>
+      </c>
+      <c r="H137" s="10">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3484,8 +4761,17 @@
       <c r="E138" s="5">
         <v>-54.274974399999998</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="10">
+        <v>12</v>
+      </c>
+      <c r="G138" s="10">
+        <v>350</v>
+      </c>
+      <c r="H138" s="10">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3501,8 +4787,17 @@
       <c r="E139" s="5">
         <v>-54.244047199999997</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139" s="10">
+        <v>12</v>
+      </c>
+      <c r="G139" s="10">
+        <v>350</v>
+      </c>
+      <c r="H139" s="10">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3518,8 +4813,17 @@
       <c r="E140" s="5">
         <v>-54.2565156</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140" s="10">
+        <v>11</v>
+      </c>
+      <c r="G140" s="10">
+        <v>350</v>
+      </c>
+      <c r="H140" s="10">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3535,8 +4839,17 @@
       <c r="E141" s="5">
         <v>-54.192553199999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141" s="10">
+        <v>18</v>
+      </c>
+      <c r="G141" s="10">
+        <v>350</v>
+      </c>
+      <c r="H141" s="10">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3552,8 +4865,17 @@
       <c r="E142" s="5">
         <v>-53.9184731</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142" s="10">
+        <v>14</v>
+      </c>
+      <c r="G142" s="10">
+        <v>350</v>
+      </c>
+      <c r="H142" s="10">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3569,8 +4891,17 @@
       <c r="E143" s="7">
         <v>-54.500766499999997</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="10">
+        <v>8</v>
+      </c>
+      <c r="G143" s="10">
+        <v>350</v>
+      </c>
+      <c r="H143" s="10">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -3586,8 +4917,17 @@
       <c r="E144" s="5">
         <v>-54.268803499999997</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F144" s="10">
+        <v>13</v>
+      </c>
+      <c r="G144" s="10">
+        <v>350</v>
+      </c>
+      <c r="H144" s="10">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -3603,9 +4943,17 @@
       <c r="E145" s="5">
         <v>-54.498774716781597</v>
       </c>
-      <c r="G145" s="8"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F145" s="10">
+        <v>16</v>
+      </c>
+      <c r="G145" s="10">
+        <v>350</v>
+      </c>
+      <c r="H145" s="10">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -3621,8 +4969,17 @@
       <c r="E146" s="5">
         <v>-54.477024299999997</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F146" s="10">
+        <v>28</v>
+      </c>
+      <c r="G146" s="10">
+        <v>405</v>
+      </c>
+      <c r="H146" s="10">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3638,8 +4995,17 @@
       <c r="E147" s="5">
         <v>-54.502524275499603</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F147" s="10">
+        <v>18</v>
+      </c>
+      <c r="G147" s="10">
+        <v>405</v>
+      </c>
+      <c r="H147" s="10">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -3655,8 +5021,17 @@
       <c r="E148" s="5">
         <v>-54.499183233315399</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F148" s="10">
+        <v>10</v>
+      </c>
+      <c r="G148" s="10">
+        <v>350</v>
+      </c>
+      <c r="H148" s="10">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -3672,8 +5047,17 @@
       <c r="E149" s="5">
         <v>-54.500595183966702</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F149" s="10">
+        <v>26</v>
+      </c>
+      <c r="G149" s="10">
+        <v>350</v>
+      </c>
+      <c r="H149" s="10">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -3689,8 +5073,17 @@
       <c r="E150" s="5">
         <v>-54.500780326569398</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F150" s="10">
+        <v>24</v>
+      </c>
+      <c r="G150" s="10">
+        <v>405</v>
+      </c>
+      <c r="H150" s="10">
+        <v>9.7200000000000006</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -3706,8 +5099,17 @@
       <c r="E151" s="5">
         <v>-54.500329727194099</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F151" s="10">
+        <v>12</v>
+      </c>
+      <c r="G151" s="10">
+        <v>405</v>
+      </c>
+      <c r="H151" s="10">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -3723,8 +5125,17 @@
       <c r="E152" s="5">
         <v>-55.028486873868701</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F152" s="10">
+        <v>11</v>
+      </c>
+      <c r="G152" s="10">
+        <v>350</v>
+      </c>
+      <c r="H152" s="10">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -3740,8 +5151,17 @@
       <c r="E153" s="5">
         <v>-54.271275299999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F153" s="10">
+        <v>40</v>
+      </c>
+      <c r="G153" s="10">
+        <v>405</v>
+      </c>
+      <c r="H153" s="10">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -3757,8 +5177,17 @@
       <c r="E154" s="5">
         <v>-54.268197399999998</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F154" s="10">
+        <v>12</v>
+      </c>
+      <c r="G154" s="10">
+        <v>405</v>
+      </c>
+      <c r="H154" s="10">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -3774,8 +5203,17 @@
       <c r="E155" s="5">
         <v>-54.258050775619999</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F155" s="10">
+        <v>46</v>
+      </c>
+      <c r="G155" s="10">
+        <v>405</v>
+      </c>
+      <c r="H155" s="10">
+        <v>18.63</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -3791,8 +5229,17 @@
       <c r="E156" s="5">
         <v>-54.266629299999998</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F156" s="10">
+        <v>36</v>
+      </c>
+      <c r="G156" s="10">
+        <v>350</v>
+      </c>
+      <c r="H156" s="10">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -3808,8 +5255,17 @@
       <c r="E157" s="5">
         <v>-54.265181800000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F157" s="10">
+        <v>20</v>
+      </c>
+      <c r="G157" s="10">
+        <v>405</v>
+      </c>
+      <c r="H157" s="10">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -3825,8 +5281,17 @@
       <c r="E158" s="5">
         <v>-54.265181800000001</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F158" s="10">
+        <v>7</v>
+      </c>
+      <c r="G158" s="10">
+        <v>405</v>
+      </c>
+      <c r="H158" s="10">
+        <v>2.835</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -3842,8 +5307,17 @@
       <c r="E159" s="5">
         <v>-54.265269799999999</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F159" s="10">
+        <v>11</v>
+      </c>
+      <c r="G159" s="10">
+        <v>405</v>
+      </c>
+      <c r="H159" s="10">
+        <v>4.4550000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -3859,8 +5333,17 @@
       <c r="E160" s="5">
         <v>-54.264125800000002</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160" s="10">
+        <v>14</v>
+      </c>
+      <c r="G160" s="10">
+        <v>405</v>
+      </c>
+      <c r="H160" s="10">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -3876,8 +5359,17 @@
       <c r="E161" s="5">
         <v>-54.278522602642902</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161" s="10">
+        <v>8</v>
+      </c>
+      <c r="G161" s="10">
+        <v>405</v>
+      </c>
+      <c r="H161" s="10">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -3893,8 +5385,17 @@
       <c r="E162" s="5">
         <v>-53.823552800000002</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162" s="10">
+        <v>16</v>
+      </c>
+      <c r="G162" s="10">
+        <v>405</v>
+      </c>
+      <c r="H162" s="10">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -3910,8 +5411,17 @@
       <c r="E163" s="5">
         <v>-54.275294000000002</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163" s="10">
+        <v>14</v>
+      </c>
+      <c r="G163" s="10">
+        <v>405</v>
+      </c>
+      <c r="H163" s="10">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -3927,8 +5437,17 @@
       <c r="E164" s="5">
         <v>-54.549093102833197</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164" s="10">
+        <v>14</v>
+      </c>
+      <c r="G164" s="10">
+        <v>405</v>
+      </c>
+      <c r="H164" s="10">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -3944,8 +5463,17 @@
       <c r="E165" s="5">
         <v>-53.383733932515398</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165" s="10">
+        <v>28</v>
+      </c>
+      <c r="G165" s="10">
+        <v>405</v>
+      </c>
+      <c r="H165" s="10">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -3961,8 +5489,17 @@
       <c r="E166" s="5">
         <v>-54.249127700000003</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166" s="10">
+        <v>17</v>
+      </c>
+      <c r="G166" s="10">
+        <v>405</v>
+      </c>
+      <c r="H166" s="10">
+        <v>6.8849999999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -3978,8 +5515,17 @@
       <c r="E167" s="5">
         <v>-54.546248160504199</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167" s="10">
+        <v>6</v>
+      </c>
+      <c r="G167" s="10">
+        <v>405</v>
+      </c>
+      <c r="H167" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -3995,8 +5541,17 @@
       <c r="E168" s="5">
         <v>-54.5504168851134</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168" s="10">
+        <v>12</v>
+      </c>
+      <c r="G168" s="10">
+        <v>415</v>
+      </c>
+      <c r="H168" s="10">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4012,8 +5567,17 @@
       <c r="E169" s="5">
         <v>-54.501902589151399</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169" s="10">
+        <v>10</v>
+      </c>
+      <c r="G169" s="10">
+        <v>415</v>
+      </c>
+      <c r="H169" s="10">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4029,8 +5593,17 @@
       <c r="E170" s="5">
         <v>-54.257278829999997</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170" s="10">
+        <v>17</v>
+      </c>
+      <c r="G170" s="10">
+        <v>415</v>
+      </c>
+      <c r="H170" s="10">
+        <v>7.0549999999999997</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4046,8 +5619,17 @@
       <c r="E171" s="5">
         <v>-54.478167758783897</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171" s="10">
+        <v>12</v>
+      </c>
+      <c r="G171" s="10">
+        <v>415</v>
+      </c>
+      <c r="H171" s="10">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4063,8 +5645,17 @@
       <c r="E172" s="5">
         <v>-54.23846709</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172" s="10">
+        <v>8</v>
+      </c>
+      <c r="G172" s="10">
+        <v>415</v>
+      </c>
+      <c r="H172" s="10">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4080,8 +5671,17 @@
       <c r="E173" s="5">
         <v>-54.265960200000002</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173" s="10">
+        <v>17</v>
+      </c>
+      <c r="G173" s="10">
+        <v>405</v>
+      </c>
+      <c r="H173" s="10">
+        <v>6.8849999999999998</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4097,8 +5697,17 @@
       <c r="E174" s="5">
         <v>-52.431655200000002</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174" s="10">
+        <v>11</v>
+      </c>
+      <c r="G174" s="10">
+        <v>415</v>
+      </c>
+      <c r="H174" s="10">
+        <v>4.5650000000000004</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4114,8 +5723,17 @@
       <c r="E175" s="5">
         <v>-54.279496999999999</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175" s="10">
+        <v>10</v>
+      </c>
+      <c r="G175" s="10">
+        <v>415</v>
+      </c>
+      <c r="H175" s="10">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4131,8 +5749,17 @@
       <c r="E176" s="5">
         <v>-54.259939899999999</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176" s="10">
+        <v>16</v>
+      </c>
+      <c r="G176" s="10">
+        <v>415</v>
+      </c>
+      <c r="H176" s="10">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4148,8 +5775,17 @@
       <c r="E177" s="5">
         <v>-54.268316208999998</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177" s="10">
+        <v>16</v>
+      </c>
+      <c r="G177" s="10">
+        <v>405</v>
+      </c>
+      <c r="H177" s="10">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4165,8 +5801,17 @@
       <c r="E178" s="5">
         <v>-54.208232299999999</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178" s="10">
+        <v>30</v>
+      </c>
+      <c r="G178" s="10">
+        <v>445</v>
+      </c>
+      <c r="H178" s="10">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4182,8 +5827,17 @@
       <c r="E179" s="5">
         <v>-54.217166589135402</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179" s="10">
+        <v>8</v>
+      </c>
+      <c r="G179" s="10">
+        <v>415</v>
+      </c>
+      <c r="H179" s="10">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4199,8 +5853,17 @@
       <c r="E180" s="5">
         <v>-54.260078774935899</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180" s="10">
+        <v>14</v>
+      </c>
+      <c r="G180" s="10">
+        <v>415</v>
+      </c>
+      <c r="H180" s="10">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4216,8 +5879,17 @@
       <c r="E181" s="5">
         <v>-54.258458239578999</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181" s="10">
+        <v>24</v>
+      </c>
+      <c r="G181" s="10">
+        <v>415</v>
+      </c>
+      <c r="H181" s="10">
+        <v>9.9600000000000009</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4233,8 +5905,17 @@
       <c r="E182" s="5">
         <v>-54.278233381763101</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182" s="10">
+        <v>18</v>
+      </c>
+      <c r="G182" s="10">
+        <v>415</v>
+      </c>
+      <c r="H182" s="10">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4250,8 +5931,17 @@
       <c r="E183" s="5">
         <v>-54.502694512465297</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183" s="10">
+        <v>18</v>
+      </c>
+      <c r="G183" s="10">
+        <v>415</v>
+      </c>
+      <c r="H183" s="10">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4267,8 +5957,17 @@
       <c r="E184" s="5">
         <v>-54.503514904935201</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184" s="10">
+        <v>54</v>
+      </c>
+      <c r="G184" s="10">
+        <v>415</v>
+      </c>
+      <c r="H184" s="10">
+        <v>22.41</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4284,8 +5983,17 @@
       <c r="E185" s="5">
         <v>-54.257512760899999</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185" s="10">
+        <v>28</v>
+      </c>
+      <c r="G185" s="10">
+        <v>415</v>
+      </c>
+      <c r="H185" s="10">
+        <v>11.62</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4301,8 +6009,17 @@
       <c r="E186" s="5">
         <v>-54.271119974299999</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186" s="10">
+        <v>26</v>
+      </c>
+      <c r="G186" s="10">
+        <v>415</v>
+      </c>
+      <c r="H186" s="10">
+        <v>10.79</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4318,8 +6035,17 @@
       <c r="E187" s="5">
         <v>-54.260513719999999</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187" s="10">
+        <v>20</v>
+      </c>
+      <c r="G187" s="10">
+        <v>415</v>
+      </c>
+      <c r="H187" s="10">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4335,8 +6061,17 @@
       <c r="E188" s="5">
         <v>-52.430103140053703</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188" s="10">
+        <v>8</v>
+      </c>
+      <c r="G188" s="10">
+        <v>415</v>
+      </c>
+      <c r="H188" s="10">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4352,8 +6087,17 @@
       <c r="E189" s="5">
         <v>-54.238003640000002</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189" s="10">
+        <v>10</v>
+      </c>
+      <c r="G189" s="10">
+        <v>450</v>
+      </c>
+      <c r="H189" s="10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4369,8 +6113,17 @@
       <c r="E190" s="5">
         <v>-54.260819245999997</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190" s="10">
+        <v>86</v>
+      </c>
+      <c r="G190" s="10">
+        <v>450</v>
+      </c>
+      <c r="H190" s="10">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4386,8 +6139,17 @@
       <c r="E191" s="5">
         <v>-54.268598560509602</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191" s="10">
+        <v>26</v>
+      </c>
+      <c r="G191" s="10">
+        <v>415</v>
+      </c>
+      <c r="H191" s="10">
+        <v>10.79</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4403,8 +6165,17 @@
       <c r="E192" s="5">
         <v>-54.239932323416298</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F192" s="10">
+        <v>14</v>
+      </c>
+      <c r="G192" s="10">
+        <v>450</v>
+      </c>
+      <c r="H192" s="10">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4420,8 +6191,17 @@
       <c r="E193" s="5">
         <v>-54.259667531675397</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F193" s="10">
+        <v>14</v>
+      </c>
+      <c r="G193" s="10">
+        <v>415</v>
+      </c>
+      <c r="H193" s="10">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -4437,8 +6217,17 @@
       <c r="E194" s="5">
         <v>-54.243693718148897</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F194" s="10">
+        <v>10</v>
+      </c>
+      <c r="G194" s="10">
+        <v>415</v>
+      </c>
+      <c r="H194" s="10">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4454,8 +6243,17 @@
       <c r="E195" s="5">
         <v>-54.277671568686699</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F195" s="10">
+        <v>21</v>
+      </c>
+      <c r="G195" s="10">
+        <v>450</v>
+      </c>
+      <c r="H195" s="10">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -4471,8 +6269,17 @@
       <c r="E196" s="5">
         <v>-54.357324660516298</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F196" s="10">
+        <v>20</v>
+      </c>
+      <c r="G196" s="10">
+        <v>450</v>
+      </c>
+      <c r="H196" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -4488,8 +6295,17 @@
       <c r="E197" s="5">
         <v>-54.499439309373201</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F197" s="10">
+        <v>16</v>
+      </c>
+      <c r="G197" s="10">
+        <v>450</v>
+      </c>
+      <c r="H197" s="10">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -4505,8 +6321,17 @@
       <c r="E198" s="5">
         <v>-54.2798596028397</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F198" s="10">
+        <v>10</v>
+      </c>
+      <c r="G198" s="10">
+        <v>450</v>
+      </c>
+      <c r="H198" s="10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -4522,8 +6347,17 @@
       <c r="E199" s="5">
         <v>-54.208232321902699</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F199" s="10">
+        <v>30</v>
+      </c>
+      <c r="G199" s="10">
+        <v>445</v>
+      </c>
+      <c r="H199" s="10">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -4539,8 +6373,17 @@
       <c r="E200" s="5">
         <v>-54.270733960899399</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F200" s="10">
+        <v>16</v>
+      </c>
+      <c r="G200" s="10">
+        <v>450</v>
+      </c>
+      <c r="H200" s="10">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -4556,8 +6399,17 @@
       <c r="E201" s="5">
         <v>-54.500246901099501</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F201" s="10">
+        <v>10</v>
+      </c>
+      <c r="G201" s="10">
+        <v>450</v>
+      </c>
+      <c r="H201" s="10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -4573,8 +6425,17 @@
       <c r="E202" s="5">
         <v>-54.243677046830797</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F202" s="10">
+        <v>86</v>
+      </c>
+      <c r="G202" s="10">
+        <v>450</v>
+      </c>
+      <c r="H202" s="10">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -4590,8 +6451,17 @@
       <c r="E203" s="5">
         <v>-54.273855521290102</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F203" s="10">
+        <v>10</v>
+      </c>
+      <c r="G203" s="10">
+        <v>450</v>
+      </c>
+      <c r="H203" s="10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -4601,15 +6471,23 @@
       <c r="C204">
         <v>131158</v>
       </c>
-      <c r="D204" s="9">
+      <c r="D204" s="8">
         <v>-28.304173174988101</v>
       </c>
-      <c r="E204" s="9">
+      <c r="E204" s="8">
         <v>-54.269415588877699</v>
       </c>
-      <c r="F204" s="10"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F204" s="10">
+        <v>8</v>
+      </c>
+      <c r="G204" s="10">
+        <v>450</v>
+      </c>
+      <c r="H204" s="10">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -4619,15 +6497,23 @@
       <c r="C205">
         <v>131082</v>
       </c>
-      <c r="D205" s="9">
+      <c r="D205" s="8">
         <v>-28.304173174988101</v>
       </c>
-      <c r="E205" s="9">
+      <c r="E205" s="8">
         <v>-54.269415588877699</v>
       </c>
-      <c r="F205" s="10"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F205" s="10">
+        <v>10</v>
+      </c>
+      <c r="G205" s="10">
+        <v>450</v>
+      </c>
+      <c r="H205" s="10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -4637,15 +6523,23 @@
       <c r="C206">
         <v>131194</v>
       </c>
-      <c r="D206" s="11">
+      <c r="D206" s="9">
         <v>-28.305960505379499</v>
       </c>
-      <c r="E206" s="11">
+      <c r="E206" s="9">
         <v>-54.2517506054999</v>
       </c>
-      <c r="F206" s="10"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F206" s="10">
+        <v>8</v>
+      </c>
+      <c r="G206" s="10">
+        <v>450</v>
+      </c>
+      <c r="H206" s="10">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -4655,19 +6549,27 @@
       <c r="C207">
         <v>131202</v>
       </c>
-      <c r="D207" s="9">
+      <c r="D207" s="8">
         <v>-28.304173174988101</v>
       </c>
-      <c r="E207" s="9">
+      <c r="E207" s="8">
         <v>-54.269415588877699</v>
       </c>
-      <c r="F207" s="10"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F207" s="10">
+        <v>16</v>
+      </c>
+      <c r="G207" s="10">
+        <v>450</v>
+      </c>
+      <c r="H207" s="10">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" s="3" t="s">
         <v>210</v>
       </c>
       <c r="C208" s="1">
@@ -4678,6 +6580,16 @@
       </c>
       <c r="E208" s="1">
         <v>-54.242064045169798</v>
+      </c>
+      <c r="F208" s="1">
+        <v>11</v>
+      </c>
+      <c r="G208" s="1">
+        <v>450</v>
+      </c>
+      <c r="H208" s="1">
+        <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
+        <v>4.95</v>
       </c>
     </row>
   </sheetData>

--- a/localização clientes.xlsx
+++ b/localização clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Empresa\google\Sinc_Empresa\Projetos\Python\energens-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16599966-15A6-41B4-94F6-05C61C4926A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BE81E0-6979-48BD-9754-C1ABA8610866}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <si>
     <t>id</t>
   </si>
@@ -679,6 +679,12 @@
   </si>
   <si>
     <t>modules_power</t>
+  </si>
+  <si>
+    <t>Ederbalde Dglioumlni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sérgio Lara e Silva </t>
   </si>
 </sst>
 </file>
@@ -740,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -752,6 +758,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -851,8 +860,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FD6B3B7-5DCF-4893-B21A-B1CB3118375F}" name="Tabela1" displayName="Tabela1" ref="A1:H208" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H208" xr:uid="{3E3CFA4C-A6AD-46F0-AAC7-262EE49187F1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FD6B3B7-5DCF-4893-B21A-B1CB3118375F}" name="Tabela1" displayName="Tabela1" ref="A1:H210" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H210" xr:uid="{3E3CFA4C-A6AD-46F0-AAC7-262EE49187F1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E207">
     <sortCondition ref="A1:A207"/>
   </sortState>
@@ -1167,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E4D8A3-B036-45B9-BFB1-CE1FD37008B3}">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="F211" sqref="F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6566,19 +6575,19 @@
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
+      <c r="A208" s="11">
         <v>207</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C208" s="1">
+      <c r="C208" s="11">
         <v>131240</v>
       </c>
-      <c r="D208" s="5">
+      <c r="D208" s="13">
         <v>-28.302599557386401</v>
       </c>
-      <c r="E208" s="1">
+      <c r="E208" s="11">
         <v>-54.242064045169798</v>
       </c>
       <c r="F208" s="1">
@@ -6590,6 +6599,60 @@
       <c r="H208" s="1">
         <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
         <v>4.95</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="11">
+        <v>208</v>
+      </c>
+      <c r="B209" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C209" s="11">
+        <v>131219</v>
+      </c>
+      <c r="D209" s="11">
+        <v>-28.303149427370101</v>
+      </c>
+      <c r="E209" s="11">
+        <v>-54.267852131675902</v>
+      </c>
+      <c r="F209" s="11">
+        <v>10</v>
+      </c>
+      <c r="G209" s="11">
+        <v>450</v>
+      </c>
+      <c r="H209" s="11">
+        <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="11">
+        <v>209</v>
+      </c>
+      <c r="B210" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C210" s="11">
+        <v>131241</v>
+      </c>
+      <c r="D210" s="11">
+        <v>-28.547111319813101</v>
+      </c>
+      <c r="E210" s="11">
+        <v>-54.550414560504002</v>
+      </c>
+      <c r="F210" s="11">
+        <v>6</v>
+      </c>
+      <c r="G210" s="11">
+        <v>450</v>
+      </c>
+      <c r="H210" s="11">
+        <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
+        <v>2.7</v>
       </c>
     </row>
   </sheetData>

--- a/localização clientes.xlsx
+++ b/localização clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Empresa\google\Sinc_Empresa\Projetos\Python\energens-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BE81E0-6979-48BD-9754-C1ABA8610866}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3768CC45-0292-4BB1-9D30-784FFE763C0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="215">
   <si>
     <t>id</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Paulo Bohn</t>
   </si>
   <si>
-    <t>Analia (Clodoaldo Entre-Ijuis)</t>
-  </si>
-  <si>
     <t>Biroh</t>
   </si>
   <si>
@@ -96,12 +93,6 @@
     <t>Supermercado Cripy</t>
   </si>
   <si>
-    <t>Gláucio Lipski (Giruá)</t>
-  </si>
-  <si>
-    <t>Contri</t>
-  </si>
-  <si>
     <t>Cleci Rubi</t>
   </si>
   <si>
@@ -126,9 +117,6 @@
     <t>José Paulo Backes</t>
   </si>
   <si>
-    <t>Gelso Tofolo</t>
-  </si>
-  <si>
     <t>Diamantino</t>
   </si>
   <si>
@@ -168,9 +156,6 @@
     <t>Marcos Rogerio Kessler</t>
   </si>
   <si>
-    <t>Aabb</t>
-  </si>
-  <si>
     <t>Wanda Burkard</t>
   </si>
   <si>
@@ -198,9 +183,6 @@
     <t>Patrick Kristoschek Da Silva</t>
   </si>
   <si>
-    <t>Silvio Robert Ávila - (Valmir)</t>
-  </si>
-  <si>
     <t>Zederson Jose Della Flora</t>
   </si>
   <si>
@@ -519,12 +501,6 @@
     <t>Sandra Regina Voges</t>
   </si>
   <si>
-    <t>Gelson Tofolo (casa)</t>
-  </si>
-  <si>
-    <t>Vivian Soares Schorr Rohleder (Sicredi)</t>
-  </si>
-  <si>
     <t>Manucia Gehrke - Santa Maria</t>
   </si>
   <si>
@@ -534,15 +510,6 @@
     <t>Maria Neli Montagner Basso</t>
   </si>
   <si>
-    <t>Nerison Vilson De Andrade De Oliveira (São Miguel)</t>
-  </si>
-  <si>
-    <t>Suzete Mattos Fagundes (Luiz Carlos Dalacorte)</t>
-  </si>
-  <si>
-    <t>Arielli Priscila De Souza (Smm)</t>
-  </si>
-  <si>
     <t>Tiago Margutti</t>
   </si>
   <si>
@@ -561,9 +528,6 @@
     <t>Simone Jaeger</t>
   </si>
   <si>
-    <t>Josiele Busanelo (Fernando)</t>
-  </si>
-  <si>
     <t>Altacheres Freitas De Oliveira</t>
   </si>
   <si>
@@ -576,9 +540,6 @@
     <t>Regius Ivan Willig</t>
   </si>
   <si>
-    <t>Juarez Fuzen (Elizandra)</t>
-  </si>
-  <si>
     <t>Sandra Zorzela</t>
   </si>
   <si>
@@ -588,12 +549,6 @@
     <t>Valdir Da Silva Ciechowicz</t>
   </si>
   <si>
-    <t>Tarcísio Busatto, Casa</t>
-  </si>
-  <si>
-    <t>Tarcísio Busatto, Galpão</t>
-  </si>
-  <si>
     <t>Katia Bellini Liebert</t>
   </si>
   <si>
@@ -612,9 +567,6 @@
     <t>Los Passo</t>
   </si>
   <si>
-    <t>Fernanda Palharini Steffler (Andrei)</t>
-  </si>
-  <si>
     <t>Gilseo Marcante</t>
   </si>
   <si>
@@ -633,18 +585,9 @@
     <t>Antonio Carlos Baptista De Almeida</t>
   </si>
   <si>
-    <t>Regius Ivan Willig ( Casa 1)</t>
-  </si>
-  <si>
-    <t>Melba Pasch (Volmir)</t>
-  </si>
-  <si>
     <t>Selvino Retzlaff</t>
   </si>
   <si>
-    <t>Valdir dos Passos (CASA)</t>
-  </si>
-  <si>
     <t>Adão Lago Pinto</t>
   </si>
   <si>
@@ -685,6 +628,57 @@
   </si>
   <si>
     <t xml:space="preserve">Sérgio Lara e Silva </t>
+  </si>
+  <si>
+    <t>Valdir dos Passos</t>
+  </si>
+  <si>
+    <t>Melba Pasch</t>
+  </si>
+  <si>
+    <t>Fernanda Palharini Steffler</t>
+  </si>
+  <si>
+    <t>Tarcísio Busatto</t>
+  </si>
+  <si>
+    <t>Juarez Fuzen</t>
+  </si>
+  <si>
+    <t>Josiele Busanelo</t>
+  </si>
+  <si>
+    <t>Suzete Mattos Fagundes</t>
+  </si>
+  <si>
+    <t>Arielli Priscila De Souza</t>
+  </si>
+  <si>
+    <t>Nerison Vilson De Andrade De Oliveira</t>
+  </si>
+  <si>
+    <t>Vivian Soares Schorr Rohleder</t>
+  </si>
+  <si>
+    <t>Gelson Tofolo</t>
+  </si>
+  <si>
+    <t>Mercado Popular</t>
+  </si>
+  <si>
+    <t>Analia Cristina Mousquer Bueno</t>
+  </si>
+  <si>
+    <t>Gláucio Lipski</t>
+  </si>
+  <si>
+    <t>Contri Artefatos De Cimento</t>
+  </si>
+  <si>
+    <t>AABB - Santo Ângelo</t>
+  </si>
+  <si>
+    <t>Silvio Robert Lemos Avila</t>
   </si>
 </sst>
 </file>
@@ -1178,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E4D8A3-B036-45B9-BFB1-CE1FD37008B3}">
   <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="F211" sqref="F211"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -1209,13 +1203,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1353,7 +1347,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="C7">
         <v>130051</v>
@@ -1379,7 +1373,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>130113</v>
@@ -1405,7 +1399,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>130081</v>
@@ -1431,7 +1425,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>130107</v>
@@ -1457,7 +1451,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>130161</v>
@@ -1483,7 +1477,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>130197</v>
@@ -1509,7 +1503,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>130202</v>
@@ -1535,7 +1529,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>130091</v>
@@ -1561,7 +1555,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>130240</v>
@@ -1587,7 +1581,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>130071</v>
@@ -1613,7 +1607,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>130236</v>
@@ -1639,7 +1633,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="C18">
         <v>130255</v>
@@ -1665,7 +1659,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="C19">
         <v>130034</v>
@@ -1691,7 +1685,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>130273</v>
@@ -1717,7 +1711,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>130228</v>
@@ -1743,7 +1737,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>130290</v>
@@ -1769,7 +1763,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>130293</v>
@@ -1795,7 +1789,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>130104</v>
@@ -1821,7 +1815,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>130237</v>
@@ -1847,7 +1841,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>130187</v>
@@ -1873,7 +1867,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>130182</v>
@@ -1899,7 +1893,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="C28">
         <v>130212</v>
@@ -1925,7 +1919,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>130168</v>
@@ -1951,7 +1945,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>130306</v>
@@ -1977,7 +1971,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>130299</v>
@@ -2003,7 +1997,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>130416</v>
@@ -2029,7 +2023,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>130332</v>
@@ -2055,7 +2049,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>130365</v>
@@ -2081,7 +2075,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>130408</v>
@@ -2107,7 +2101,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C36">
         <v>130413</v>
@@ -2133,7 +2127,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C37">
         <v>130381</v>
@@ -2159,7 +2153,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>130178</v>
@@ -2185,7 +2179,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C39">
         <v>130440</v>
@@ -2211,7 +2205,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C40">
         <v>130461</v>
@@ -2237,7 +2231,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C41">
         <v>130476</v>
@@ -2263,7 +2257,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C42">
         <v>130225</v>
@@ -2289,7 +2283,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="C43">
         <v>130093</v>
@@ -2315,7 +2309,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C44">
         <v>130451</v>
@@ -2341,7 +2335,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C45">
         <v>130023</v>
@@ -2367,7 +2361,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C46">
         <v>130519</v>
@@ -2393,7 +2387,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C47">
         <v>130521</v>
@@ -2419,7 +2413,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C48">
         <v>130525</v>
@@ -2445,7 +2439,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C49">
         <v>130536</v>
@@ -2471,7 +2465,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C50">
         <v>130438</v>
@@ -2497,7 +2491,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C51">
         <v>130055</v>
@@ -2523,7 +2517,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C52">
         <v>130400</v>
@@ -2549,7 +2543,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="C53">
         <v>130412</v>
@@ -2575,7 +2569,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C54">
         <v>130532</v>
@@ -2601,7 +2595,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C55">
         <v>130542</v>
@@ -2627,7 +2621,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C56">
         <v>130555</v>
@@ -2653,7 +2647,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C57">
         <v>130285</v>
@@ -2679,7 +2673,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C58">
         <v>130558</v>
@@ -2705,7 +2699,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C59">
         <v>130538</v>
@@ -2731,7 +2725,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C60">
         <v>130565</v>
@@ -2757,7 +2751,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C61">
         <v>130172</v>
@@ -2783,7 +2777,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C62">
         <v>130308</v>
@@ -2809,7 +2803,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C63">
         <v>130630</v>
@@ -2835,7 +2829,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C64">
         <v>130591</v>
@@ -2861,7 +2855,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C65">
         <v>130462</v>
@@ -2887,7 +2881,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C66">
         <v>130596</v>
@@ -2913,7 +2907,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C67">
         <v>130090</v>
@@ -2939,7 +2933,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C68">
         <v>130613</v>
@@ -2965,7 +2959,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C69">
         <v>130562</v>
@@ -2991,7 +2985,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C70">
         <v>130630</v>
@@ -3017,7 +3011,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C71">
         <v>130581</v>
@@ -3043,7 +3037,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C72">
         <v>130629</v>
@@ -3069,7 +3063,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C73">
         <v>130627</v>
@@ -3095,7 +3089,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C74">
         <v>130633</v>
@@ -3121,7 +3115,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C75">
         <v>130499</v>
@@ -3147,7 +3141,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C76">
         <v>130361</v>
@@ -3173,7 +3167,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C77">
         <v>130354</v>
@@ -3199,7 +3193,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C78">
         <v>130640</v>
@@ -3225,7 +3219,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C79">
         <v>130497</v>
@@ -3251,7 +3245,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C80">
         <v>130498</v>
@@ -3277,7 +3271,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C81">
         <v>130074</v>
@@ -3303,7 +3297,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C82">
         <v>130653</v>
@@ -3329,7 +3323,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C83">
         <v>130642</v>
@@ -3355,7 +3349,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C84">
         <v>130628</v>
@@ -3381,7 +3375,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C85">
         <v>130656</v>
@@ -3407,7 +3401,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C86">
         <v>130674</v>
@@ -3433,7 +3427,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C87">
         <v>130665</v>
@@ -3459,7 +3453,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C88">
         <v>130666</v>
@@ -3485,7 +3479,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C89">
         <v>130668</v>
@@ -3511,7 +3505,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C90">
         <v>130271</v>
@@ -3537,7 +3531,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C91">
         <v>130715</v>
@@ -3563,7 +3557,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C92">
         <v>130713</v>
@@ -3589,7 +3583,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C93">
         <v>130710</v>
@@ -3615,7 +3609,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C94">
         <v>130677</v>
@@ -3641,7 +3635,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C95">
         <v>130657</v>
@@ -3667,7 +3661,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C96">
         <v>130714</v>
@@ -3693,7 +3687,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C97">
         <v>130439</v>
@@ -3719,7 +3713,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C98">
         <v>130079</v>
@@ -3745,7 +3739,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C99">
         <v>130729</v>
@@ -3771,7 +3765,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C100">
         <v>130763</v>
@@ -3797,7 +3791,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C101">
         <v>130760</v>
@@ -3823,7 +3817,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C102">
         <v>130754</v>
@@ -3849,7 +3843,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C103">
         <v>130244</v>
@@ -3875,7 +3869,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C104">
         <v>130778</v>
@@ -3901,7 +3895,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C105">
         <v>130483</v>
@@ -3927,7 +3921,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C106">
         <v>130644</v>
@@ -3953,7 +3947,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C107">
         <v>130643</v>
@@ -3979,7 +3973,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C108">
         <v>130785</v>
@@ -4005,7 +3999,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C109">
         <v>130790</v>
@@ -4031,7 +4025,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C110">
         <v>130792</v>
@@ -4057,7 +4051,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C111">
         <v>130459</v>
@@ -4083,7 +4077,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C112">
         <v>130791</v>
@@ -4109,7 +4103,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C113">
         <v>130807</v>
@@ -4135,7 +4129,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C114">
         <v>130799</v>
@@ -4161,7 +4155,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C115">
         <v>130812</v>
@@ -4187,7 +4181,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C116">
         <v>130229</v>
@@ -4213,7 +4207,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C117">
         <v>130822</v>
@@ -4239,7 +4233,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C118">
         <v>130817</v>
@@ -4265,7 +4259,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C119">
         <v>130171</v>
@@ -4291,7 +4285,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C120">
         <v>130808</v>
@@ -4317,7 +4311,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C121">
         <v>130819</v>
@@ -4343,7 +4337,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C122">
         <v>130831</v>
@@ -4369,7 +4363,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C123">
         <v>130418</v>
@@ -4395,7 +4389,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C124">
         <v>130834</v>
@@ -4421,7 +4415,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C125">
         <v>130857</v>
@@ -4447,7 +4441,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C126">
         <v>130738</v>
@@ -4473,7 +4467,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C127">
         <v>130851</v>
@@ -4499,7 +4493,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C128">
         <v>130864</v>
@@ -4525,7 +4519,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C129">
         <v>130867</v>
@@ -4551,7 +4545,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C130">
         <v>130683</v>
@@ -4577,7 +4571,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C131">
         <v>130855</v>
@@ -4603,7 +4597,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C132">
         <v>130869</v>
@@ -4629,7 +4623,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C133">
         <v>130875</v>
@@ -4655,7 +4649,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C134">
         <v>130833</v>
@@ -4681,7 +4675,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C135">
         <v>130886</v>
@@ -4707,7 +4701,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C136">
         <v>130890</v>
@@ -4733,7 +4727,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C137">
         <v>130861</v>
@@ -4759,7 +4753,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C138">
         <v>130911</v>
@@ -4785,7 +4779,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C139">
         <v>130898</v>
@@ -4811,7 +4805,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C140">
         <v>130908</v>
@@ -4837,7 +4831,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C141">
         <v>130904</v>
@@ -4863,7 +4857,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C142">
         <v>130909</v>
@@ -4889,7 +4883,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C143">
         <v>130917</v>
@@ -4915,7 +4909,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C144">
         <v>130915</v>
@@ -4941,7 +4935,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C145">
         <v>130056</v>
@@ -4967,7 +4961,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C146">
         <v>130931</v>
@@ -4993,7 +4987,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C147">
         <v>130933</v>
@@ -5019,7 +5013,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C148">
         <v>130935</v>
@@ -5045,7 +5039,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C149">
         <v>130936</v>
@@ -5071,7 +5065,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C150">
         <v>130937</v>
@@ -5097,7 +5091,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C151">
         <v>130938</v>
@@ -5123,7 +5117,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C152">
         <v>130943</v>
@@ -5149,7 +5143,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C153">
         <v>130944</v>
@@ -5175,7 +5169,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C154">
         <v>130945</v>
@@ -5201,7 +5195,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C155">
         <v>130573</v>
@@ -5227,7 +5221,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C156">
         <v>130544</v>
@@ -5253,7 +5247,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C157">
         <v>130946</v>
@@ -5279,7 +5273,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C158">
         <v>130960</v>
@@ -5305,7 +5299,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C159">
         <v>130961</v>
@@ -5331,7 +5325,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="C160">
         <v>130895</v>
@@ -5357,7 +5351,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="C161">
         <v>130280</v>
@@ -5383,7 +5377,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C162">
         <v>130804</v>
@@ -5409,7 +5403,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C163">
         <v>130968</v>
@@ -5435,7 +5429,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C164">
         <v>130982</v>
@@ -5461,16 +5455,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="C165">
         <v>130980</v>
       </c>
       <c r="D165" s="5">
-        <v>-29.765077165709499</v>
+        <v>-28.586725569890501</v>
       </c>
       <c r="E165" s="5">
-        <v>-53.383733932515398</v>
+        <v>-54.507480174385599</v>
       </c>
       <c r="F165" s="10">
         <v>28</v>
@@ -5487,7 +5481,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="C166">
         <v>130967</v>
@@ -5513,7 +5507,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="C167">
         <v>130816</v>
@@ -5539,7 +5533,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C168">
         <v>130986</v>
@@ -5565,7 +5559,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C169">
         <v>130992</v>
@@ -5591,7 +5585,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C170">
         <v>131005</v>
@@ -5617,7 +5611,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C171">
         <v>131014</v>
@@ -5643,7 +5637,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C172">
         <v>131032</v>
@@ -5669,7 +5663,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C173">
         <v>130948</v>
@@ -5695,7 +5689,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="C174">
         <v>130540</v>
@@ -5721,7 +5715,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C175">
         <v>130921</v>
@@ -5747,7 +5741,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C176">
         <v>130956</v>
@@ -5773,7 +5767,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C177">
         <v>130984</v>
@@ -5799,7 +5793,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C178">
         <v>131010</v>
@@ -5825,7 +5819,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="C179">
         <v>131012</v>
@@ -5851,7 +5845,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C180">
         <v>131030</v>
@@ -5877,7 +5871,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C181">
         <v>131034</v>
@@ -5903,7 +5897,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C182">
         <v>131045</v>
@@ -5929,7 +5923,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="C183">
         <v>131052</v>
@@ -5955,7 +5949,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="C184">
         <v>131051</v>
@@ -5981,7 +5975,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C185">
         <v>131059</v>
@@ -6007,7 +6001,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C186">
         <v>131068</v>
@@ -6033,7 +6027,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C187">
         <v>131081</v>
@@ -6059,7 +6053,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C188">
         <v>131124</v>
@@ -6085,7 +6079,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C189">
         <v>130004</v>
@@ -6111,7 +6105,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C190">
         <v>130533</v>
@@ -6137,7 +6131,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C191">
         <v>130863</v>
@@ -6163,7 +6157,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C192">
         <v>130885</v>
@@ -6189,7 +6183,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C193">
         <v>130998</v>
@@ -6215,7 +6209,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C194">
         <v>131083</v>
@@ -6241,7 +6235,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C195">
         <v>131115</v>
@@ -6267,7 +6261,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C196">
         <v>131157</v>
@@ -6293,7 +6287,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C197">
         <v>131157</v>
@@ -6319,7 +6313,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C198">
         <v>131170</v>
@@ -6345,7 +6339,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="C199">
         <v>131177</v>
@@ -6371,7 +6365,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C200">
         <v>131182</v>
@@ -6397,7 +6391,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C201">
         <v>131183</v>
@@ -6423,7 +6417,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C202">
         <v>131198</v>
@@ -6449,7 +6443,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="C203">
         <v>131188</v>
@@ -6475,7 +6469,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C204">
         <v>131158</v>
@@ -6501,7 +6495,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C205">
         <v>131082</v>
@@ -6527,7 +6521,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C206">
         <v>131194</v>
@@ -6553,7 +6547,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C207">
         <v>131202</v>
@@ -6579,7 +6573,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="C208" s="11">
         <v>131240</v>
@@ -6606,7 +6600,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C209" s="11">
         <v>131219</v>
@@ -6633,7 +6627,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="C210" s="11">
         <v>131241</v>

--- a/localização clientes.xlsx
+++ b/localização clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Empresa\google\Sinc_Empresa\Projetos\Python\energens-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3768CC45-0292-4BB1-9D30-784FFE763C0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAF72CB-F1EC-4ED8-A825-0B39B024FCB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
   </bookViews>
@@ -708,7 +708,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -727,8 +727,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor theme="7" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -736,11 +742,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -755,6 +776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1172,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E4D8A3-B036-45B9-BFB1-CE1FD37008B3}">
   <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,11 +2128,11 @@
       <c r="C36">
         <v>130413</v>
       </c>
-      <c r="D36" s="5">
-        <v>-28.308658737359298</v>
-      </c>
-      <c r="E36" s="5">
-        <v>-54.250679752380897</v>
+      <c r="D36" s="14">
+        <v>-28.319004</v>
+      </c>
+      <c r="E36" s="14">
+        <v>-54.257396999999997</v>
       </c>
       <c r="F36" s="10">
         <v>12</v>
@@ -2548,11 +2570,11 @@
       <c r="C53">
         <v>130412</v>
       </c>
-      <c r="D53" s="5">
-        <v>-28.319004</v>
-      </c>
-      <c r="E53" s="5">
-        <v>-54.257396999999997</v>
+      <c r="D53" s="13">
+        <v>-28.308658737359298</v>
+      </c>
+      <c r="E53" s="13">
+        <v>-54.250679752380897</v>
       </c>
       <c r="F53" s="10">
         <v>20</v>

--- a/localização clientes.xlsx
+++ b/localização clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Empresa\google\Sinc_Empresa\Projetos\Python\energens-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAF72CB-F1EC-4ED8-A825-0B39B024FCB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F267AFC1-39C5-4D78-93CF-9E4C57458A40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
   </bookViews>
@@ -249,15 +249,6 @@
     <t>Claudio Alfredo Konrat</t>
   </si>
   <si>
-    <t>Paulo Cesar Da Rosa (Residencial)</t>
-  </si>
-  <si>
-    <t>Paulo Cesar Da Rosa (Comercial)</t>
-  </si>
-  <si>
-    <t>Geselda Schirmer (Fabiano)</t>
-  </si>
-  <si>
     <t>Edson Seibt</t>
   </si>
   <si>
@@ -282,12 +273,6 @@
     <t>Mario Rossi</t>
   </si>
   <si>
-    <t>Jose Nowicki Mustafa (Residência)</t>
-  </si>
-  <si>
-    <t>Jose Nowicki Mustafa (Consultório)</t>
-  </si>
-  <si>
     <t>Itamar Ferreira Walter</t>
   </si>
   <si>
@@ -366,9 +351,6 @@
     <t>Jair Jose Copetti</t>
   </si>
   <si>
-    <t>Cris - Sicredi</t>
-  </si>
-  <si>
     <t>Tecnodiesel Bombas Injetoras LTDA</t>
   </si>
   <si>
@@ -390,9 +372,6 @@
     <t>Eliane Cassol Riewe</t>
   </si>
   <si>
-    <t>Roberto Donato (Catuípe)</t>
-  </si>
-  <si>
     <t>Marcelino Moretto</t>
   </si>
   <si>
@@ -444,15 +423,6 @@
     <t>Arlindo Buzatto</t>
   </si>
   <si>
-    <t>Fernando Bueno (haras)</t>
-  </si>
-  <si>
-    <t>Fernando Bueno (Casa)</t>
-  </si>
-  <si>
-    <t>Nelmo Hartmann (Lurdes)</t>
-  </si>
-  <si>
     <t>Luis Felipe Bremm</t>
   </si>
   <si>
@@ -480,18 +450,9 @@
     <t>Cleci Damke Luft</t>
   </si>
   <si>
-    <t>Solange Mattos Escobar E Cia Ltda</t>
-  </si>
-  <si>
-    <t>Cenilda Hamarstrom da Silva</t>
-  </si>
-  <si>
     <t>Eliseu Mânica</t>
   </si>
   <si>
-    <t>Cristiane Daniele Maciel Glowacki Lopes (Jonas)</t>
-  </si>
-  <si>
     <t>Edivan Santini</t>
   </si>
   <si>
@@ -501,9 +462,6 @@
     <t>Sandra Regina Voges</t>
   </si>
   <si>
-    <t>Manucia Gehrke - Santa Maria</t>
-  </si>
-  <si>
     <t>Alexsandro Casagrande</t>
   </si>
   <si>
@@ -679,6 +637,48 @@
   </si>
   <si>
     <t>Silvio Robert Lemos Avila</t>
+  </si>
+  <si>
+    <t>Paulo Cesar Da Rosa</t>
+  </si>
+  <si>
+    <t>Sul Frutas</t>
+  </si>
+  <si>
+    <t>Fabiano Schirmer</t>
+  </si>
+  <si>
+    <t>Jose Nowicki Mustafa</t>
+  </si>
+  <si>
+    <t>Gastrobedi</t>
+  </si>
+  <si>
+    <t>Lucia Regina Ourique Oliveira</t>
+  </si>
+  <si>
+    <t>Roberto Donato</t>
+  </si>
+  <si>
+    <t>Fernando Bueno</t>
+  </si>
+  <si>
+    <t>Haras muy Bueno E Uggeri</t>
+  </si>
+  <si>
+    <t>Nelmo Hartmann</t>
+  </si>
+  <si>
+    <t>Mercado Povão</t>
+  </si>
+  <si>
+    <t>Leoni dos Santos</t>
+  </si>
+  <si>
+    <t>Manucia Gehrke</t>
+  </si>
+  <si>
+    <t>Lavagem da Ipiranga</t>
   </si>
 </sst>
 </file>
@@ -1194,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E4D8A3-B036-45B9-BFB1-CE1FD37008B3}">
   <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B210" sqref="B210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -1225,13 +1225,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1369,7 +1369,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C7">
         <v>130051</v>
@@ -1655,7 +1655,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C18">
         <v>130255</v>
@@ -1681,7 +1681,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C19">
         <v>130034</v>
@@ -1915,7 +1915,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C28">
         <v>130212</v>
@@ -2123,7 +2123,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C36">
         <v>130413</v>
@@ -2305,7 +2305,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C43">
         <v>130093</v>
@@ -2565,7 +2565,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C53">
         <v>130412</v>
@@ -3163,7 +3163,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="C76">
         <v>130361</v>
@@ -3189,7 +3189,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="C77">
         <v>130354</v>
@@ -3215,7 +3215,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="C78">
         <v>130640</v>
@@ -3241,7 +3241,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C79">
         <v>130497</v>
@@ -3267,7 +3267,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C80">
         <v>130498</v>
@@ -3293,7 +3293,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C81">
         <v>130074</v>
@@ -3319,7 +3319,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C82">
         <v>130653</v>
@@ -3345,7 +3345,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C83">
         <v>130642</v>
@@ -3371,7 +3371,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C84">
         <v>130628</v>
@@ -3397,7 +3397,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C85">
         <v>130656</v>
@@ -3423,7 +3423,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C86">
         <v>130674</v>
@@ -3449,7 +3449,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="C87">
         <v>130665</v>
@@ -3475,7 +3475,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="C88">
         <v>130666</v>
@@ -3501,7 +3501,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C89">
         <v>130668</v>
@@ -3527,7 +3527,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C90">
         <v>130271</v>
@@ -3553,7 +3553,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C91">
         <v>130715</v>
@@ -3579,7 +3579,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C92">
         <v>130713</v>
@@ -3605,7 +3605,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C93">
         <v>130710</v>
@@ -3631,7 +3631,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C94">
         <v>130677</v>
@@ -3657,7 +3657,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C95">
         <v>130657</v>
@@ -3683,7 +3683,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C96">
         <v>130714</v>
@@ -3709,7 +3709,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C97">
         <v>130439</v>
@@ -3735,7 +3735,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C98">
         <v>130079</v>
@@ -3761,7 +3761,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C99">
         <v>130729</v>
@@ -3787,7 +3787,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C100">
         <v>130763</v>
@@ -3813,7 +3813,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C101">
         <v>130760</v>
@@ -3839,7 +3839,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C102">
         <v>130754</v>
@@ -3865,7 +3865,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C103">
         <v>130244</v>
@@ -3891,7 +3891,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C104">
         <v>130778</v>
@@ -3917,7 +3917,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C105">
         <v>130483</v>
@@ -3943,7 +3943,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C106">
         <v>130644</v>
@@ -3969,7 +3969,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C107">
         <v>130643</v>
@@ -3995,7 +3995,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C108">
         <v>130785</v>
@@ -4021,7 +4021,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C109">
         <v>130790</v>
@@ -4047,7 +4047,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C110">
         <v>130792</v>
@@ -4073,16 +4073,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C111">
         <v>130459</v>
       </c>
       <c r="D111" s="5">
-        <v>-28.316246</v>
+        <v>-28.316228196014499</v>
       </c>
       <c r="E111" s="5">
-        <v>-54.265562000000003</v>
+        <v>-54.259096984671203</v>
       </c>
       <c r="F111" s="10">
         <v>8</v>
@@ -4099,7 +4099,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C112">
         <v>130791</v>
@@ -4125,7 +4125,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C113">
         <v>130807</v>
@@ -4151,7 +4151,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C114">
         <v>130799</v>
@@ -4177,7 +4177,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="C115">
         <v>130812</v>
@@ -4203,7 +4203,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C116">
         <v>130229</v>
@@ -4229,7 +4229,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C117">
         <v>130822</v>
@@ -4255,7 +4255,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C118">
         <v>130817</v>
@@ -4281,7 +4281,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C119">
         <v>130171</v>
@@ -4307,7 +4307,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C120">
         <v>130808</v>
@@ -4333,7 +4333,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C121">
         <v>130819</v>
@@ -4359,7 +4359,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C122">
         <v>130831</v>
@@ -4385,7 +4385,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
       <c r="C123">
         <v>130418</v>
@@ -4411,7 +4411,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C124">
         <v>130834</v>
@@ -4437,7 +4437,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C125">
         <v>130857</v>
@@ -4463,7 +4463,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C126">
         <v>130738</v>
@@ -4489,7 +4489,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C127">
         <v>130851</v>
@@ -4515,7 +4515,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C128">
         <v>130864</v>
@@ -4541,7 +4541,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C129">
         <v>130867</v>
@@ -4567,7 +4567,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C130">
         <v>130683</v>
@@ -4593,7 +4593,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C131">
         <v>130855</v>
@@ -4619,7 +4619,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C132">
         <v>130869</v>
@@ -4645,7 +4645,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C133">
         <v>130875</v>
@@ -4671,7 +4671,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C134">
         <v>130833</v>
@@ -4697,7 +4697,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C135">
         <v>130886</v>
@@ -4723,7 +4723,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C136">
         <v>130890</v>
@@ -4749,7 +4749,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C137">
         <v>130861</v>
@@ -4775,7 +4775,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C138">
         <v>130911</v>
@@ -4801,7 +4801,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C139">
         <v>130898</v>
@@ -4827,7 +4827,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C140">
         <v>130908</v>
@@ -4853,7 +4853,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="C141">
         <v>130904</v>
@@ -4879,7 +4879,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="C142">
         <v>130909</v>
@@ -4905,7 +4905,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="C143">
         <v>130917</v>
@@ -4931,7 +4931,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C144">
         <v>130915</v>
@@ -4957,7 +4957,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C145">
         <v>130056</v>
@@ -4983,7 +4983,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C146">
         <v>130931</v>
@@ -5009,7 +5009,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C147">
         <v>130933</v>
@@ -5035,7 +5035,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C148">
         <v>130935</v>
@@ -5061,7 +5061,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C149">
         <v>130936</v>
@@ -5087,7 +5087,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C150">
         <v>130937</v>
@@ -5113,7 +5113,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C151">
         <v>130938</v>
@@ -5139,7 +5139,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C152">
         <v>130943</v>
@@ -5165,7 +5165,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="C153">
         <v>130944</v>
@@ -5191,7 +5191,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="C154">
         <v>130945</v>
@@ -5217,7 +5217,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C155">
         <v>130573</v>
@@ -5243,7 +5243,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="C156">
         <v>130544</v>
@@ -5269,7 +5269,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C157">
         <v>130946</v>
@@ -5295,7 +5295,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C158">
         <v>130960</v>
@@ -5321,7 +5321,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C159">
         <v>130961</v>
@@ -5347,7 +5347,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C160">
         <v>130895</v>
@@ -5369,11 +5369,11 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
+      <c r="A161" s="11">
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C161">
         <v>130280</v>
@@ -5399,7 +5399,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="C162">
         <v>130804</v>
@@ -5425,7 +5425,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C163">
         <v>130968</v>
@@ -5451,7 +5451,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C164">
         <v>130982</v>
@@ -5477,7 +5477,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C165">
         <v>130980</v>
@@ -5503,7 +5503,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C166">
         <v>130967</v>
@@ -5529,7 +5529,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C167">
         <v>130816</v>
@@ -5555,7 +5555,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C168">
         <v>130986</v>
@@ -5581,7 +5581,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C169">
         <v>130992</v>
@@ -5607,7 +5607,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C170">
         <v>131005</v>
@@ -5633,7 +5633,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C171">
         <v>131014</v>
@@ -5659,7 +5659,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C172">
         <v>131032</v>
@@ -5685,7 +5685,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C173">
         <v>130948</v>
@@ -5711,7 +5711,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C174">
         <v>130540</v>
@@ -5737,7 +5737,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C175">
         <v>130921</v>
@@ -5763,7 +5763,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C176">
         <v>130956</v>
@@ -5789,7 +5789,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C177">
         <v>130984</v>
@@ -5815,7 +5815,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C178">
         <v>131010</v>
@@ -5841,7 +5841,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C179">
         <v>131012</v>
@@ -5867,7 +5867,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C180">
         <v>131030</v>
@@ -5893,7 +5893,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C181">
         <v>131034</v>
@@ -5919,7 +5919,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C182">
         <v>131045</v>
@@ -5945,7 +5945,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C183">
         <v>131052</v>
@@ -5971,7 +5971,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C184">
         <v>131051</v>
@@ -5997,7 +5997,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C185">
         <v>131059</v>
@@ -6023,7 +6023,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C186">
         <v>131068</v>
@@ -6049,7 +6049,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C187">
         <v>131081</v>
@@ -6075,7 +6075,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C188">
         <v>131124</v>
@@ -6101,7 +6101,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C189">
         <v>130004</v>
@@ -6127,7 +6127,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C190">
         <v>130533</v>
@@ -6153,7 +6153,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C191">
         <v>130863</v>
@@ -6179,7 +6179,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C192">
         <v>130885</v>
@@ -6205,7 +6205,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C193">
         <v>130998</v>
@@ -6231,7 +6231,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C194">
         <v>131083</v>
@@ -6257,7 +6257,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C195">
         <v>131115</v>
@@ -6283,7 +6283,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C196">
         <v>131157</v>
@@ -6309,7 +6309,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C197">
         <v>131157</v>
@@ -6335,7 +6335,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C198">
         <v>131170</v>
@@ -6361,7 +6361,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C199">
         <v>131177</v>
@@ -6387,7 +6387,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C200">
         <v>131182</v>
@@ -6413,7 +6413,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C201">
         <v>131183</v>
@@ -6439,7 +6439,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C202">
         <v>131198</v>
@@ -6465,7 +6465,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C203">
         <v>131188</v>
@@ -6491,7 +6491,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C204">
         <v>131158</v>
@@ -6517,7 +6517,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C205">
         <v>131082</v>
@@ -6543,7 +6543,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C206">
         <v>131194</v>
@@ -6569,7 +6569,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C207">
         <v>131202</v>
@@ -6595,7 +6595,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C208" s="11">
         <v>131240</v>
@@ -6622,7 +6622,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C209" s="11">
         <v>131219</v>
@@ -6649,7 +6649,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C210" s="11">
         <v>131241</v>

--- a/localização clientes.xlsx
+++ b/localização clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Empresa\google\Sinc_Empresa\Projetos\Python\energens-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F267AFC1-39C5-4D78-93CF-9E4C57458A40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58811A01-03F6-4060-901C-1BAAE5309725}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
   </bookViews>
@@ -1194,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E4D8A3-B036-45B9-BFB1-CE1FD37008B3}">
   <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4494,11 +4494,11 @@
       <c r="C127">
         <v>130851</v>
       </c>
-      <c r="D127" s="5">
-        <v>-28.5436774</v>
+      <c r="D127" s="13">
+        <v>-28.543321079354801</v>
       </c>
       <c r="E127" s="5">
-        <v>54.551089300000001</v>
+        <v>-54.550296804911603</v>
       </c>
       <c r="F127" s="10">
         <v>30</v>
@@ -4521,10 +4521,10 @@
         <v>130864</v>
       </c>
       <c r="D128" s="5">
-        <v>-28.5436774</v>
+        <v>-28.543246858941501</v>
       </c>
       <c r="E128" s="5">
-        <v>-54.551089300000001</v>
+        <v>-54.550245842942999</v>
       </c>
       <c r="F128" s="10">
         <v>30</v>
@@ -5899,10 +5899,10 @@
         <v>131034</v>
       </c>
       <c r="D181" s="5">
-        <v>28.314322302581999</v>
+        <v>-28.314393171028399</v>
       </c>
       <c r="E181" s="5">
-        <v>-54.258458239578999</v>
+        <v>-54.258473378295001</v>
       </c>
       <c r="F181" s="10">
         <v>24</v>

--- a/localização clientes.xlsx
+++ b/localização clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Empresa\google\Sinc_Empresa\Projetos\Python\energens-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58811A01-03F6-4060-901C-1BAAE5309725}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8620B67-2673-4450-ACA7-6EE6B8C1041A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
   </bookViews>
@@ -761,12 +761,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -783,6 +782,7 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -885,11 +885,11 @@
     <tableColumn id="1" xr3:uid="{CCD2CADB-2565-441A-828D-00D74F0809F5}" name="id" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{FDE2D2B7-AD22-44C2-98C0-49A465D33E06}" name="cliente" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{A8F6EEDB-3F3A-45D5-B3E5-A53D8AAFD9F6}" name="projeto" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00854ECD-E95D-4C56-80F2-1B5ED74A4A12}" name="latitude" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{4D4E3FC9-742D-4889-972D-F534F996F771}" name="longitude" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{711A01AB-1EC4-4EF7-A329-1E714FC37145}" name="modules_number" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{95873DDC-B96F-4C54-8832-29E8FBB97A84}" name="modules_power" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{81D1B476-7E82-467F-A395-0A35CFE04C4A}" name="power_total" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00854ECD-E95D-4C56-80F2-1B5ED74A4A12}" name="latitude" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{4D4E3FC9-742D-4889-972D-F534F996F771}" name="longitude" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{711A01AB-1EC4-4EF7-A329-1E714FC37145}" name="modules_number" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{95873DDC-B96F-4C54-8832-29E8FBB97A84}" name="modules_power" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{81D1B476-7E82-467F-A395-0A35CFE04C4A}" name="power_total" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1194,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E4D8A3-B036-45B9-BFB1-CE1FD37008B3}">
   <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="D204" sqref="D204"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="D209" sqref="D209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,7 +1203,7 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="50.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1218,19 +1218,19 @@
       <c r="C1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1244,19 +1244,19 @@
       <c r="C2">
         <v>130000</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>-28.307646368108902</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>-54.273384951630803</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>14</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>325</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>4.55</v>
       </c>
     </row>
@@ -1270,19 +1270,19 @@
       <c r="C3">
         <v>130003</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="12">
         <v>-28.336820986118699</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>-54.276491087498101</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>11</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>270</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>2.97</v>
       </c>
     </row>
@@ -1296,19 +1296,19 @@
       <c r="C4">
         <v>130007</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="12">
         <v>-28.529050982775999</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>-54.147971325912799</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>7</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>270</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>1.89</v>
       </c>
     </row>
@@ -1322,19 +1322,19 @@
       <c r="C5">
         <v>130018</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="12">
         <v>-28.3192814184161</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>-54.263504060510698</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>10</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>330</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>3.3</v>
       </c>
     </row>
@@ -1348,19 +1348,19 @@
       <c r="C6">
         <v>130035</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="12">
         <v>-28.2992490583466</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>-54.259248118182001</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>24</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>270</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>6.48</v>
       </c>
     </row>
@@ -1374,19 +1374,19 @@
       <c r="C7">
         <v>130051</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="12">
         <v>-28.3608042500836</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>-54.2680229893448</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>11</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>270</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>2.97</v>
       </c>
     </row>
@@ -1400,19 +1400,19 @@
       <c r="C8">
         <v>130113</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="12">
         <v>-28.295666163904801</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>-54.268957374005304</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>48</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>330</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>15.84</v>
       </c>
     </row>
@@ -1426,19 +1426,19 @@
       <c r="C9">
         <v>130081</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="12">
         <v>-28.306183000000001</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>-54.270496999999999</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>10</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>330</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>3.3</v>
       </c>
     </row>
@@ -1452,19 +1452,19 @@
       <c r="C10">
         <v>130107</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="12">
         <v>-28.279805</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>-54.258198999999998</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>186</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>330</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>61.38</v>
       </c>
     </row>
@@ -1478,19 +1478,19 @@
       <c r="C11">
         <v>130161</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="12">
         <v>-28.306849</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>-54.260733999999999</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>18</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>330</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>5.94</v>
       </c>
     </row>
@@ -1504,19 +1504,19 @@
       <c r="C12">
         <v>130197</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="12">
         <v>-28.315923999999999</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>-54.258282000000001</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>19</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>330</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>6.27</v>
       </c>
     </row>
@@ -1530,19 +1530,19 @@
       <c r="C13">
         <v>130202</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="12">
         <v>-28.303355</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>-54.272979999999997</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>14</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>330</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>4.62</v>
       </c>
     </row>
@@ -1556,19 +1556,19 @@
       <c r="C14">
         <v>130091</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="12">
         <v>-28.306459</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>-54.281835999999998</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>80</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>330</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>26.4</v>
       </c>
     </row>
@@ -1582,19 +1582,19 @@
       <c r="C15">
         <v>130240</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="12">
         <v>-28.307183999999999</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>-54.259720000000002</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>38</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>330</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>12.54</v>
       </c>
     </row>
@@ -1608,19 +1608,19 @@
       <c r="C16">
         <v>130071</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="12">
         <v>-28.295683</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>-54.272626000000002</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>12</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>330</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>3.96</v>
       </c>
     </row>
@@ -1634,19 +1634,19 @@
       <c r="C17">
         <v>130236</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="12">
         <v>-28.305296999999999</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>-54.272308000000002</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>180</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>360</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <v>64.8</v>
       </c>
     </row>
@@ -1660,19 +1660,19 @@
       <c r="C18">
         <v>130255</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="12">
         <v>-28.029245</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>-54.348612000000003</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>18</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>330</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <v>5.94</v>
       </c>
     </row>
@@ -1686,19 +1686,19 @@
       <c r="C19">
         <v>130034</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="12">
         <v>-28.278668</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>-54.252977000000001</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>80</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>330</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <v>26.4</v>
       </c>
     </row>
@@ -1712,19 +1712,19 @@
       <c r="C20">
         <v>130273</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="12">
         <v>-28.289147</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>-54.265177999999999</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>20</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>337.5</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <v>6.75</v>
       </c>
     </row>
@@ -1738,19 +1738,19 @@
       <c r="C21">
         <v>130228</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="12">
         <v>-28.279387</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>-54.274675000000002</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>10</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>360</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <v>3.6</v>
       </c>
     </row>
@@ -1764,19 +1764,19 @@
       <c r="C22">
         <v>130290</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="12">
         <v>-28.309701</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>-54.266337999999998</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>30</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>330</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>9.9</v>
       </c>
     </row>
@@ -1790,19 +1790,19 @@
       <c r="C23">
         <v>130293</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="12">
         <v>-28.320695000000001</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>-54.262501999999998</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>18</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <v>330</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <v>5.94</v>
       </c>
     </row>
@@ -1816,19 +1816,19 @@
       <c r="C24">
         <v>130104</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="12">
         <v>-28.358421</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>-54.267876999999999</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>28</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <v>330</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <v>9.24</v>
       </c>
     </row>
@@ -1842,19 +1842,19 @@
       <c r="C25">
         <v>130237</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="12">
         <v>-28.305385999999999</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>-54.272500999999998</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>80</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
         <v>330</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <v>26.4</v>
       </c>
     </row>
@@ -1868,19 +1868,19 @@
       <c r="C26">
         <v>130187</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="12">
         <v>-28.740019</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>-53.064269000000003</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>28</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="9">
         <v>330</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <v>9.24</v>
       </c>
     </row>
@@ -1894,19 +1894,19 @@
       <c r="C27">
         <v>130182</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="12">
         <v>-29.074762</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>-53.701976000000002</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>50</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="9">
         <v>360</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <v>18</v>
       </c>
     </row>
@@ -1920,19 +1920,19 @@
       <c r="C28">
         <v>130212</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="12">
         <v>-28.287054999999999</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>-54.264141000000002</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <v>108</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="9">
         <v>360</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <v>38.880000000000003</v>
       </c>
     </row>
@@ -1946,19 +1946,19 @@
       <c r="C29">
         <v>130168</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="12">
         <v>-28.298401999999999</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>-54.274748000000002</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <v>60</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="9">
         <v>330</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <v>19.8</v>
       </c>
     </row>
@@ -1972,19 +1972,19 @@
       <c r="C30">
         <v>130306</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="12">
         <v>-28.292142999999999</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>-54.266762999999997</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>152</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
         <v>335</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <v>50.92</v>
       </c>
     </row>
@@ -1998,19 +1998,19 @@
       <c r="C31">
         <v>130299</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="12">
         <v>-28.301083999999999</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>-54.249099999999999</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>10</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="9">
         <v>335</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <v>3.35</v>
       </c>
     </row>
@@ -2024,19 +2024,19 @@
       <c r="C32">
         <v>130416</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="12">
         <v>-28.298182000000001</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>-54.265701</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="9">
         <v>34</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="9">
         <v>335</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <v>11.39</v>
       </c>
     </row>
@@ -2050,19 +2050,19 @@
       <c r="C33">
         <v>130332</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="12">
         <v>-28.290714999999999</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <v>-54.262726999999998</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="9">
         <v>20</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="9">
         <v>335</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="9">
         <v>6.7</v>
       </c>
     </row>
@@ -2076,19 +2076,19 @@
       <c r="C34">
         <v>130365</v>
       </c>
-      <c r="D34" s="5">
-        <v>-28315775</v>
-      </c>
-      <c r="E34" s="5">
+      <c r="D34" s="12">
+        <v>-28.315774999999999</v>
+      </c>
+      <c r="E34" s="4">
         <v>-54.284744000000003</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="9">
         <v>28</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="9">
         <v>335</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="9">
         <v>9.3800000000000008</v>
       </c>
     </row>
@@ -2102,19 +2102,19 @@
       <c r="C35">
         <v>130408</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="12">
         <v>-28.283529000000001</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>-54.271402999999999</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="9">
         <v>34</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
         <v>335</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <v>11.39</v>
       </c>
     </row>
@@ -2128,19 +2128,19 @@
       <c r="C36">
         <v>130413</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="12">
         <v>-28.319004</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="13">
         <v>-54.257396999999997</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="9">
         <v>12</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="9">
         <v>335</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="9">
         <v>4.0199999999999996</v>
       </c>
     </row>
@@ -2154,19 +2154,19 @@
       <c r="C37">
         <v>130381</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="12">
         <v>-27.781752999999998</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>-54.230375000000002</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="9">
         <v>12</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="9">
         <v>335</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="9">
         <v>4.0199999999999996</v>
       </c>
     </row>
@@ -2180,19 +2180,19 @@
       <c r="C38">
         <v>130178</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="12">
         <v>-28.3000781670241</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>-54.266130502840603</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="9">
         <v>148</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="9">
         <v>365</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <v>54.02</v>
       </c>
     </row>
@@ -2206,19 +2206,19 @@
       <c r="C39">
         <v>130440</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="12">
         <v>-28.296129000000001</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <v>-54.245705000000001</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="9">
         <v>20</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="9">
         <v>340</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="9">
         <v>6.8</v>
       </c>
     </row>
@@ -2232,19 +2232,19 @@
       <c r="C40">
         <v>130461</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="12">
         <v>-28.303325000000001</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <v>-54.263739000000001</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="9">
         <v>30</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="9">
         <v>340</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="9">
         <v>10.199999999999999</v>
       </c>
     </row>
@@ -2258,19 +2258,19 @@
       <c r="C41">
         <v>130476</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="12">
         <v>-28.296489999999999</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <v>-54.268686000000002</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="9">
         <v>18</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="9">
         <v>340</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="9">
         <v>6.12</v>
       </c>
     </row>
@@ -2284,19 +2284,19 @@
       <c r="C42">
         <v>130225</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="12">
         <v>-28.294001999999999</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>-54.274478999999999</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="9">
         <v>12</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="9">
         <v>335</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="9">
         <v>4.0199999999999996</v>
       </c>
     </row>
@@ -2310,19 +2310,19 @@
       <c r="C43">
         <v>130093</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="12">
         <v>-28.269273999999999</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>-54.255923000000003</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="9">
         <v>200</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="9">
         <v>330</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
         <v>66</v>
       </c>
     </row>
@@ -2336,19 +2336,19 @@
       <c r="C44">
         <v>130451</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="12">
         <v>-28.026720999999998</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>-54.357852999999999</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="9">
         <v>18</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="9">
         <v>340</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="9">
         <v>6.12</v>
       </c>
     </row>
@@ -2362,19 +2362,19 @@
       <c r="C45">
         <v>130023</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="12">
         <v>-28.309272716835199</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <v>-54.250475022730697</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="9">
         <v>76</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="9">
         <v>365</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="9">
         <v>27.74</v>
       </c>
     </row>
@@ -2388,19 +2388,19 @@
       <c r="C46">
         <v>130519</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="12">
         <v>-28.307072000000002</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <v>-54.276201</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="9">
         <v>36</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="9">
         <v>340</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="9">
         <v>12.24</v>
       </c>
     </row>
@@ -2414,19 +2414,19 @@
       <c r="C47">
         <v>130521</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="12">
         <v>-28.279561999999999</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <v>-54.259942000000002</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="9">
         <v>14</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="9">
         <v>340</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="9">
         <v>4.76</v>
       </c>
     </row>
@@ -2440,19 +2440,19 @@
       <c r="C48">
         <v>130525</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="12">
         <v>-28.310057</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <v>-54.274099</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="9">
         <v>14</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="9">
         <v>375</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="9">
         <v>5.25</v>
       </c>
     </row>
@@ -2466,19 +2466,19 @@
       <c r="C49">
         <v>130536</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="12">
         <v>-28.3108433848418</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>-54.263374491885301</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="9">
         <v>150</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="9">
         <v>375</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="9">
         <v>56.25</v>
       </c>
     </row>
@@ -2492,19 +2492,19 @@
       <c r="C50">
         <v>130438</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="12">
         <v>-28.289348</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="4">
         <v>-54.259650999999998</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="9">
         <v>130</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="9">
         <v>340</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="9">
         <v>44.2</v>
       </c>
     </row>
@@ -2518,19 +2518,19 @@
       <c r="C51">
         <v>130055</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="12">
         <v>-28.346572393011801</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="4">
         <v>-54.5022093265694</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="9">
         <v>12</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="9">
         <v>330</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="9">
         <v>3.96</v>
       </c>
     </row>
@@ -2544,19 +2544,19 @@
       <c r="C52">
         <v>130400</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="12">
         <v>-28.360026999999999</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="4">
         <v>-54.267175999999999</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="9">
         <v>24</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="9">
         <v>340</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H52" s="9">
         <v>8.16</v>
       </c>
     </row>
@@ -2570,19 +2570,19 @@
       <c r="C53">
         <v>130412</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="12">
         <v>-28.308658737359298</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="12">
         <v>-54.250679752380897</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="9">
         <v>20</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="9">
         <v>375</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="9">
         <v>7.5</v>
       </c>
     </row>
@@ -2596,19 +2596,19 @@
       <c r="C54">
         <v>130532</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="12">
         <v>-28.433140000000002</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="4">
         <v>-54.221615999999997</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="9">
         <v>11</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="9">
         <v>375</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="9">
         <v>4.125</v>
       </c>
     </row>
@@ -2622,19 +2622,19 @@
       <c r="C55">
         <v>130542</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="12">
         <v>-28.298869</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="4">
         <v>-54.273496999999999</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="9">
         <v>12</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="9">
         <v>375</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="9">
         <v>4.5</v>
       </c>
     </row>
@@ -2648,19 +2648,19 @@
       <c r="C56">
         <v>130555</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="12">
         <v>-28.313378</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="4">
         <v>-54.260921000000003</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="9">
         <v>14</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="9">
         <v>370</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="9">
         <v>5.18</v>
       </c>
     </row>
@@ -2674,19 +2674,19 @@
       <c r="C57">
         <v>130285</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="12">
         <v>-28.307313000000001</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="4">
         <v>-54.274248999999998</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="9">
         <v>16</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="9">
         <v>370</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H57" s="9">
         <v>5.92</v>
       </c>
     </row>
@@ -2700,19 +2700,19 @@
       <c r="C58">
         <v>130558</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="12">
         <v>-28.286535000000001</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="4">
         <v>-54.238835999999999</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F58" s="9">
         <v>26</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="9">
         <v>370</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H58" s="9">
         <v>9.6199999999999992</v>
       </c>
     </row>
@@ -2726,19 +2726,19 @@
       <c r="C59">
         <v>130538</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="12">
         <v>-28.029785</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="4">
         <v>-54.356262999999998</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="9">
         <v>30</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="9">
         <v>370</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H59" s="9">
         <v>11.1</v>
       </c>
     </row>
@@ -2752,19 +2752,19 @@
       <c r="C60">
         <v>130565</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="12">
         <v>-28.298959</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="4">
         <v>-54.251455</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="9">
         <v>12</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="9">
         <v>370</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H60" s="9">
         <v>4.4400000000000004</v>
       </c>
     </row>
@@ -2778,19 +2778,19 @@
       <c r="C61">
         <v>130172</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="12">
         <v>-28.357057000000001</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="4">
         <v>-54.269570000000002</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="9">
         <v>14</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="9">
         <v>340</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H61" s="9">
         <v>4.76</v>
       </c>
     </row>
@@ -2804,19 +2804,19 @@
       <c r="C62">
         <v>130308</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="12">
         <v>-28.316576999999999</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="4">
         <v>-54.259118999999998</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="9">
         <v>14</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="9">
         <v>370</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="9">
         <v>5.18</v>
       </c>
     </row>
@@ -2830,19 +2830,19 @@
       <c r="C63">
         <v>130630</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="12">
         <v>-28.308298131557201</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="4">
         <v>-54.250931690960797</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="9">
         <v>8</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="9">
         <v>370</v>
       </c>
-      <c r="H63" s="10">
+      <c r="H63" s="9">
         <v>2.96</v>
       </c>
     </row>
@@ -2856,19 +2856,19 @@
       <c r="C64">
         <v>130591</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="12">
         <v>-28.368932000000001</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="4">
         <v>-54.267324000000002</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="9">
         <v>240</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="9">
         <v>340</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H64" s="9">
         <v>81.599999999999994</v>
       </c>
     </row>
@@ -2882,19 +2882,19 @@
       <c r="C65">
         <v>130462</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="12">
         <v>-28.369098000000001</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>-54.267302999999998</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F65" s="9">
         <v>288</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G65" s="9">
         <v>340</v>
       </c>
-      <c r="H65" s="10">
+      <c r="H65" s="9">
         <v>97.92</v>
       </c>
     </row>
@@ -2908,19 +2908,19 @@
       <c r="C66">
         <v>130596</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="12">
         <v>-28.316875</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="4">
         <v>-54.270797000000002</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F66" s="9">
         <v>20</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G66" s="9">
         <v>340</v>
       </c>
-      <c r="H66" s="10">
+      <c r="H66" s="9">
         <v>6.8</v>
       </c>
     </row>
@@ -2934,19 +2934,19 @@
       <c r="C67">
         <v>130090</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="12">
         <v>-28.286805837969201</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="4">
         <v>-54.265236868478297</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F67" s="9">
         <v>98</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G67" s="9">
         <v>390</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H67" s="9">
         <v>38.22</v>
       </c>
     </row>
@@ -2960,19 +2960,19 @@
       <c r="C68">
         <v>130613</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="12">
         <v>-28.282567</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="4">
         <v>-54.253343999999998</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68" s="9">
         <v>12</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G68" s="9">
         <v>340</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H68" s="9">
         <v>4.08</v>
       </c>
     </row>
@@ -2986,19 +2986,19 @@
       <c r="C69">
         <v>130562</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="12">
         <v>-28.308955000000001</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="4">
         <v>-54.258890999999998</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F69" s="9">
         <v>36</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G69" s="9">
         <v>390</v>
       </c>
-      <c r="H69" s="10">
+      <c r="H69" s="9">
         <v>14.04</v>
       </c>
     </row>
@@ -3012,19 +3012,19 @@
       <c r="C70">
         <v>130630</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="12">
         <v>-28.303789999999999</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="4">
         <v>-54.270814999999999</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F70" s="9">
         <v>14</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="9">
         <v>340</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H70" s="9">
         <v>4.76</v>
       </c>
     </row>
@@ -3038,19 +3038,19 @@
       <c r="C71">
         <v>130581</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="12">
         <v>-29.94426</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="4">
         <v>-51.167195999999997</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F71" s="9">
         <v>32</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G71" s="9">
         <v>390</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H71" s="9">
         <v>12.48</v>
       </c>
     </row>
@@ -3064,19 +3064,19 @@
       <c r="C72">
         <v>130629</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="12">
         <v>-28.290735999999999</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="4">
         <v>-54.277341999999997</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F72" s="9">
         <v>16</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72" s="9">
         <v>340</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H72" s="9">
         <v>5.44</v>
       </c>
     </row>
@@ -3090,19 +3090,19 @@
       <c r="C73">
         <v>130627</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="12">
         <v>-28.320262</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="4">
         <v>-54.268453000000001</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F73" s="9">
         <v>14</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="9">
         <v>340</v>
       </c>
-      <c r="H73" s="10">
+      <c r="H73" s="9">
         <v>4.76</v>
       </c>
     </row>
@@ -3116,19 +3116,19 @@
       <c r="C74">
         <v>130633</v>
       </c>
-      <c r="D74" s="5">
-        <v>-28318495</v>
-      </c>
-      <c r="E74" s="5">
+      <c r="D74" s="12">
+        <v>-28.318494999999999</v>
+      </c>
+      <c r="E74" s="4">
         <v>-54.268120000000003</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F74" s="9">
         <v>9</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G74" s="9">
         <v>340</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H74" s="9">
         <v>3.06</v>
       </c>
     </row>
@@ -3142,19 +3142,19 @@
       <c r="C75">
         <v>130499</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="12">
         <v>-28.278700000000001</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="4">
         <v>-54.274098000000002</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F75" s="9">
         <v>22</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G75" s="9">
         <v>345</v>
       </c>
-      <c r="H75" s="10">
+      <c r="H75" s="9">
         <v>7.59</v>
       </c>
     </row>
@@ -3168,19 +3168,19 @@
       <c r="C76">
         <v>130361</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="12">
         <v>-28.309878000000001</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="4">
         <v>-54.251457000000002</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F76" s="9">
         <v>16</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G76" s="9">
         <v>340</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H76" s="9">
         <v>5.44</v>
       </c>
     </row>
@@ -3194,19 +3194,19 @@
       <c r="C77">
         <v>130354</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="12">
         <v>-28.309179</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="4">
         <v>-54.251524000000003</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F77" s="9">
         <v>18</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G77" s="9">
         <v>340</v>
       </c>
-      <c r="H77" s="10">
+      <c r="H77" s="9">
         <v>6.12</v>
       </c>
     </row>
@@ -3220,19 +3220,19 @@
       <c r="C78">
         <v>130640</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="12">
         <v>-28.260301999999999</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="4">
         <v>-54.296765999999998</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F78" s="9">
         <v>20</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G78" s="9">
         <v>340</v>
       </c>
-      <c r="H78" s="10">
+      <c r="H78" s="9">
         <v>6.8</v>
       </c>
     </row>
@@ -3246,19 +3246,19 @@
       <c r="C79">
         <v>130497</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="12">
         <v>-28.384084797685201</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="4">
         <v>-53.940485008778303</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F79" s="9">
         <v>30</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G79" s="9">
         <v>400</v>
       </c>
-      <c r="H79" s="10">
+      <c r="H79" s="9">
         <v>12</v>
       </c>
     </row>
@@ -3272,19 +3272,19 @@
       <c r="C80">
         <v>130498</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="12">
         <v>-28.308067000000001</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="4">
         <v>-54.248925</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F80" s="9">
         <v>12</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G80" s="9">
         <v>345</v>
       </c>
-      <c r="H80" s="10">
+      <c r="H80" s="9">
         <v>4.1399999999999997</v>
       </c>
     </row>
@@ -3298,19 +3298,19 @@
       <c r="C81">
         <v>130074</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="12">
         <v>-28.390128841181401</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="4">
         <v>-53.908592326569298</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F81" s="9">
         <v>10</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G81" s="9">
         <v>400</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H81" s="9">
         <v>4</v>
       </c>
     </row>
@@ -3324,19 +3324,19 @@
       <c r="C82">
         <v>130653</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="12">
         <v>-28.329149999999998</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="4">
         <v>-54.279991000000003</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F82" s="9">
         <v>12</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G82" s="9">
         <v>345</v>
       </c>
-      <c r="H82" s="10">
+      <c r="H82" s="9">
         <v>4.1399999999999997</v>
       </c>
     </row>
@@ -3350,19 +3350,19 @@
       <c r="C83">
         <v>130642</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="12">
         <v>-28.282170000000001</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="4">
         <v>-54.273010999999997</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F83" s="9">
         <v>16</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G83" s="9">
         <v>345</v>
       </c>
-      <c r="H83" s="10">
+      <c r="H83" s="9">
         <v>5.52</v>
       </c>
     </row>
@@ -3376,19 +3376,19 @@
       <c r="C84">
         <v>130628</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="12">
         <v>-28.027308999999999</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="4">
         <v>-54.360798000000003</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F84" s="9">
         <v>12</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G84" s="9">
         <v>345</v>
       </c>
-      <c r="H84" s="10">
+      <c r="H84" s="9">
         <v>4.1399999999999997</v>
       </c>
     </row>
@@ -3402,19 +3402,19 @@
       <c r="C85">
         <v>130656</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="12">
         <v>-28.302097</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="4">
         <v>-54.271813000000002</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F85" s="9">
         <v>12</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G85" s="9">
         <v>345</v>
       </c>
-      <c r="H85" s="10">
+      <c r="H85" s="9">
         <v>4.1399999999999997</v>
       </c>
     </row>
@@ -3428,19 +3428,19 @@
       <c r="C86">
         <v>130674</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="12">
         <v>-28.356957999999999</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="4">
         <v>-54.267198999999998</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F86" s="9">
         <v>14</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G86" s="9">
         <v>345</v>
       </c>
-      <c r="H86" s="10">
+      <c r="H86" s="9">
         <v>4.83</v>
       </c>
     </row>
@@ -3454,19 +3454,19 @@
       <c r="C87">
         <v>130665</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="12">
         <v>-28.320692999999999</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="4">
         <v>-54.263520999999997</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F87" s="9">
         <v>16</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G87" s="9">
         <v>400</v>
       </c>
-      <c r="H87" s="10">
+      <c r="H87" s="9">
         <v>6.4</v>
       </c>
     </row>
@@ -3480,19 +3480,19 @@
       <c r="C88">
         <v>130666</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="12">
         <v>-28.303875999999999</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="4">
         <v>-54.264209000000001</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F88" s="9">
         <v>18</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G88" s="9">
         <v>400</v>
       </c>
-      <c r="H88" s="10">
+      <c r="H88" s="9">
         <v>7.2</v>
       </c>
     </row>
@@ -3506,19 +3506,19 @@
       <c r="C89">
         <v>130668</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="12">
         <v>-28.306341</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="4">
         <v>-54.248770999999998</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F89" s="9">
         <v>16</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G89" s="9">
         <v>345</v>
       </c>
-      <c r="H89" s="10">
+      <c r="H89" s="9">
         <v>5.52</v>
       </c>
     </row>
@@ -3532,19 +3532,19 @@
       <c r="C90">
         <v>130271</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="12">
         <v>-28.302143999999998</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="4">
         <v>-54.266972000000003</v>
       </c>
-      <c r="F90" s="10">
+      <c r="F90" s="9">
         <v>12</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G90" s="9">
         <v>350</v>
       </c>
-      <c r="H90" s="10">
+      <c r="H90" s="9">
         <v>4.2</v>
       </c>
     </row>
@@ -3558,19 +3558,19 @@
       <c r="C91">
         <v>130715</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="12">
         <v>-28.286914599999999</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="4">
         <v>-54.236417299999999</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F91" s="9">
         <v>20</v>
       </c>
-      <c r="G91" s="10">
+      <c r="G91" s="9">
         <v>350</v>
       </c>
-      <c r="H91" s="10">
+      <c r="H91" s="9">
         <v>7</v>
       </c>
     </row>
@@ -3584,19 +3584,19 @@
       <c r="C92">
         <v>130713</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="12">
         <v>-28.315664999999999</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="4">
         <v>-54.258096999999999</v>
       </c>
-      <c r="F92" s="10">
+      <c r="F92" s="9">
         <v>18</v>
       </c>
-      <c r="G92" s="10">
+      <c r="G92" s="9">
         <v>350</v>
       </c>
-      <c r="H92" s="10">
+      <c r="H92" s="9">
         <v>6.3</v>
       </c>
     </row>
@@ -3610,19 +3610,19 @@
       <c r="C93">
         <v>130710</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="12">
         <v>-28.287313999999999</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93" s="4">
         <v>-54.264854</v>
       </c>
-      <c r="F93" s="10">
+      <c r="F93" s="9">
         <v>12</v>
       </c>
-      <c r="G93" s="10">
+      <c r="G93" s="9">
         <v>405</v>
       </c>
-      <c r="H93" s="10">
+      <c r="H93" s="9">
         <v>4.8600000000000003</v>
       </c>
     </row>
@@ -3636,19 +3636,19 @@
       <c r="C94">
         <v>130677</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="12">
         <v>-28.300946</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E94" s="4">
         <v>-54.265129999999999</v>
       </c>
-      <c r="F94" s="10">
+      <c r="F94" s="9">
         <v>84</v>
       </c>
-      <c r="G94" s="10">
+      <c r="G94" s="9">
         <v>400</v>
       </c>
-      <c r="H94" s="10">
+      <c r="H94" s="9">
         <v>33.6</v>
       </c>
     </row>
@@ -3662,19 +3662,19 @@
       <c r="C95">
         <v>130657</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="12">
         <v>-28.286325999999999</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="4">
         <v>-54.269433999999997</v>
       </c>
-      <c r="F95" s="10">
+      <c r="F95" s="9">
         <v>24</v>
       </c>
-      <c r="G95" s="10">
+      <c r="G95" s="9">
         <v>350</v>
       </c>
-      <c r="H95" s="10">
+      <c r="H95" s="9">
         <v>8.4</v>
       </c>
     </row>
@@ -3688,19 +3688,19 @@
       <c r="C96">
         <v>130714</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="12">
         <v>-28.316683999999999</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="4">
         <v>-54.261862000000001</v>
       </c>
-      <c r="F96" s="10">
+      <c r="F96" s="9">
         <v>20</v>
       </c>
-      <c r="G96" s="10">
+      <c r="G96" s="9">
         <v>350</v>
       </c>
-      <c r="H96" s="10">
+      <c r="H96" s="9">
         <v>7</v>
       </c>
     </row>
@@ -3714,19 +3714,19 @@
       <c r="C97">
         <v>130439</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="12">
         <v>-28.305638898327899</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="4">
         <v>-54.265296894791398</v>
       </c>
-      <c r="F97" s="10">
+      <c r="F97" s="9">
         <v>14</v>
       </c>
-      <c r="G97" s="10">
+      <c r="G97" s="9">
         <v>350</v>
       </c>
-      <c r="H97" s="10">
+      <c r="H97" s="9">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -3740,19 +3740,19 @@
       <c r="C98">
         <v>130079</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="12">
         <v>-28.293597999999999</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="4">
         <v>-54.266038999999999</v>
       </c>
-      <c r="F98" s="10">
+      <c r="F98" s="9">
         <v>16</v>
       </c>
-      <c r="G98" s="10">
+      <c r="G98" s="9">
         <v>405</v>
       </c>
-      <c r="H98" s="10">
+      <c r="H98" s="9">
         <v>6.48</v>
       </c>
     </row>
@@ -3766,19 +3766,19 @@
       <c r="C99">
         <v>130729</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="12">
         <v>-28.299693999999999</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99" s="4">
         <v>-54.268788999999998</v>
       </c>
-      <c r="F99" s="10">
+      <c r="F99" s="9">
         <v>8</v>
       </c>
-      <c r="G99" s="10">
+      <c r="G99" s="9">
         <v>345</v>
       </c>
-      <c r="H99" s="10">
+      <c r="H99" s="9">
         <v>2.76</v>
       </c>
     </row>
@@ -3792,19 +3792,19 @@
       <c r="C100">
         <v>130763</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="12">
         <v>-28.299802</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E100" s="4">
         <v>-54.249544999999998</v>
       </c>
-      <c r="F100" s="10">
+      <c r="F100" s="9">
         <v>110</v>
       </c>
-      <c r="G100" s="10">
+      <c r="G100" s="9">
         <v>405</v>
       </c>
-      <c r="H100" s="10">
+      <c r="H100" s="9">
         <v>44.55</v>
       </c>
     </row>
@@ -3818,19 +3818,19 @@
       <c r="C101">
         <v>130760</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="12">
         <v>-28.282174999999999</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E101" s="4">
         <v>-54.265797999999997</v>
       </c>
-      <c r="F101" s="10">
+      <c r="F101" s="9">
         <v>8</v>
       </c>
-      <c r="G101" s="10">
+      <c r="G101" s="9">
         <v>345</v>
       </c>
-      <c r="H101" s="10">
+      <c r="H101" s="9">
         <v>2.76</v>
       </c>
     </row>
@@ -3844,19 +3844,19 @@
       <c r="C102">
         <v>130754</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="12">
         <v>-28.282157999999999</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E102" s="4">
         <v>-54.265754999999999</v>
       </c>
-      <c r="F102" s="10">
+      <c r="F102" s="9">
         <v>8</v>
       </c>
-      <c r="G102" s="10">
+      <c r="G102" s="9">
         <v>345</v>
       </c>
-      <c r="H102" s="10">
+      <c r="H102" s="9">
         <v>2.76</v>
       </c>
     </row>
@@ -3870,19 +3870,19 @@
       <c r="C103">
         <v>130244</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="12">
         <v>-28.304455000000001</v>
       </c>
-      <c r="E103" s="5">
+      <c r="E103" s="4">
         <v>-54.243279999999999</v>
       </c>
-      <c r="F103" s="10">
+      <c r="F103" s="9">
         <v>10</v>
       </c>
-      <c r="G103" s="10">
+      <c r="G103" s="9">
         <v>345</v>
       </c>
-      <c r="H103" s="10">
+      <c r="H103" s="9">
         <v>3.45</v>
       </c>
     </row>
@@ -3896,19 +3896,19 @@
       <c r="C104">
         <v>130778</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="12">
         <v>-28.309709000000002</v>
       </c>
-      <c r="E104" s="5">
+      <c r="E104" s="4">
         <v>-54.277214000000001</v>
       </c>
-      <c r="F104" s="10">
+      <c r="F104" s="9">
         <v>28</v>
       </c>
-      <c r="G104" s="10">
+      <c r="G104" s="9">
         <v>345</v>
       </c>
-      <c r="H104" s="10">
+      <c r="H104" s="9">
         <v>9.66</v>
       </c>
     </row>
@@ -3922,19 +3922,19 @@
       <c r="C105">
         <v>130483</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="12">
         <v>-28.319882</v>
       </c>
-      <c r="E105" s="5">
+      <c r="E105" s="4">
         <v>-54.263043000000003</v>
       </c>
-      <c r="F105" s="10">
+      <c r="F105" s="9">
         <v>10</v>
       </c>
-      <c r="G105" s="10">
+      <c r="G105" s="9">
         <v>405</v>
       </c>
-      <c r="H105" s="10">
+      <c r="H105" s="9">
         <v>4.05</v>
       </c>
     </row>
@@ -3948,19 +3948,19 @@
       <c r="C106">
         <v>130644</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106" s="12">
         <v>-28.302934</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E106" s="4">
         <v>-54.264229</v>
       </c>
-      <c r="F106" s="10">
+      <c r="F106" s="9">
         <v>12</v>
       </c>
-      <c r="G106" s="10">
+      <c r="G106" s="9">
         <v>345</v>
       </c>
-      <c r="H106" s="10">
+      <c r="H106" s="9">
         <v>4.1399999999999997</v>
       </c>
     </row>
@@ -3974,19 +3974,19 @@
       <c r="C107">
         <v>130643</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="12">
         <v>-28.30294</v>
       </c>
-      <c r="E107" s="5">
+      <c r="E107" s="4">
         <v>-54.264201999999997</v>
       </c>
-      <c r="F107" s="10">
+      <c r="F107" s="9">
         <v>12</v>
       </c>
-      <c r="G107" s="10">
+      <c r="G107" s="9">
         <v>345</v>
       </c>
-      <c r="H107" s="10">
+      <c r="H107" s="9">
         <v>4.1399999999999997</v>
       </c>
     </row>
@@ -4000,19 +4000,19 @@
       <c r="C108">
         <v>130785</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="12">
         <v>-28.296904999999999</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E108" s="4">
         <v>-54.262683000000003</v>
       </c>
-      <c r="F108" s="10">
+      <c r="F108" s="9">
         <v>12</v>
       </c>
-      <c r="G108" s="10">
+      <c r="G108" s="9">
         <v>405</v>
       </c>
-      <c r="H108" s="10">
+      <c r="H108" s="9">
         <v>4.8600000000000003</v>
       </c>
     </row>
@@ -4026,19 +4026,19 @@
       <c r="C109">
         <v>130790</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D109" s="12">
         <v>-28.728273999999999</v>
       </c>
-      <c r="E109" s="5">
+      <c r="E109" s="4">
         <v>-54.56644</v>
       </c>
-      <c r="F109" s="10">
+      <c r="F109" s="9">
         <v>12</v>
       </c>
-      <c r="G109" s="10">
+      <c r="G109" s="9">
         <v>345</v>
       </c>
-      <c r="H109" s="10">
+      <c r="H109" s="9">
         <v>4.1399999999999997</v>
       </c>
     </row>
@@ -4052,19 +4052,19 @@
       <c r="C110">
         <v>130792</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110" s="12">
         <v>-28.280425000000001</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="4">
         <v>-54.265562000000003</v>
       </c>
-      <c r="F110" s="10">
+      <c r="F110" s="9">
         <v>12</v>
       </c>
-      <c r="G110" s="10">
+      <c r="G110" s="9">
         <v>405</v>
       </c>
-      <c r="H110" s="10">
+      <c r="H110" s="9">
         <v>4.8600000000000003</v>
       </c>
     </row>
@@ -4078,19 +4078,19 @@
       <c r="C111">
         <v>130459</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D111" s="12">
         <v>-28.316228196014499</v>
       </c>
-      <c r="E111" s="5">
+      <c r="E111" s="4">
         <v>-54.259096984671203</v>
       </c>
-      <c r="F111" s="10">
+      <c r="F111" s="9">
         <v>8</v>
       </c>
-      <c r="G111" s="10">
+      <c r="G111" s="9">
         <v>405</v>
       </c>
-      <c r="H111" s="10">
+      <c r="H111" s="9">
         <v>3.24</v>
       </c>
     </row>
@@ -4104,19 +4104,19 @@
       <c r="C112">
         <v>130791</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="12">
         <v>-28.377413600000001</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E112" s="4">
         <v>-54.255563299999999</v>
       </c>
-      <c r="F112" s="10">
+      <c r="F112" s="9">
         <v>50</v>
       </c>
-      <c r="G112" s="10">
+      <c r="G112" s="9">
         <v>405</v>
       </c>
-      <c r="H112" s="10">
+      <c r="H112" s="9">
         <v>20.25</v>
       </c>
     </row>
@@ -4130,19 +4130,19 @@
       <c r="C113">
         <v>130807</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="12">
         <v>-28.3653333</v>
       </c>
-      <c r="E113" s="5">
+      <c r="E113" s="4">
         <v>-54.2766108</v>
       </c>
-      <c r="F113" s="10">
+      <c r="F113" s="9">
         <v>16</v>
       </c>
-      <c r="G113" s="10">
+      <c r="G113" s="9">
         <v>405</v>
       </c>
-      <c r="H113" s="10">
+      <c r="H113" s="9">
         <v>6.48</v>
       </c>
     </row>
@@ -4156,19 +4156,19 @@
       <c r="C114">
         <v>130799</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114" s="12">
         <v>-28.280978000000001</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E114" s="4">
         <v>-54.264176200000001</v>
       </c>
-      <c r="F114" s="10">
+      <c r="F114" s="9">
         <v>16</v>
       </c>
-      <c r="G114" s="10">
+      <c r="G114" s="9">
         <v>345</v>
       </c>
-      <c r="H114" s="10">
+      <c r="H114" s="9">
         <v>5.52</v>
       </c>
     </row>
@@ -4182,19 +4182,19 @@
       <c r="C115">
         <v>130812</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="12">
         <v>-28.6547862</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E115" s="4">
         <v>-55.251213999999997</v>
       </c>
-      <c r="F115" s="10">
+      <c r="F115" s="9">
         <v>28</v>
       </c>
-      <c r="G115" s="10">
+      <c r="G115" s="9">
         <v>405</v>
       </c>
-      <c r="H115" s="10">
+      <c r="H115" s="9">
         <v>11.34</v>
       </c>
     </row>
@@ -4208,19 +4208,19 @@
       <c r="C116">
         <v>130229</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D116" s="12">
         <v>-28.306172799999999</v>
       </c>
-      <c r="E116" s="5">
+      <c r="E116" s="4">
         <v>-54.277309199999998</v>
       </c>
-      <c r="F116" s="10">
+      <c r="F116" s="9">
         <v>42</v>
       </c>
-      <c r="G116" s="10">
+      <c r="G116" s="9">
         <v>345</v>
       </c>
-      <c r="H116" s="10">
+      <c r="H116" s="9">
         <v>14.49</v>
       </c>
     </row>
@@ -4234,19 +4234,19 @@
       <c r="C117">
         <v>130822</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="12">
         <v>-28.3034219</v>
       </c>
-      <c r="E117" s="5">
+      <c r="E117" s="4">
         <v>-54.265631200000001</v>
       </c>
-      <c r="F117" s="10">
+      <c r="F117" s="9">
         <v>48</v>
       </c>
-      <c r="G117" s="10">
+      <c r="G117" s="9">
         <v>405</v>
       </c>
-      <c r="H117" s="10">
+      <c r="H117" s="9">
         <v>19.440000000000001</v>
       </c>
     </row>
@@ -4260,19 +4260,19 @@
       <c r="C118">
         <v>130817</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118" s="12">
         <v>-28.3073275</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E118" s="4">
         <v>-54.265521999999997</v>
       </c>
-      <c r="F118" s="10">
+      <c r="F118" s="9">
         <v>24</v>
       </c>
-      <c r="G118" s="10">
+      <c r="G118" s="9">
         <v>405</v>
       </c>
-      <c r="H118" s="10">
+      <c r="H118" s="9">
         <v>9.7200000000000006</v>
       </c>
     </row>
@@ -4286,19 +4286,19 @@
       <c r="C119">
         <v>130171</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D119" s="12">
         <v>-28.3034219</v>
       </c>
-      <c r="E119" s="5">
+      <c r="E119" s="4">
         <v>-54.265631200000001</v>
       </c>
-      <c r="F119" s="10">
+      <c r="F119" s="9">
         <v>26</v>
       </c>
-      <c r="G119" s="10">
+      <c r="G119" s="9">
         <v>405</v>
       </c>
-      <c r="H119" s="10">
+      <c r="H119" s="9">
         <v>10.53</v>
       </c>
     </row>
@@ -4312,19 +4312,19 @@
       <c r="C120">
         <v>130808</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="12">
         <v>-28.301877000000001</v>
       </c>
-      <c r="E120" s="5">
+      <c r="E120" s="4">
         <v>-54.246411000000002</v>
       </c>
-      <c r="F120" s="10">
+      <c r="F120" s="9">
         <v>24</v>
       </c>
-      <c r="G120" s="10">
+      <c r="G120" s="9">
         <v>405</v>
       </c>
-      <c r="H120" s="10">
+      <c r="H120" s="9">
         <v>9.7200000000000006</v>
       </c>
     </row>
@@ -4338,19 +4338,19 @@
       <c r="C121">
         <v>130819</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="12">
         <v>-28.3045620221592</v>
       </c>
-      <c r="E121" s="5">
+      <c r="E121" s="4">
         <v>-54.264109224696902</v>
       </c>
-      <c r="F121" s="10">
+      <c r="F121" s="9">
         <v>24</v>
       </c>
-      <c r="G121" s="10">
+      <c r="G121" s="9">
         <v>405</v>
       </c>
-      <c r="H121" s="10">
+      <c r="H121" s="9">
         <v>9.7200000000000006</v>
       </c>
     </row>
@@ -4364,19 +4364,19 @@
       <c r="C122">
         <v>130831</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="12">
         <v>-28.302249478252602</v>
       </c>
-      <c r="E122" s="5">
+      <c r="E122" s="4">
         <v>-54.268636309595003</v>
       </c>
-      <c r="F122" s="10">
+      <c r="F122" s="9">
         <v>12</v>
       </c>
-      <c r="G122" s="10">
+      <c r="G122" s="9">
         <v>405</v>
       </c>
-      <c r="H122" s="10">
+      <c r="H122" s="9">
         <v>4.8600000000000003</v>
       </c>
     </row>
@@ -4390,19 +4390,19 @@
       <c r="C123">
         <v>130418</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123" s="12">
         <v>-28.256105899693701</v>
       </c>
-      <c r="E123" s="5">
+      <c r="E123" s="4">
         <v>-54.021334364576099</v>
       </c>
-      <c r="F123" s="10">
+      <c r="F123" s="9">
         <v>12</v>
       </c>
-      <c r="G123" s="10">
+      <c r="G123" s="9">
         <v>405</v>
       </c>
-      <c r="H123" s="10">
+      <c r="H123" s="9">
         <v>4.8600000000000003</v>
       </c>
     </row>
@@ -4416,19 +4416,19 @@
       <c r="C124">
         <v>130834</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124" s="12">
         <v>-28.314367407080599</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E124" s="4">
         <v>-54.260783520063697</v>
       </c>
-      <c r="F124" s="10">
+      <c r="F124" s="9">
         <v>16</v>
       </c>
-      <c r="G124" s="10">
+      <c r="G124" s="9">
         <v>405</v>
       </c>
-      <c r="H124" s="10">
+      <c r="H124" s="9">
         <v>6.48</v>
       </c>
     </row>
@@ -4442,19 +4442,19 @@
       <c r="C125">
         <v>130857</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D125" s="12">
         <v>-28.260799800000001</v>
       </c>
-      <c r="E125" s="5">
+      <c r="E125" s="4">
         <v>-54.296879199999999</v>
       </c>
-      <c r="F125" s="10">
+      <c r="F125" s="9">
         <v>10</v>
       </c>
-      <c r="G125" s="10">
+      <c r="G125" s="9">
         <v>405</v>
       </c>
-      <c r="H125" s="10">
+      <c r="H125" s="9">
         <v>4.05</v>
       </c>
     </row>
@@ -4468,19 +4468,19 @@
       <c r="C126">
         <v>130738</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126" s="12">
         <v>-28.543714399999999</v>
       </c>
-      <c r="E126" s="5">
+      <c r="E126" s="4">
         <v>-54.550433400000003</v>
       </c>
-      <c r="F126" s="10">
+      <c r="F126" s="9">
         <v>48</v>
       </c>
-      <c r="G126" s="10">
+      <c r="G126" s="9">
         <v>400</v>
       </c>
-      <c r="H126" s="10">
+      <c r="H126" s="9">
         <v>19.2</v>
       </c>
     </row>
@@ -4494,19 +4494,19 @@
       <c r="C127">
         <v>130851</v>
       </c>
-      <c r="D127" s="13">
+      <c r="D127" s="12">
         <v>-28.543321079354801</v>
       </c>
-      <c r="E127" s="5">
+      <c r="E127" s="4">
         <v>-54.550296804911603</v>
       </c>
-      <c r="F127" s="10">
+      <c r="F127" s="9">
         <v>30</v>
       </c>
-      <c r="G127" s="10">
+      <c r="G127" s="9">
         <v>400</v>
       </c>
-      <c r="H127" s="10">
+      <c r="H127" s="9">
         <v>12</v>
       </c>
     </row>
@@ -4520,19 +4520,19 @@
       <c r="C128">
         <v>130864</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="12">
         <v>-28.543246858941501</v>
       </c>
-      <c r="E128" s="5">
+      <c r="E128" s="4">
         <v>-54.550245842942999</v>
       </c>
-      <c r="F128" s="10">
+      <c r="F128" s="9">
         <v>30</v>
       </c>
-      <c r="G128" s="10">
+      <c r="G128" s="9">
         <v>400</v>
       </c>
-      <c r="H128" s="10">
+      <c r="H128" s="9">
         <v>12</v>
       </c>
     </row>
@@ -4546,19 +4546,19 @@
       <c r="C129">
         <v>130867</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="12">
         <v>-28.134748750519801</v>
       </c>
-      <c r="E129" s="5">
+      <c r="E129" s="4">
         <v>-55.0302255282486</v>
       </c>
-      <c r="F129" s="10">
+      <c r="F129" s="9">
         <v>22</v>
       </c>
-      <c r="G129" s="10">
+      <c r="G129" s="9">
         <v>405</v>
       </c>
-      <c r="H129" s="10">
+      <c r="H129" s="9">
         <v>8.91</v>
       </c>
     </row>
@@ -4572,19 +4572,19 @@
       <c r="C130">
         <v>130683</v>
       </c>
-      <c r="D130" s="4">
-        <v>-285428163</v>
-      </c>
-      <c r="E130" s="5">
+      <c r="D130" s="12">
+        <v>-28.542816299999998</v>
+      </c>
+      <c r="E130" s="4">
         <v>-54.5534848</v>
       </c>
-      <c r="F130" s="10">
+      <c r="F130" s="9">
         <v>16</v>
       </c>
-      <c r="G130" s="10">
+      <c r="G130" s="9">
         <v>405</v>
       </c>
-      <c r="H130" s="10">
+      <c r="H130" s="9">
         <v>6.48</v>
       </c>
     </row>
@@ -4598,19 +4598,19 @@
       <c r="C131">
         <v>130855</v>
       </c>
-      <c r="D131" s="4">
-        <v>-283143354</v>
-      </c>
-      <c r="E131" s="5">
+      <c r="D131" s="12">
+        <v>-28.314335400000001</v>
+      </c>
+      <c r="E131" s="4">
         <v>-54.242130199999998</v>
       </c>
-      <c r="F131" s="10">
+      <c r="F131" s="9">
         <v>7</v>
       </c>
-      <c r="G131" s="10">
+      <c r="G131" s="9">
         <v>405</v>
       </c>
-      <c r="H131" s="10">
+      <c r="H131" s="9">
         <v>2.835</v>
       </c>
     </row>
@@ -4624,19 +4624,19 @@
       <c r="C132">
         <v>130869</v>
       </c>
-      <c r="D132" s="4">
-        <v>-28554156</v>
-      </c>
-      <c r="E132" s="5">
+      <c r="D132" s="12">
+        <v>-28.554155999999999</v>
+      </c>
+      <c r="E132" s="4">
         <v>-54.557296600000001</v>
       </c>
-      <c r="F132" s="10">
+      <c r="F132" s="9">
         <v>10</v>
       </c>
-      <c r="G132" s="10">
+      <c r="G132" s="9">
         <v>345</v>
       </c>
-      <c r="H132" s="10">
+      <c r="H132" s="9">
         <v>3.45</v>
       </c>
     </row>
@@ -4650,19 +4650,19 @@
       <c r="C133">
         <v>130875</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D133" s="12">
         <v>-28.2804902735976</v>
       </c>
-      <c r="E133" s="5">
+      <c r="E133" s="4">
         <v>-54.258725446597502</v>
       </c>
-      <c r="F133" s="10">
+      <c r="F133" s="9">
         <v>30</v>
       </c>
-      <c r="G133" s="10">
+      <c r="G133" s="9">
         <v>405</v>
       </c>
-      <c r="H133" s="10">
+      <c r="H133" s="9">
         <v>12.15</v>
       </c>
     </row>
@@ -4676,19 +4676,19 @@
       <c r="C134">
         <v>130833</v>
       </c>
-      <c r="D134" s="4">
-        <v>-282803328</v>
-      </c>
-      <c r="E134" s="5">
+      <c r="D134" s="12">
+        <v>-28.2803328</v>
+      </c>
+      <c r="E134" s="4">
         <v>-54.275769199999999</v>
       </c>
-      <c r="F134" s="10">
+      <c r="F134" s="9">
         <v>14</v>
       </c>
-      <c r="G134" s="10">
+      <c r="G134" s="9">
         <v>405</v>
       </c>
-      <c r="H134" s="10">
+      <c r="H134" s="9">
         <v>5.67</v>
       </c>
     </row>
@@ -4702,19 +4702,19 @@
       <c r="C135">
         <v>130886</v>
       </c>
-      <c r="D135" s="4">
-        <v>-282599776</v>
-      </c>
-      <c r="E135" s="5">
+      <c r="D135" s="12">
+        <v>-28.259977599999999</v>
+      </c>
+      <c r="E135" s="4">
         <v>-54.429679499999999</v>
       </c>
-      <c r="F135" s="10">
+      <c r="F135" s="9">
         <v>24</v>
       </c>
-      <c r="G135" s="10">
+      <c r="G135" s="9">
         <v>405</v>
       </c>
-      <c r="H135" s="10">
+      <c r="H135" s="9">
         <v>9.7200000000000006</v>
       </c>
     </row>
@@ -4728,19 +4728,19 @@
       <c r="C136">
         <v>130890</v>
       </c>
-      <c r="D136" s="4">
-        <v>-283022338</v>
-      </c>
-      <c r="E136" s="5">
+      <c r="D136" s="12">
+        <v>-28.3022338</v>
+      </c>
+      <c r="E136" s="4">
         <v>-54.268834200000001</v>
       </c>
-      <c r="F136" s="10">
+      <c r="F136" s="9">
         <v>8</v>
       </c>
-      <c r="G136" s="10">
+      <c r="G136" s="9">
         <v>405</v>
       </c>
-      <c r="H136" s="10">
+      <c r="H136" s="9">
         <v>3.24</v>
       </c>
     </row>
@@ -4754,19 +4754,19 @@
       <c r="C137">
         <v>130861</v>
       </c>
-      <c r="D137" s="4">
-        <v>-283108749</v>
-      </c>
-      <c r="E137" s="5">
+      <c r="D137" s="12">
+        <v>-28.310874900000002</v>
+      </c>
+      <c r="E137" s="4">
         <v>-54.282385599999998</v>
       </c>
-      <c r="F137" s="10">
+      <c r="F137" s="9">
         <v>22</v>
       </c>
-      <c r="G137" s="10">
+      <c r="G137" s="9">
         <v>405</v>
       </c>
-      <c r="H137" s="10">
+      <c r="H137" s="9">
         <v>8.91</v>
       </c>
     </row>
@@ -4780,19 +4780,19 @@
       <c r="C138">
         <v>130911</v>
       </c>
-      <c r="D138" s="4">
-        <v>-283671801</v>
-      </c>
-      <c r="E138" s="5">
+      <c r="D138" s="12">
+        <v>-28.367180099999999</v>
+      </c>
+      <c r="E138" s="4">
         <v>-54.274974399999998</v>
       </c>
-      <c r="F138" s="10">
+      <c r="F138" s="9">
         <v>12</v>
       </c>
-      <c r="G138" s="10">
+      <c r="G138" s="9">
         <v>350</v>
       </c>
-      <c r="H138" s="10">
+      <c r="H138" s="9">
         <v>4.2</v>
       </c>
     </row>
@@ -4806,19 +4806,19 @@
       <c r="C139">
         <v>130898</v>
       </c>
-      <c r="D139" s="4">
-        <v>-282980388</v>
-      </c>
-      <c r="E139" s="5">
+      <c r="D139" s="12">
+        <v>-28.2980388</v>
+      </c>
+      <c r="E139" s="4">
         <v>-54.244047199999997</v>
       </c>
-      <c r="F139" s="10">
+      <c r="F139" s="9">
         <v>12</v>
       </c>
-      <c r="G139" s="10">
+      <c r="G139" s="9">
         <v>350</v>
       </c>
-      <c r="H139" s="10">
+      <c r="H139" s="9">
         <v>4.2</v>
       </c>
     </row>
@@ -4832,19 +4832,19 @@
       <c r="C140">
         <v>130908</v>
       </c>
-      <c r="D140" s="4">
-        <v>-282937631</v>
-      </c>
-      <c r="E140" s="5">
+      <c r="D140" s="12">
+        <v>-28.2937631</v>
+      </c>
+      <c r="E140" s="4">
         <v>-54.2565156</v>
       </c>
-      <c r="F140" s="10">
+      <c r="F140" s="9">
         <v>11</v>
       </c>
-      <c r="G140" s="10">
+      <c r="G140" s="9">
         <v>350</v>
       </c>
-      <c r="H140" s="10">
+      <c r="H140" s="9">
         <v>3.85</v>
       </c>
     </row>
@@ -4858,19 +4858,19 @@
       <c r="C141">
         <v>130904</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D141" s="12">
         <v>-28.335056489999999</v>
       </c>
-      <c r="E141" s="5">
+      <c r="E141" s="4">
         <v>-54.192553199999999</v>
       </c>
-      <c r="F141" s="10">
+      <c r="F141" s="9">
         <v>18</v>
       </c>
-      <c r="G141" s="10">
+      <c r="G141" s="9">
         <v>350</v>
       </c>
-      <c r="H141" s="10">
+      <c r="H141" s="9">
         <v>6.3</v>
       </c>
     </row>
@@ -4884,19 +4884,19 @@
       <c r="C142">
         <v>130909</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D142" s="12">
         <v>-28.387961700000002</v>
       </c>
-      <c r="E142" s="5">
+      <c r="E142" s="4">
         <v>-53.9184731</v>
       </c>
-      <c r="F142" s="10">
+      <c r="F142" s="9">
         <v>14</v>
       </c>
-      <c r="G142" s="10">
+      <c r="G142" s="9">
         <v>350</v>
       </c>
-      <c r="H142" s="10">
+      <c r="H142" s="9">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -4910,19 +4910,19 @@
       <c r="C143">
         <v>130917</v>
       </c>
-      <c r="D143" s="5">
+      <c r="D143" s="12">
         <v>-28.355021700000002</v>
       </c>
-      <c r="E143" s="7">
+      <c r="E143" s="6">
         <v>-54.500766499999997</v>
       </c>
-      <c r="F143" s="10">
+      <c r="F143" s="9">
         <v>8</v>
       </c>
-      <c r="G143" s="10">
+      <c r="G143" s="9">
         <v>350</v>
       </c>
-      <c r="H143" s="10">
+      <c r="H143" s="9">
         <v>2.8</v>
       </c>
     </row>
@@ -4936,19 +4936,19 @@
       <c r="C144">
         <v>130915</v>
       </c>
-      <c r="D144" s="5">
+      <c r="D144" s="12">
         <v>-28.302527600000001</v>
       </c>
-      <c r="E144" s="5">
+      <c r="E144" s="4">
         <v>-54.268803499999997</v>
       </c>
-      <c r="F144" s="10">
+      <c r="F144" s="9">
         <v>13</v>
       </c>
-      <c r="G144" s="10">
+      <c r="G144" s="9">
         <v>350</v>
       </c>
-      <c r="H144" s="10">
+      <c r="H144" s="9">
         <v>4.55</v>
       </c>
     </row>
@@ -4962,19 +4962,19 @@
       <c r="C145">
         <v>130056</v>
       </c>
-      <c r="D145" s="5">
+      <c r="D145" s="12">
         <v>-28.358078415321302</v>
       </c>
-      <c r="E145" s="5">
+      <c r="E145" s="4">
         <v>-54.498774716781597</v>
       </c>
-      <c r="F145" s="10">
+      <c r="F145" s="9">
         <v>16</v>
       </c>
-      <c r="G145" s="10">
+      <c r="G145" s="9">
         <v>350</v>
       </c>
-      <c r="H145" s="10">
+      <c r="H145" s="9">
         <v>5.6</v>
       </c>
     </row>
@@ -4988,19 +4988,19 @@
       <c r="C146">
         <v>130931</v>
       </c>
-      <c r="D146" s="5">
+      <c r="D146" s="12">
         <v>-28.309475899999999</v>
       </c>
-      <c r="E146" s="5">
+      <c r="E146" s="4">
         <v>-54.477024299999997</v>
       </c>
-      <c r="F146" s="10">
+      <c r="F146" s="9">
         <v>28</v>
       </c>
-      <c r="G146" s="10">
+      <c r="G146" s="9">
         <v>405</v>
       </c>
-      <c r="H146" s="10">
+      <c r="H146" s="9">
         <v>11.34</v>
       </c>
     </row>
@@ -5014,19 +5014,19 @@
       <c r="C147">
         <v>130933</v>
       </c>
-      <c r="D147" s="5">
+      <c r="D147" s="12">
         <v>-28.352185289619701</v>
       </c>
-      <c r="E147" s="5">
+      <c r="E147" s="4">
         <v>-54.502524275499603</v>
       </c>
-      <c r="F147" s="10">
+      <c r="F147" s="9">
         <v>18</v>
       </c>
-      <c r="G147" s="10">
+      <c r="G147" s="9">
         <v>405</v>
       </c>
-      <c r="H147" s="10">
+      <c r="H147" s="9">
         <v>7.29</v>
       </c>
     </row>
@@ -5040,19 +5040,19 @@
       <c r="C148">
         <v>130935</v>
       </c>
-      <c r="D148" s="5">
+      <c r="D148" s="12">
         <v>-28.3518923593792</v>
       </c>
-      <c r="E148" s="5">
+      <c r="E148" s="4">
         <v>-54.499183233315399</v>
       </c>
-      <c r="F148" s="10">
+      <c r="F148" s="9">
         <v>10</v>
       </c>
-      <c r="G148" s="10">
+      <c r="G148" s="9">
         <v>350</v>
       </c>
-      <c r="H148" s="10">
+      <c r="H148" s="9">
         <v>3.5</v>
       </c>
     </row>
@@ -5066,19 +5066,19 @@
       <c r="C149">
         <v>130936</v>
       </c>
-      <c r="D149" s="5">
+      <c r="D149" s="12">
         <v>-28.347902621475601</v>
       </c>
-      <c r="E149" s="5">
+      <c r="E149" s="4">
         <v>-54.500595183966702</v>
       </c>
-      <c r="F149" s="10">
+      <c r="F149" s="9">
         <v>26</v>
       </c>
-      <c r="G149" s="10">
+      <c r="G149" s="9">
         <v>350</v>
       </c>
-      <c r="H149" s="10">
+      <c r="H149" s="9">
         <v>9.1</v>
       </c>
     </row>
@@ -5092,19 +5092,19 @@
       <c r="C150">
         <v>130937</v>
       </c>
-      <c r="D150" s="5">
+      <c r="D150" s="12">
         <v>-28.347683680872901</v>
       </c>
-      <c r="E150" s="5">
+      <c r="E150" s="4">
         <v>-54.500780326569398</v>
       </c>
-      <c r="F150" s="10">
+      <c r="F150" s="9">
         <v>24</v>
       </c>
-      <c r="G150" s="10">
+      <c r="G150" s="9">
         <v>405</v>
       </c>
-      <c r="H150" s="10">
+      <c r="H150" s="9">
         <v>9.7200000000000006</v>
       </c>
     </row>
@@ -5118,19 +5118,19 @@
       <c r="C151">
         <v>130938</v>
       </c>
-      <c r="D151" s="5">
+      <c r="D151" s="12">
         <v>-28.3495674167559</v>
       </c>
-      <c r="E151" s="5">
+      <c r="E151" s="4">
         <v>-54.500329727194099</v>
       </c>
-      <c r="F151" s="10">
+      <c r="F151" s="9">
         <v>12</v>
       </c>
-      <c r="G151" s="10">
+      <c r="G151" s="9">
         <v>405</v>
       </c>
-      <c r="H151" s="10">
+      <c r="H151" s="9">
         <v>4.8600000000000003</v>
       </c>
     </row>
@@ -5144,19 +5144,19 @@
       <c r="C152">
         <v>130943</v>
       </c>
-      <c r="D152" s="5">
+      <c r="D152" s="12">
         <v>-28.134681989524601</v>
       </c>
-      <c r="E152" s="5">
+      <c r="E152" s="4">
         <v>-55.028486873868701</v>
       </c>
-      <c r="F152" s="10">
+      <c r="F152" s="9">
         <v>11</v>
       </c>
-      <c r="G152" s="10">
+      <c r="G152" s="9">
         <v>350</v>
       </c>
-      <c r="H152" s="10">
+      <c r="H152" s="9">
         <v>3.85</v>
       </c>
     </row>
@@ -5170,19 +5170,19 @@
       <c r="C153">
         <v>130944</v>
       </c>
-      <c r="D153" s="5">
+      <c r="D153" s="12">
         <v>-28.291281600000001</v>
       </c>
-      <c r="E153" s="5">
+      <c r="E153" s="4">
         <v>-54.271275299999999</v>
       </c>
-      <c r="F153" s="10">
+      <c r="F153" s="9">
         <v>40</v>
       </c>
-      <c r="G153" s="10">
+      <c r="G153" s="9">
         <v>405</v>
       </c>
-      <c r="H153" s="10">
+      <c r="H153" s="9">
         <v>16.2</v>
       </c>
     </row>
@@ -5196,19 +5196,19 @@
       <c r="C154">
         <v>130945</v>
       </c>
-      <c r="D154" s="5">
+      <c r="D154" s="12">
         <v>-28.3113481</v>
       </c>
-      <c r="E154" s="5">
+      <c r="E154" s="4">
         <v>-54.268197399999998</v>
       </c>
-      <c r="F154" s="10">
+      <c r="F154" s="9">
         <v>12</v>
       </c>
-      <c r="G154" s="10">
+      <c r="G154" s="9">
         <v>405</v>
       </c>
-      <c r="H154" s="10">
+      <c r="H154" s="9">
         <v>4.8600000000000003</v>
       </c>
     </row>
@@ -5222,19 +5222,19 @@
       <c r="C155">
         <v>130573</v>
       </c>
-      <c r="D155" s="5">
+      <c r="D155" s="12">
         <v>-28.307559131245501</v>
       </c>
-      <c r="E155" s="5">
+      <c r="E155" s="4">
         <v>-54.258050775619999</v>
       </c>
-      <c r="F155" s="10">
+      <c r="F155" s="9">
         <v>46</v>
       </c>
-      <c r="G155" s="10">
+      <c r="G155" s="9">
         <v>405</v>
       </c>
-      <c r="H155" s="10">
+      <c r="H155" s="9">
         <v>18.63</v>
       </c>
     </row>
@@ -5248,19 +5248,19 @@
       <c r="C156">
         <v>130544</v>
       </c>
-      <c r="D156" s="5">
+      <c r="D156" s="12">
         <v>-28.315536900000001</v>
       </c>
-      <c r="E156" s="5">
+      <c r="E156" s="4">
         <v>-54.266629299999998</v>
       </c>
-      <c r="F156" s="10">
+      <c r="F156" s="9">
         <v>36</v>
       </c>
-      <c r="G156" s="10">
+      <c r="G156" s="9">
         <v>350</v>
       </c>
-      <c r="H156" s="10">
+      <c r="H156" s="9">
         <v>12.6</v>
       </c>
     </row>
@@ -5274,19 +5274,19 @@
       <c r="C157">
         <v>130946</v>
       </c>
-      <c r="D157" s="5">
+      <c r="D157" s="12">
         <v>-28.315822399999998</v>
       </c>
-      <c r="E157" s="5">
+      <c r="E157" s="4">
         <v>-54.265181800000001</v>
       </c>
-      <c r="F157" s="10">
+      <c r="F157" s="9">
         <v>20</v>
       </c>
-      <c r="G157" s="10">
+      <c r="G157" s="9">
         <v>405</v>
       </c>
-      <c r="H157" s="10">
+      <c r="H157" s="9">
         <v>8.1</v>
       </c>
     </row>
@@ -5300,19 +5300,19 @@
       <c r="C158">
         <v>130960</v>
       </c>
-      <c r="D158" s="5">
+      <c r="D158" s="12">
         <v>-28.315822399999998</v>
       </c>
-      <c r="E158" s="5">
+      <c r="E158" s="4">
         <v>-54.265181800000001</v>
       </c>
-      <c r="F158" s="10">
+      <c r="F158" s="9">
         <v>7</v>
       </c>
-      <c r="G158" s="10">
+      <c r="G158" s="9">
         <v>405</v>
       </c>
-      <c r="H158" s="10">
+      <c r="H158" s="9">
         <v>2.835</v>
       </c>
     </row>
@@ -5326,19 +5326,19 @@
       <c r="C159">
         <v>130961</v>
       </c>
-      <c r="D159" s="5">
+      <c r="D159" s="12">
         <v>-28.315273699999999</v>
       </c>
-      <c r="E159" s="5">
+      <c r="E159" s="4">
         <v>-54.265269799999999</v>
       </c>
-      <c r="F159" s="10">
+      <c r="F159" s="9">
         <v>11</v>
       </c>
-      <c r="G159" s="10">
+      <c r="G159" s="9">
         <v>405</v>
       </c>
-      <c r="H159" s="10">
+      <c r="H159" s="9">
         <v>4.4550000000000001</v>
       </c>
     </row>
@@ -5352,24 +5352,24 @@
       <c r="C160">
         <v>130895</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="12">
         <v>-28.286857399999999</v>
       </c>
-      <c r="E160" s="5">
+      <c r="E160" s="4">
         <v>-54.264125800000002</v>
       </c>
-      <c r="F160" s="10">
+      <c r="F160" s="9">
         <v>14</v>
       </c>
-      <c r="G160" s="10">
+      <c r="G160" s="9">
         <v>405</v>
       </c>
-      <c r="H160" s="10">
+      <c r="H160" s="9">
         <v>5.67</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="11">
+      <c r="A161" s="10">
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
@@ -5378,19 +5378,19 @@
       <c r="C161">
         <v>130280</v>
       </c>
-      <c r="D161" s="5">
+      <c r="D161" s="12">
         <v>-28.309564142919601</v>
       </c>
-      <c r="E161" s="5">
+      <c r="E161" s="4">
         <v>-54.278522602642902</v>
       </c>
-      <c r="F161" s="10">
+      <c r="F161" s="9">
         <v>8</v>
       </c>
-      <c r="G161" s="10">
+      <c r="G161" s="9">
         <v>405</v>
       </c>
-      <c r="H161" s="10">
+      <c r="H161" s="9">
         <v>3.24</v>
       </c>
     </row>
@@ -5404,19 +5404,19 @@
       <c r="C162">
         <v>130804</v>
       </c>
-      <c r="D162" s="5">
+      <c r="D162" s="12">
         <v>-29.704861999999999</v>
       </c>
-      <c r="E162" s="5">
+      <c r="E162" s="4">
         <v>-53.823552800000002</v>
       </c>
-      <c r="F162" s="10">
+      <c r="F162" s="9">
         <v>16</v>
       </c>
-      <c r="G162" s="10">
+      <c r="G162" s="9">
         <v>405</v>
       </c>
-      <c r="H162" s="10">
+      <c r="H162" s="9">
         <v>6.48</v>
       </c>
     </row>
@@ -5430,19 +5430,19 @@
       <c r="C163">
         <v>130968</v>
       </c>
-      <c r="D163" s="5">
+      <c r="D163" s="12">
         <v>-28.326902</v>
       </c>
-      <c r="E163" s="5">
+      <c r="E163" s="4">
         <v>-54.275294000000002</v>
       </c>
-      <c r="F163" s="10">
+      <c r="F163" s="9">
         <v>14</v>
       </c>
-      <c r="G163" s="10">
+      <c r="G163" s="9">
         <v>405</v>
       </c>
-      <c r="H163" s="10">
+      <c r="H163" s="9">
         <v>5.67</v>
       </c>
     </row>
@@ -5456,19 +5456,19 @@
       <c r="C164">
         <v>130982</v>
       </c>
-      <c r="D164" s="5">
+      <c r="D164" s="12">
         <v>-28.549072699572601</v>
       </c>
-      <c r="E164" s="5">
+      <c r="E164" s="4">
         <v>-54.549093102833197</v>
       </c>
-      <c r="F164" s="10">
+      <c r="F164" s="9">
         <v>14</v>
       </c>
-      <c r="G164" s="10">
+      <c r="G164" s="9">
         <v>405</v>
       </c>
-      <c r="H164" s="10">
+      <c r="H164" s="9">
         <v>5.67</v>
       </c>
     </row>
@@ -5482,19 +5482,19 @@
       <c r="C165">
         <v>130980</v>
       </c>
-      <c r="D165" s="5">
+      <c r="D165" s="12">
         <v>-28.586725569890501</v>
       </c>
-      <c r="E165" s="5">
+      <c r="E165" s="4">
         <v>-54.507480174385599</v>
       </c>
-      <c r="F165" s="10">
+      <c r="F165" s="9">
         <v>28</v>
       </c>
-      <c r="G165" s="10">
+      <c r="G165" s="9">
         <v>405</v>
       </c>
-      <c r="H165" s="10">
+      <c r="H165" s="9">
         <v>11.34</v>
       </c>
     </row>
@@ -5508,19 +5508,19 @@
       <c r="C166">
         <v>130967</v>
       </c>
-      <c r="D166" s="5">
+      <c r="D166" s="12">
         <v>-28.300813099999999</v>
       </c>
-      <c r="E166" s="5">
+      <c r="E166" s="4">
         <v>-54.249127700000003</v>
       </c>
-      <c r="F166" s="10">
+      <c r="F166" s="9">
         <v>17</v>
       </c>
-      <c r="G166" s="10">
+      <c r="G166" s="9">
         <v>405</v>
       </c>
-      <c r="H166" s="10">
+      <c r="H166" s="9">
         <v>6.8849999999999998</v>
       </c>
     </row>
@@ -5534,19 +5534,19 @@
       <c r="C167">
         <v>130816</v>
       </c>
-      <c r="D167" s="5">
+      <c r="D167" s="12">
         <v>-28.5441133136441</v>
       </c>
-      <c r="E167" s="5">
+      <c r="E167" s="4">
         <v>-54.546248160504199</v>
       </c>
-      <c r="F167" s="10">
+      <c r="F167" s="9">
         <v>6</v>
       </c>
-      <c r="G167" s="10">
+      <c r="G167" s="9">
         <v>405</v>
       </c>
-      <c r="H167" s="10">
+      <c r="H167" s="9">
         <v>2.4300000000000002</v>
       </c>
     </row>
@@ -5560,19 +5560,19 @@
       <c r="C168">
         <v>130986</v>
       </c>
-      <c r="D168" s="5">
+      <c r="D168" s="12">
         <v>-28.547231410616</v>
       </c>
-      <c r="E168" s="5">
+      <c r="E168" s="4">
         <v>-54.5504168851134</v>
       </c>
-      <c r="F168" s="10">
+      <c r="F168" s="9">
         <v>12</v>
       </c>
-      <c r="G168" s="10">
+      <c r="G168" s="9">
         <v>415</v>
       </c>
-      <c r="H168" s="10">
+      <c r="H168" s="9">
         <v>4.9800000000000004</v>
       </c>
     </row>
@@ -5586,19 +5586,19 @@
       <c r="C169">
         <v>130992</v>
       </c>
-      <c r="D169" s="5">
+      <c r="D169" s="12">
         <v>-28.346498032404298</v>
       </c>
-      <c r="E169" s="5">
+      <c r="E169" s="4">
         <v>-54.501902589151399</v>
       </c>
-      <c r="F169" s="10">
+      <c r="F169" s="9">
         <v>10</v>
       </c>
-      <c r="G169" s="10">
+      <c r="G169" s="9">
         <v>415</v>
       </c>
-      <c r="H169" s="10">
+      <c r="H169" s="9">
         <v>4.1500000000000004</v>
       </c>
     </row>
@@ -5612,19 +5612,19 @@
       <c r="C170">
         <v>131005</v>
       </c>
-      <c r="D170" s="5">
+      <c r="D170" s="12">
         <v>-28.315737630000001</v>
       </c>
-      <c r="E170" s="5">
+      <c r="E170" s="4">
         <v>-54.257278829999997</v>
       </c>
-      <c r="F170" s="10">
+      <c r="F170" s="9">
         <v>17</v>
       </c>
-      <c r="G170" s="10">
+      <c r="G170" s="9">
         <v>415</v>
       </c>
-      <c r="H170" s="10">
+      <c r="H170" s="9">
         <v>7.0549999999999997</v>
       </c>
     </row>
@@ -5638,19 +5638,19 @@
       <c r="C171">
         <v>131014</v>
       </c>
-      <c r="D171" s="5">
+      <c r="D171" s="12">
         <v>-28.396201668646199</v>
       </c>
-      <c r="E171" s="5">
+      <c r="E171" s="4">
         <v>-54.478167758783897</v>
       </c>
-      <c r="F171" s="10">
+      <c r="F171" s="9">
         <v>12</v>
       </c>
-      <c r="G171" s="10">
+      <c r="G171" s="9">
         <v>415</v>
       </c>
-      <c r="H171" s="10">
+      <c r="H171" s="9">
         <v>4.9800000000000004</v>
       </c>
     </row>
@@ -5664,19 +5664,19 @@
       <c r="C172">
         <v>131032</v>
       </c>
-      <c r="D172" s="5">
+      <c r="D172" s="12">
         <v>-28.298622631800001</v>
       </c>
-      <c r="E172" s="5">
+      <c r="E172" s="4">
         <v>-54.23846709</v>
       </c>
-      <c r="F172" s="10">
+      <c r="F172" s="9">
         <v>8</v>
       </c>
-      <c r="G172" s="10">
+      <c r="G172" s="9">
         <v>415</v>
       </c>
-      <c r="H172" s="10">
+      <c r="H172" s="9">
         <v>3.32</v>
       </c>
     </row>
@@ -5690,19 +5690,19 @@
       <c r="C173">
         <v>130948</v>
       </c>
-      <c r="D173" s="5">
+      <c r="D173" s="12">
         <v>-28.307848199999999</v>
       </c>
-      <c r="E173" s="5">
+      <c r="E173" s="4">
         <v>-54.265960200000002</v>
       </c>
-      <c r="F173" s="10">
+      <c r="F173" s="9">
         <v>17</v>
       </c>
-      <c r="G173" s="10">
+      <c r="G173" s="9">
         <v>405</v>
       </c>
-      <c r="H173" s="10">
+      <c r="H173" s="9">
         <v>6.8849999999999998</v>
       </c>
     </row>
@@ -5716,19 +5716,19 @@
       <c r="C174">
         <v>130540</v>
       </c>
-      <c r="D174" s="5">
+      <c r="D174" s="12">
         <v>-28.259614718000002</v>
       </c>
-      <c r="E174" s="5">
+      <c r="E174" s="4">
         <v>-52.431655200000002</v>
       </c>
-      <c r="F174" s="10">
+      <c r="F174" s="9">
         <v>11</v>
       </c>
-      <c r="G174" s="10">
+      <c r="G174" s="9">
         <v>415</v>
       </c>
-      <c r="H174" s="10">
+      <c r="H174" s="9">
         <v>4.5650000000000004</v>
       </c>
     </row>
@@ -5742,19 +5742,19 @@
       <c r="C175">
         <v>130921</v>
       </c>
-      <c r="D175" s="5">
+      <c r="D175" s="12">
         <v>-28.298397120000001</v>
       </c>
-      <c r="E175" s="5">
+      <c r="E175" s="4">
         <v>-54.279496999999999</v>
       </c>
-      <c r="F175" s="10">
+      <c r="F175" s="9">
         <v>10</v>
       </c>
-      <c r="G175" s="10">
+      <c r="G175" s="9">
         <v>415</v>
       </c>
-      <c r="H175" s="10">
+      <c r="H175" s="9">
         <v>4.1500000000000004</v>
       </c>
     </row>
@@ -5768,19 +5768,19 @@
       <c r="C176">
         <v>130956</v>
       </c>
-      <c r="D176" s="5">
+      <c r="D176" s="12">
         <v>-28.276130060919002</v>
       </c>
-      <c r="E176" s="5">
+      <c r="E176" s="4">
         <v>-54.259939899999999</v>
       </c>
-      <c r="F176" s="10">
+      <c r="F176" s="9">
         <v>16</v>
       </c>
-      <c r="G176" s="10">
+      <c r="G176" s="9">
         <v>415</v>
       </c>
-      <c r="H176" s="10">
+      <c r="H176" s="9">
         <v>6.64</v>
       </c>
     </row>
@@ -5794,19 +5794,19 @@
       <c r="C177">
         <v>130984</v>
       </c>
-      <c r="D177" s="5">
+      <c r="D177" s="12">
         <v>-28.302738428165899</v>
       </c>
-      <c r="E177" s="5">
+      <c r="E177" s="4">
         <v>-54.268316208999998</v>
       </c>
-      <c r="F177" s="10">
+      <c r="F177" s="9">
         <v>16</v>
       </c>
-      <c r="G177" s="10">
+      <c r="G177" s="9">
         <v>405</v>
       </c>
-      <c r="H177" s="10">
+      <c r="H177" s="9">
         <v>6.48</v>
       </c>
     </row>
@@ -5820,19 +5820,19 @@
       <c r="C178">
         <v>131010</v>
       </c>
-      <c r="D178" s="5">
+      <c r="D178" s="12">
         <v>-28.219274633720001</v>
       </c>
-      <c r="E178" s="5">
+      <c r="E178" s="4">
         <v>-54.208232299999999</v>
       </c>
-      <c r="F178" s="10">
+      <c r="F178" s="9">
         <v>30</v>
       </c>
-      <c r="G178" s="10">
+      <c r="G178" s="9">
         <v>445</v>
       </c>
-      <c r="H178" s="10">
+      <c r="H178" s="9">
         <v>13.35</v>
       </c>
     </row>
@@ -5846,19 +5846,19 @@
       <c r="C179">
         <v>131012</v>
       </c>
-      <c r="D179" s="5">
+      <c r="D179" s="12">
         <v>-28.261319911463598</v>
       </c>
-      <c r="E179" s="5">
+      <c r="E179" s="4">
         <v>-54.217166589135402</v>
       </c>
-      <c r="F179" s="10">
+      <c r="F179" s="9">
         <v>8</v>
       </c>
-      <c r="G179" s="10">
+      <c r="G179" s="9">
         <v>415</v>
       </c>
-      <c r="H179" s="10">
+      <c r="H179" s="9">
         <v>3.32</v>
       </c>
     </row>
@@ -5872,19 +5872,19 @@
       <c r="C180">
         <v>131030</v>
       </c>
-      <c r="D180" s="5">
+      <c r="D180" s="12">
         <v>-28.283336942447999</v>
       </c>
-      <c r="E180" s="5">
+      <c r="E180" s="4">
         <v>-54.260078774935899</v>
       </c>
-      <c r="F180" s="10">
+      <c r="F180" s="9">
         <v>14</v>
       </c>
-      <c r="G180" s="10">
+      <c r="G180" s="9">
         <v>415</v>
       </c>
-      <c r="H180" s="10">
+      <c r="H180" s="9">
         <v>5.81</v>
       </c>
     </row>
@@ -5898,19 +5898,19 @@
       <c r="C181">
         <v>131034</v>
       </c>
-      <c r="D181" s="5">
+      <c r="D181" s="12">
         <v>-28.314393171028399</v>
       </c>
-      <c r="E181" s="5">
+      <c r="E181" s="4">
         <v>-54.258473378295001</v>
       </c>
-      <c r="F181" s="10">
+      <c r="F181" s="9">
         <v>24</v>
       </c>
-      <c r="G181" s="10">
+      <c r="G181" s="9">
         <v>415</v>
       </c>
-      <c r="H181" s="10">
+      <c r="H181" s="9">
         <v>9.9600000000000009</v>
       </c>
     </row>
@@ -5924,19 +5924,19 @@
       <c r="C182">
         <v>131045</v>
       </c>
-      <c r="D182" s="5">
+      <c r="D182" s="12">
         <v>-28.309409865810402</v>
       </c>
-      <c r="E182" s="5">
+      <c r="E182" s="4">
         <v>-54.278233381763101</v>
       </c>
-      <c r="F182" s="10">
+      <c r="F182" s="9">
         <v>18</v>
       </c>
-      <c r="G182" s="10">
+      <c r="G182" s="9">
         <v>415</v>
       </c>
-      <c r="H182" s="10">
+      <c r="H182" s="9">
         <v>7.47</v>
       </c>
     </row>
@@ -5950,19 +5950,19 @@
       <c r="C183">
         <v>131052</v>
       </c>
-      <c r="D183" s="5">
+      <c r="D183" s="12">
         <v>-28.354958501000201</v>
       </c>
-      <c r="E183" s="5">
+      <c r="E183" s="4">
         <v>-54.502694512465297</v>
       </c>
-      <c r="F183" s="10">
+      <c r="F183" s="9">
         <v>18</v>
       </c>
-      <c r="G183" s="10">
+      <c r="G183" s="9">
         <v>415</v>
       </c>
-      <c r="H183" s="10">
+      <c r="H183" s="9">
         <v>7.47</v>
       </c>
     </row>
@@ -5976,19 +5976,19 @@
       <c r="C184">
         <v>131051</v>
       </c>
-      <c r="D184" s="5">
+      <c r="D184" s="12">
         <v>-28.355845724394602</v>
       </c>
-      <c r="E184" s="5">
+      <c r="E184" s="4">
         <v>-54.503514904935201</v>
       </c>
-      <c r="F184" s="10">
+      <c r="F184" s="9">
         <v>54</v>
       </c>
-      <c r="G184" s="10">
+      <c r="G184" s="9">
         <v>415</v>
       </c>
-      <c r="H184" s="10">
+      <c r="H184" s="9">
         <v>22.41</v>
       </c>
     </row>
@@ -6002,19 +6002,19 @@
       <c r="C185">
         <v>131059</v>
       </c>
-      <c r="D185" s="5">
+      <c r="D185" s="12">
         <v>-28.3075032214117</v>
       </c>
-      <c r="E185" s="5">
+      <c r="E185" s="4">
         <v>-54.257512760899999</v>
       </c>
-      <c r="F185" s="10">
+      <c r="F185" s="9">
         <v>28</v>
       </c>
-      <c r="G185" s="10">
+      <c r="G185" s="9">
         <v>415</v>
       </c>
-      <c r="H185" s="10">
+      <c r="H185" s="9">
         <v>11.62</v>
       </c>
     </row>
@@ -6028,19 +6028,19 @@
       <c r="C186">
         <v>131068</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="12">
         <v>-28.308102266919999</v>
       </c>
-      <c r="E186" s="5">
+      <c r="E186" s="4">
         <v>-54.271119974299999</v>
       </c>
-      <c r="F186" s="10">
+      <c r="F186" s="9">
         <v>26</v>
       </c>
-      <c r="G186" s="10">
+      <c r="G186" s="9">
         <v>415</v>
       </c>
-      <c r="H186" s="10">
+      <c r="H186" s="9">
         <v>10.79</v>
       </c>
     </row>
@@ -6054,19 +6054,19 @@
       <c r="C187">
         <v>131081</v>
       </c>
-      <c r="D187" s="5">
+      <c r="D187" s="12">
         <v>-28.307962618000001</v>
       </c>
-      <c r="E187" s="5">
+      <c r="E187" s="4">
         <v>-54.260513719999999</v>
       </c>
-      <c r="F187" s="10">
+      <c r="F187" s="9">
         <v>20</v>
       </c>
-      <c r="G187" s="10">
+      <c r="G187" s="9">
         <v>415</v>
       </c>
-      <c r="H187" s="10">
+      <c r="H187" s="9">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -6080,19 +6080,19 @@
       <c r="C188">
         <v>131124</v>
       </c>
-      <c r="D188" s="5">
+      <c r="D188" s="12">
         <v>-28.260720173883701</v>
       </c>
-      <c r="E188" s="5">
+      <c r="E188" s="4">
         <v>-52.430103140053703</v>
       </c>
-      <c r="F188" s="10">
+      <c r="F188" s="9">
         <v>8</v>
       </c>
-      <c r="G188" s="10">
+      <c r="G188" s="9">
         <v>415</v>
       </c>
-      <c r="H188" s="10">
+      <c r="H188" s="9">
         <v>3.32</v>
       </c>
     </row>
@@ -6106,19 +6106,19 @@
       <c r="C189">
         <v>130004</v>
       </c>
-      <c r="D189" s="5">
+      <c r="D189" s="12">
         <v>-28.278741715799999</v>
       </c>
-      <c r="E189" s="5">
+      <c r="E189" s="4">
         <v>-54.238003640000002</v>
       </c>
-      <c r="F189" s="10">
+      <c r="F189" s="9">
         <v>10</v>
       </c>
-      <c r="G189" s="10">
+      <c r="G189" s="9">
         <v>450</v>
       </c>
-      <c r="H189" s="10">
+      <c r="H189" s="9">
         <v>4.5</v>
       </c>
     </row>
@@ -6132,19 +6132,19 @@
       <c r="C190">
         <v>130533</v>
       </c>
-      <c r="D190" s="5">
+      <c r="D190" s="12">
         <v>-28.29847474</v>
       </c>
-      <c r="E190" s="5">
+      <c r="E190" s="4">
         <v>-54.260819245999997</v>
       </c>
-      <c r="F190" s="10">
+      <c r="F190" s="9">
         <v>86</v>
       </c>
-      <c r="G190" s="10">
+      <c r="G190" s="9">
         <v>450</v>
       </c>
-      <c r="H190" s="10">
+      <c r="H190" s="9">
         <v>38.700000000000003</v>
       </c>
     </row>
@@ -6158,19 +6158,19 @@
       <c r="C191">
         <v>130863</v>
       </c>
-      <c r="D191" s="5">
+      <c r="D191" s="12">
         <v>-28.357138830087401</v>
       </c>
-      <c r="E191" s="5">
+      <c r="E191" s="4">
         <v>-54.268598560509602</v>
       </c>
-      <c r="F191" s="10">
+      <c r="F191" s="9">
         <v>26</v>
       </c>
-      <c r="G191" s="10">
+      <c r="G191" s="9">
         <v>415</v>
       </c>
-      <c r="H191" s="10">
+      <c r="H191" s="9">
         <v>10.79</v>
       </c>
     </row>
@@ -6184,19 +6184,19 @@
       <c r="C192">
         <v>130885</v>
       </c>
-      <c r="D192" s="5">
+      <c r="D192" s="12">
         <v>-28.291195456229399</v>
       </c>
-      <c r="E192" s="5">
+      <c r="E192" s="4">
         <v>-54.239932323416298</v>
       </c>
-      <c r="F192" s="10">
+      <c r="F192" s="9">
         <v>14</v>
       </c>
-      <c r="G192" s="10">
+      <c r="G192" s="9">
         <v>450</v>
       </c>
-      <c r="H192" s="10">
+      <c r="H192" s="9">
         <v>6.3</v>
       </c>
     </row>
@@ -6210,19 +6210,19 @@
       <c r="C193">
         <v>130998</v>
       </c>
-      <c r="D193" s="5">
+      <c r="D193" s="12">
         <v>-28.317174193357602</v>
       </c>
-      <c r="E193" s="5">
+      <c r="E193" s="4">
         <v>-54.259667531675397</v>
       </c>
-      <c r="F193" s="10">
+      <c r="F193" s="9">
         <v>14</v>
       </c>
-      <c r="G193" s="10">
+      <c r="G193" s="9">
         <v>415</v>
       </c>
-      <c r="H193" s="10">
+      <c r="H193" s="9">
         <v>5.81</v>
       </c>
     </row>
@@ -6236,19 +6236,19 @@
       <c r="C194">
         <v>131083</v>
       </c>
-      <c r="D194" s="5">
+      <c r="D194" s="12">
         <v>-28.298391842871101</v>
       </c>
-      <c r="E194" s="5">
+      <c r="E194" s="4">
         <v>-54.243693718148897</v>
       </c>
-      <c r="F194" s="10">
+      <c r="F194" s="9">
         <v>10</v>
       </c>
-      <c r="G194" s="10">
+      <c r="G194" s="9">
         <v>415</v>
       </c>
-      <c r="H194" s="10">
+      <c r="H194" s="9">
         <v>4.1500000000000004</v>
       </c>
     </row>
@@ -6262,19 +6262,19 @@
       <c r="C195">
         <v>131115</v>
       </c>
-      <c r="D195" s="5">
+      <c r="D195" s="12">
         <v>-28.302881334995401</v>
       </c>
-      <c r="E195" s="5">
+      <c r="E195" s="4">
         <v>-54.277671568686699</v>
       </c>
-      <c r="F195" s="10">
+      <c r="F195" s="9">
         <v>21</v>
       </c>
-      <c r="G195" s="10">
+      <c r="G195" s="9">
         <v>450</v>
       </c>
-      <c r="H195" s="10">
+      <c r="H195" s="9">
         <v>9.4499999999999993</v>
       </c>
     </row>
@@ -6288,19 +6288,19 @@
       <c r="C196">
         <v>131157</v>
       </c>
-      <c r="D196" s="5">
+      <c r="D196" s="12">
         <v>-28.1331444348851</v>
       </c>
-      <c r="E196" s="5">
+      <c r="E196" s="4">
         <v>-54.357324660516298</v>
       </c>
-      <c r="F196" s="10">
+      <c r="F196" s="9">
         <v>20</v>
       </c>
-      <c r="G196" s="10">
+      <c r="G196" s="9">
         <v>450</v>
       </c>
-      <c r="H196" s="10">
+      <c r="H196" s="9">
         <v>9</v>
       </c>
     </row>
@@ -6314,19 +6314,19 @@
       <c r="C197">
         <v>131157</v>
       </c>
-      <c r="D197" s="5">
+      <c r="D197" s="12">
         <v>-28.3290412036487</v>
       </c>
-      <c r="E197" s="5">
+      <c r="E197" s="4">
         <v>-54.499439309373201</v>
       </c>
-      <c r="F197" s="10">
+      <c r="F197" s="9">
         <v>16</v>
       </c>
-      <c r="G197" s="10">
+      <c r="G197" s="9">
         <v>450</v>
       </c>
-      <c r="H197" s="10">
+      <c r="H197" s="9">
         <v>7.2</v>
       </c>
     </row>
@@ -6340,19 +6340,19 @@
       <c r="C198">
         <v>131170</v>
       </c>
-      <c r="D198" s="5">
+      <c r="D198" s="12">
         <v>-28.328882372323601</v>
       </c>
-      <c r="E198" s="5">
+      <c r="E198" s="4">
         <v>-54.2798596028397</v>
       </c>
-      <c r="F198" s="10">
+      <c r="F198" s="9">
         <v>10</v>
       </c>
-      <c r="G198" s="10">
+      <c r="G198" s="9">
         <v>450</v>
       </c>
-      <c r="H198" s="10">
+      <c r="H198" s="9">
         <v>4.5</v>
       </c>
     </row>
@@ -6366,19 +6366,19 @@
       <c r="C199">
         <v>131177</v>
       </c>
-      <c r="D199" s="5">
+      <c r="D199" s="12">
         <v>-28.219274633723799</v>
       </c>
-      <c r="E199" s="5">
+      <c r="E199" s="4">
         <v>-54.208232321902699</v>
       </c>
-      <c r="F199" s="10">
+      <c r="F199" s="9">
         <v>30</v>
       </c>
-      <c r="G199" s="10">
+      <c r="G199" s="9">
         <v>445</v>
       </c>
-      <c r="H199" s="10">
+      <c r="H199" s="9">
         <v>13.35</v>
       </c>
     </row>
@@ -6392,19 +6392,19 @@
       <c r="C200">
         <v>131182</v>
       </c>
-      <c r="D200" s="5">
+      <c r="D200" s="12">
         <v>-28.281018814435701</v>
       </c>
-      <c r="E200" s="5">
+      <c r="E200" s="4">
         <v>-54.270733960899399</v>
       </c>
-      <c r="F200" s="10">
+      <c r="F200" s="9">
         <v>16</v>
       </c>
-      <c r="G200" s="10">
+      <c r="G200" s="9">
         <v>450</v>
       </c>
-      <c r="H200" s="10">
+      <c r="H200" s="9">
         <v>7.2</v>
       </c>
     </row>
@@ -6418,19 +6418,19 @@
       <c r="C201">
         <v>131183</v>
       </c>
-      <c r="D201" s="5">
+      <c r="D201" s="12">
         <v>-28.3480411850081</v>
       </c>
-      <c r="E201" s="5">
+      <c r="E201" s="4">
         <v>-54.500246901099501</v>
       </c>
-      <c r="F201" s="10">
+      <c r="F201" s="9">
         <v>10</v>
       </c>
-      <c r="G201" s="10">
+      <c r="G201" s="9">
         <v>450</v>
       </c>
-      <c r="H201" s="10">
+      <c r="H201" s="9">
         <v>4.5</v>
       </c>
     </row>
@@ -6444,19 +6444,19 @@
       <c r="C202">
         <v>131198</v>
       </c>
-      <c r="D202" s="5">
+      <c r="D202" s="12">
         <v>-28.298182580637398</v>
       </c>
-      <c r="E202" s="5">
+      <c r="E202" s="4">
         <v>-54.243677046830797</v>
       </c>
-      <c r="F202" s="10">
+      <c r="F202" s="9">
         <v>86</v>
       </c>
-      <c r="G202" s="10">
+      <c r="G202" s="9">
         <v>450</v>
       </c>
-      <c r="H202" s="10">
+      <c r="H202" s="9">
         <v>38.700000000000003</v>
       </c>
     </row>
@@ -6470,19 +6470,19 @@
       <c r="C203">
         <v>131188</v>
       </c>
-      <c r="D203" s="5">
+      <c r="D203" s="12">
         <v>-28.3036576974166</v>
       </c>
-      <c r="E203" s="5">
+      <c r="E203" s="4">
         <v>-54.273855521290102</v>
       </c>
-      <c r="F203" s="10">
+      <c r="F203" s="9">
         <v>10</v>
       </c>
-      <c r="G203" s="10">
+      <c r="G203" s="9">
         <v>450</v>
       </c>
-      <c r="H203" s="10">
+      <c r="H203" s="9">
         <v>4.5</v>
       </c>
     </row>
@@ -6496,19 +6496,19 @@
       <c r="C204">
         <v>131158</v>
       </c>
-      <c r="D204" s="8">
+      <c r="D204" s="12">
         <v>-28.304173174988101</v>
       </c>
-      <c r="E204" s="8">
+      <c r="E204" s="7">
         <v>-54.269415588877699</v>
       </c>
-      <c r="F204" s="10">
+      <c r="F204" s="9">
         <v>8</v>
       </c>
-      <c r="G204" s="10">
+      <c r="G204" s="9">
         <v>450</v>
       </c>
-      <c r="H204" s="10">
+      <c r="H204" s="9">
         <v>3.6</v>
       </c>
     </row>
@@ -6522,19 +6522,19 @@
       <c r="C205">
         <v>131082</v>
       </c>
-      <c r="D205" s="8">
+      <c r="D205" s="12">
         <v>-28.304173174988101</v>
       </c>
-      <c r="E205" s="8">
+      <c r="E205" s="7">
         <v>-54.269415588877699</v>
       </c>
-      <c r="F205" s="10">
+      <c r="F205" s="9">
         <v>10</v>
       </c>
-      <c r="G205" s="10">
+      <c r="G205" s="9">
         <v>450</v>
       </c>
-      <c r="H205" s="10">
+      <c r="H205" s="9">
         <v>4.5</v>
       </c>
     </row>
@@ -6548,19 +6548,19 @@
       <c r="C206">
         <v>131194</v>
       </c>
-      <c r="D206" s="9">
+      <c r="D206" s="12">
         <v>-28.305960505379499</v>
       </c>
-      <c r="E206" s="9">
+      <c r="E206" s="8">
         <v>-54.2517506054999</v>
       </c>
-      <c r="F206" s="10">
+      <c r="F206" s="9">
         <v>8</v>
       </c>
-      <c r="G206" s="10">
+      <c r="G206" s="9">
         <v>450</v>
       </c>
-      <c r="H206" s="10">
+      <c r="H206" s="9">
         <v>3.6</v>
       </c>
     </row>
@@ -6574,36 +6574,36 @@
       <c r="C207">
         <v>131202</v>
       </c>
-      <c r="D207" s="8">
+      <c r="D207" s="12">
         <v>-28.304173174988101</v>
       </c>
-      <c r="E207" s="8">
+      <c r="E207" s="7">
         <v>-54.269415588877699</v>
       </c>
-      <c r="F207" s="10">
+      <c r="F207" s="9">
         <v>16</v>
       </c>
-      <c r="G207" s="10">
+      <c r="G207" s="9">
         <v>450</v>
       </c>
-      <c r="H207" s="10">
+      <c r="H207" s="9">
         <v>7.2</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="11">
+      <c r="A208" s="10">
         <v>207</v>
       </c>
-      <c r="B208" s="12" t="s">
+      <c r="B208" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C208" s="11">
+      <c r="C208" s="10">
         <v>131240</v>
       </c>
-      <c r="D208" s="13">
+      <c r="D208" s="12">
         <v>-28.302599557386401</v>
       </c>
-      <c r="E208" s="11">
+      <c r="E208" s="10">
         <v>-54.242064045169798</v>
       </c>
       <c r="F208" s="1">
@@ -6618,55 +6618,55 @@
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="11">
+      <c r="A209" s="10">
         <v>208</v>
       </c>
-      <c r="B209" s="12" t="s">
+      <c r="B209" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C209" s="11">
+      <c r="C209" s="10">
         <v>131219</v>
       </c>
-      <c r="D209" s="11">
+      <c r="D209" s="12">
         <v>-28.303149427370101</v>
       </c>
-      <c r="E209" s="11">
+      <c r="E209" s="10">
         <v>-54.267852131675902</v>
       </c>
-      <c r="F209" s="11">
+      <c r="F209" s="10">
         <v>10</v>
       </c>
-      <c r="G209" s="11">
+      <c r="G209" s="10">
         <v>450</v>
       </c>
-      <c r="H209" s="11">
+      <c r="H209" s="10">
         <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
         <v>4.5</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="11">
+      <c r="A210" s="10">
         <v>209</v>
       </c>
-      <c r="B210" s="12" t="s">
+      <c r="B210" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C210" s="11">
+      <c r="C210" s="10">
         <v>131241</v>
       </c>
-      <c r="D210" s="11">
+      <c r="D210" s="12">
         <v>-28.547111319813101</v>
       </c>
-      <c r="E210" s="11">
+      <c r="E210" s="10">
         <v>-54.550414560504002</v>
       </c>
-      <c r="F210" s="11">
+      <c r="F210" s="10">
         <v>6</v>
       </c>
-      <c r="G210" s="11">
+      <c r="G210" s="10">
         <v>450</v>
       </c>
-      <c r="H210" s="11">
+      <c r="H210" s="10">
         <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
         <v>2.7</v>
       </c>

--- a/localização clientes.xlsx
+++ b/localização clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Empresa\google\Sinc_Empresa\Projetos\Python\energens-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8620B67-2673-4450-ACA7-6EE6B8C1041A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8181E8F1-6E95-478F-A2EB-3541B5214BCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="212">
   <si>
     <t>id</t>
   </si>
@@ -549,16 +549,7 @@
     <t>Adão Lago Pinto</t>
   </si>
   <si>
-    <t xml:space="preserve">Cintia Ribas </t>
-  </si>
-  <si>
-    <t>Nair Biolosor Kuntz</t>
-  </si>
-  <si>
     <t>Volmar Coimbra Correa</t>
-  </si>
-  <si>
-    <t>Paulo Renato Squinzani Cargnelutti</t>
   </si>
   <si>
     <t>projeto</t>
@@ -708,18 +699,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -761,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -770,19 +755,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -815,6 +798,7 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -876,20 +860,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FD6B3B7-5DCF-4893-B21A-B1CB3118375F}" name="Tabela1" displayName="Tabela1" ref="A1:H210" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H210" xr:uid="{3E3CFA4C-A6AD-46F0-AAC7-262EE49187F1}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E207">
-    <sortCondition ref="A1:A207"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FD6B3B7-5DCF-4893-B21A-B1CB3118375F}" name="Tabela1" displayName="Tabela1" ref="A1:H207" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H207" xr:uid="{3E3CFA4C-A6AD-46F0-AAC7-262EE49187F1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E204">
+    <sortCondition ref="A1:A204"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{CCD2CADB-2565-441A-828D-00D74F0809F5}" name="id" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{FDE2D2B7-AD22-44C2-98C0-49A465D33E06}" name="cliente" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{A8F6EEDB-3F3A-45D5-B3E5-A53D8AAFD9F6}" name="projeto" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00854ECD-E95D-4C56-80F2-1B5ED74A4A12}" name="latitude" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{4D4E3FC9-742D-4889-972D-F534F996F771}" name="longitude" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{711A01AB-1EC4-4EF7-A329-1E714FC37145}" name="modules_number" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{95873DDC-B96F-4C54-8832-29E8FBB97A84}" name="modules_power" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{81D1B476-7E82-467F-A395-0A35CFE04C4A}" name="power_total" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00854ECD-E95D-4C56-80F2-1B5ED74A4A12}" name="latitude" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{4D4E3FC9-742D-4889-972D-F534F996F771}" name="longitude" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{711A01AB-1EC4-4EF7-A329-1E714FC37145}" name="modules_number" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{95873DDC-B96F-4C54-8832-29E8FBB97A84}" name="modules_power" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{81D1B476-7E82-467F-A395-0A35CFE04C4A}" name="power_total" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1192,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E4D8A3-B036-45B9-BFB1-CE1FD37008B3}">
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="D209" sqref="D209"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="E206" sqref="E206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,7 +1187,7 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="50.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1216,22 +1200,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>179</v>
+      <c r="F1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1250,13 +1234,13 @@
       <c r="E2" s="4">
         <v>-54.273384951630803</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>14</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>325</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>4.55</v>
       </c>
     </row>
@@ -1270,19 +1254,19 @@
       <c r="C3">
         <v>130003</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>-28.336820986118699</v>
       </c>
       <c r="E3" s="4">
         <v>-54.276491087498101</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>11</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>270</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>2.97</v>
       </c>
     </row>
@@ -1296,19 +1280,19 @@
       <c r="C4">
         <v>130007</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>-28.529050982775999</v>
       </c>
       <c r="E4" s="4">
         <v>-54.147971325912799</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>7</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>270</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>1.89</v>
       </c>
     </row>
@@ -1322,19 +1306,19 @@
       <c r="C5">
         <v>130018</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>-28.3192814184161</v>
       </c>
       <c r="E5" s="4">
         <v>-54.263504060510698</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>10</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>330</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>3.3</v>
       </c>
     </row>
@@ -1348,19 +1332,19 @@
       <c r="C6">
         <v>130035</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>-28.2992490583466</v>
       </c>
       <c r="E6" s="4">
         <v>-54.259248118182001</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>24</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>270</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>6.48</v>
       </c>
     </row>
@@ -1369,24 +1353,24 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C7">
         <v>130051</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>-28.3608042500836</v>
       </c>
       <c r="E7" s="4">
         <v>-54.2680229893448</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>11</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>270</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>2.97</v>
       </c>
     </row>
@@ -1400,19 +1384,19 @@
       <c r="C8">
         <v>130113</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>-28.295666163904801</v>
       </c>
       <c r="E8" s="4">
         <v>-54.268957374005304</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>48</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>330</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>15.84</v>
       </c>
     </row>
@@ -1426,19 +1410,19 @@
       <c r="C9">
         <v>130081</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>-28.306183000000001</v>
       </c>
       <c r="E9" s="4">
         <v>-54.270496999999999</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>10</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>330</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>3.3</v>
       </c>
     </row>
@@ -1452,19 +1436,19 @@
       <c r="C10">
         <v>130107</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>-28.279805</v>
       </c>
       <c r="E10" s="4">
         <v>-54.258198999999998</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>186</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>330</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>61.38</v>
       </c>
     </row>
@@ -1478,19 +1462,19 @@
       <c r="C11">
         <v>130161</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>-28.306849</v>
       </c>
       <c r="E11" s="4">
         <v>-54.260733999999999</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>18</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>330</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>5.94</v>
       </c>
     </row>
@@ -1504,19 +1488,19 @@
       <c r="C12">
         <v>130197</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>-28.315923999999999</v>
       </c>
       <c r="E12" s="4">
         <v>-54.258282000000001</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>19</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>330</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>6.27</v>
       </c>
     </row>
@@ -1530,19 +1514,19 @@
       <c r="C13">
         <v>130202</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>-28.303355</v>
       </c>
       <c r="E13" s="4">
         <v>-54.272979999999997</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>14</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>330</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>4.62</v>
       </c>
     </row>
@@ -1556,19 +1540,19 @@
       <c r="C14">
         <v>130091</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>-28.306459</v>
       </c>
       <c r="E14" s="4">
         <v>-54.281835999999998</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>80</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>330</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>26.4</v>
       </c>
     </row>
@@ -1582,19 +1566,19 @@
       <c r="C15">
         <v>130240</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>-28.307183999999999</v>
       </c>
       <c r="E15" s="4">
         <v>-54.259720000000002</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>38</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>330</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>12.54</v>
       </c>
     </row>
@@ -1608,19 +1592,19 @@
       <c r="C16">
         <v>130071</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>-28.295683</v>
       </c>
       <c r="E16" s="4">
         <v>-54.272626000000002</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>12</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>330</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>3.96</v>
       </c>
     </row>
@@ -1634,19 +1618,19 @@
       <c r="C17">
         <v>130236</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>-28.305296999999999</v>
       </c>
       <c r="E17" s="4">
         <v>-54.272308000000002</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>180</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>360</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>64.8</v>
       </c>
     </row>
@@ -1655,24 +1639,24 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C18">
         <v>130255</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>-28.029245</v>
       </c>
       <c r="E18" s="4">
         <v>-54.348612000000003</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>18</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>330</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>5.94</v>
       </c>
     </row>
@@ -1681,24 +1665,24 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C19">
         <v>130034</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>-28.278668</v>
       </c>
       <c r="E19" s="4">
         <v>-54.252977000000001</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>80</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>330</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>26.4</v>
       </c>
     </row>
@@ -1712,19 +1696,19 @@
       <c r="C20">
         <v>130273</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>-28.289147</v>
       </c>
       <c r="E20" s="4">
         <v>-54.265177999999999</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>20</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>337.5</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>6.75</v>
       </c>
     </row>
@@ -1738,19 +1722,19 @@
       <c r="C21">
         <v>130228</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>-28.279387</v>
       </c>
       <c r="E21" s="4">
         <v>-54.274675000000002</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>10</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>360</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>3.6</v>
       </c>
     </row>
@@ -1764,19 +1748,19 @@
       <c r="C22">
         <v>130290</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>-28.309701</v>
       </c>
       <c r="E22" s="4">
         <v>-54.266337999999998</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>30</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>330</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>9.9</v>
       </c>
     </row>
@@ -1790,19 +1774,19 @@
       <c r="C23">
         <v>130293</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>-28.320695000000001</v>
       </c>
       <c r="E23" s="4">
         <v>-54.262501999999998</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>18</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>330</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>5.94</v>
       </c>
     </row>
@@ -1816,19 +1800,19 @@
       <c r="C24">
         <v>130104</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <v>-28.358421</v>
       </c>
       <c r="E24" s="4">
         <v>-54.267876999999999</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>28</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>330</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>9.24</v>
       </c>
     </row>
@@ -1842,19 +1826,19 @@
       <c r="C25">
         <v>130237</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <v>-28.305385999999999</v>
       </c>
       <c r="E25" s="4">
         <v>-54.272500999999998</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>80</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>330</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <v>26.4</v>
       </c>
     </row>
@@ -1868,19 +1852,19 @@
       <c r="C26">
         <v>130187</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <v>-28.740019</v>
       </c>
       <c r="E26" s="4">
         <v>-53.064269000000003</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>28</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <v>330</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <v>9.24</v>
       </c>
     </row>
@@ -1894,19 +1878,19 @@
       <c r="C27">
         <v>130182</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <v>-29.074762</v>
       </c>
       <c r="E27" s="4">
         <v>-53.701976000000002</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>50</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>360</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="8">
         <v>18</v>
       </c>
     </row>
@@ -1915,24 +1899,24 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C28">
         <v>130212</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <v>-28.287054999999999</v>
       </c>
       <c r="E28" s="4">
         <v>-54.264141000000002</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>108</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <v>360</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="8">
         <v>38.880000000000003</v>
       </c>
     </row>
@@ -1946,19 +1930,19 @@
       <c r="C29">
         <v>130168</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <v>-28.298401999999999</v>
       </c>
       <c r="E29" s="4">
         <v>-54.274748000000002</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <v>60</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <v>330</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="8">
         <v>19.8</v>
       </c>
     </row>
@@ -1972,19 +1956,19 @@
       <c r="C30">
         <v>130306</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="11">
         <v>-28.292142999999999</v>
       </c>
       <c r="E30" s="4">
         <v>-54.266762999999997</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>152</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>335</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <v>50.92</v>
       </c>
     </row>
@@ -1998,19 +1982,19 @@
       <c r="C31">
         <v>130299</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="11">
         <v>-28.301083999999999</v>
       </c>
       <c r="E31" s="4">
         <v>-54.249099999999999</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <v>10</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="8">
         <v>335</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="8">
         <v>3.35</v>
       </c>
     </row>
@@ -2024,19 +2008,19 @@
       <c r="C32">
         <v>130416</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="11">
         <v>-28.298182000000001</v>
       </c>
       <c r="E32" s="4">
         <v>-54.265701</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <v>34</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <v>335</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="8">
         <v>11.39</v>
       </c>
     </row>
@@ -2050,19 +2034,19 @@
       <c r="C33">
         <v>130332</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="11">
         <v>-28.290714999999999</v>
       </c>
       <c r="E33" s="4">
         <v>-54.262726999999998</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <v>20</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="8">
         <v>335</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="8">
         <v>6.7</v>
       </c>
     </row>
@@ -2076,19 +2060,19 @@
       <c r="C34">
         <v>130365</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="11">
         <v>-28.315774999999999</v>
       </c>
       <c r="E34" s="4">
         <v>-54.284744000000003</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <v>28</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <v>335</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="8">
         <v>9.3800000000000008</v>
       </c>
     </row>
@@ -2102,19 +2086,19 @@
       <c r="C35">
         <v>130408</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="11">
         <v>-28.283529000000001</v>
       </c>
       <c r="E35" s="4">
         <v>-54.271402999999999</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="8">
         <v>34</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="8">
         <v>335</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="8">
         <v>11.39</v>
       </c>
     </row>
@@ -2123,24 +2107,24 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C36">
         <v>130413</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="11">
         <v>-28.319004</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="12">
         <v>-54.257396999999997</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <v>12</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <v>335</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="8">
         <v>4.0199999999999996</v>
       </c>
     </row>
@@ -2154,19 +2138,19 @@
       <c r="C37">
         <v>130381</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="11">
         <v>-27.781752999999998</v>
       </c>
       <c r="E37" s="4">
         <v>-54.230375000000002</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="8">
         <v>12</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="8">
         <v>335</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="8">
         <v>4.0199999999999996</v>
       </c>
     </row>
@@ -2180,19 +2164,19 @@
       <c r="C38">
         <v>130178</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="11">
         <v>-28.3000781670241</v>
       </c>
       <c r="E38" s="4">
         <v>-54.266130502840603</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="8">
         <v>148</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="8">
         <v>365</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="8">
         <v>54.02</v>
       </c>
     </row>
@@ -2206,19 +2190,19 @@
       <c r="C39">
         <v>130440</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="11">
         <v>-28.296129000000001</v>
       </c>
       <c r="E39" s="4">
         <v>-54.245705000000001</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="8">
         <v>20</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="8">
         <v>340</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="8">
         <v>6.8</v>
       </c>
     </row>
@@ -2232,19 +2216,19 @@
       <c r="C40">
         <v>130461</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="11">
         <v>-28.303325000000001</v>
       </c>
       <c r="E40" s="4">
         <v>-54.263739000000001</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <v>30</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="8">
         <v>340</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="8">
         <v>10.199999999999999</v>
       </c>
     </row>
@@ -2258,19 +2242,19 @@
       <c r="C41">
         <v>130476</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="11">
         <v>-28.296489999999999</v>
       </c>
       <c r="E41" s="4">
         <v>-54.268686000000002</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="8">
         <v>18</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="8">
         <v>340</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="8">
         <v>6.12</v>
       </c>
     </row>
@@ -2284,19 +2268,19 @@
       <c r="C42">
         <v>130225</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="11">
         <v>-28.294001999999999</v>
       </c>
       <c r="E42" s="4">
         <v>-54.274478999999999</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="8">
         <v>12</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="8">
         <v>335</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="8">
         <v>4.0199999999999996</v>
       </c>
     </row>
@@ -2305,24 +2289,24 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C43">
         <v>130093</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="11">
         <v>-28.269273999999999</v>
       </c>
       <c r="E43" s="4">
         <v>-54.255923000000003</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="8">
         <v>200</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="8">
         <v>330</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="8">
         <v>66</v>
       </c>
     </row>
@@ -2336,19 +2320,19 @@
       <c r="C44">
         <v>130451</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="11">
         <v>-28.026720999999998</v>
       </c>
       <c r="E44" s="4">
         <v>-54.357852999999999</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="8">
         <v>18</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="8">
         <v>340</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="8">
         <v>6.12</v>
       </c>
     </row>
@@ -2362,19 +2346,19 @@
       <c r="C45">
         <v>130023</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="11">
         <v>-28.309272716835199</v>
       </c>
       <c r="E45" s="4">
         <v>-54.250475022730697</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="8">
         <v>76</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="8">
         <v>365</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="8">
         <v>27.74</v>
       </c>
     </row>
@@ -2388,19 +2372,19 @@
       <c r="C46">
         <v>130519</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="11">
         <v>-28.307072000000002</v>
       </c>
       <c r="E46" s="4">
         <v>-54.276201</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="8">
         <v>36</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="8">
         <v>340</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="8">
         <v>12.24</v>
       </c>
     </row>
@@ -2414,19 +2398,19 @@
       <c r="C47">
         <v>130521</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="11">
         <v>-28.279561999999999</v>
       </c>
       <c r="E47" s="4">
         <v>-54.259942000000002</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="8">
         <v>14</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="8">
         <v>340</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="8">
         <v>4.76</v>
       </c>
     </row>
@@ -2440,19 +2424,19 @@
       <c r="C48">
         <v>130525</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="11">
         <v>-28.310057</v>
       </c>
       <c r="E48" s="4">
         <v>-54.274099</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="8">
         <v>14</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="8">
         <v>375</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="8">
         <v>5.25</v>
       </c>
     </row>
@@ -2466,19 +2450,19 @@
       <c r="C49">
         <v>130536</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="11">
         <v>-28.3108433848418</v>
       </c>
       <c r="E49" s="4">
         <v>-54.263374491885301</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="8">
         <v>150</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="8">
         <v>375</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="8">
         <v>56.25</v>
       </c>
     </row>
@@ -2492,19 +2476,19 @@
       <c r="C50">
         <v>130438</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="11">
         <v>-28.289348</v>
       </c>
       <c r="E50" s="4">
         <v>-54.259650999999998</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="8">
         <v>130</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="8">
         <v>340</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="8">
         <v>44.2</v>
       </c>
     </row>
@@ -2518,19 +2502,19 @@
       <c r="C51">
         <v>130055</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="11">
         <v>-28.346572393011801</v>
       </c>
       <c r="E51" s="4">
         <v>-54.5022093265694</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="8">
         <v>12</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="8">
         <v>330</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="8">
         <v>3.96</v>
       </c>
     </row>
@@ -2544,19 +2528,19 @@
       <c r="C52">
         <v>130400</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="11">
         <v>-28.360026999999999</v>
       </c>
       <c r="E52" s="4">
         <v>-54.267175999999999</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="8">
         <v>24</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="8">
         <v>340</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="8">
         <v>8.16</v>
       </c>
     </row>
@@ -2565,24 +2549,24 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C53">
         <v>130412</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="11">
         <v>-28.308658737359298</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="11">
         <v>-54.250679752380897</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="8">
         <v>20</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="8">
         <v>375</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="8">
         <v>7.5</v>
       </c>
     </row>
@@ -2596,19 +2580,19 @@
       <c r="C54">
         <v>130532</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="11">
         <v>-28.433140000000002</v>
       </c>
       <c r="E54" s="4">
         <v>-54.221615999999997</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="8">
         <v>11</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="8">
         <v>375</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="8">
         <v>4.125</v>
       </c>
     </row>
@@ -2622,19 +2606,19 @@
       <c r="C55">
         <v>130542</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <v>-28.298869</v>
       </c>
       <c r="E55" s="4">
         <v>-54.273496999999999</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="8">
         <v>12</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="8">
         <v>375</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="8">
         <v>4.5</v>
       </c>
     </row>
@@ -2648,19 +2632,19 @@
       <c r="C56">
         <v>130555</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="11">
         <v>-28.313378</v>
       </c>
       <c r="E56" s="4">
         <v>-54.260921000000003</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="8">
         <v>14</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="8">
         <v>370</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="8">
         <v>5.18</v>
       </c>
     </row>
@@ -2674,19 +2658,19 @@
       <c r="C57">
         <v>130285</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="11">
         <v>-28.307313000000001</v>
       </c>
       <c r="E57" s="4">
         <v>-54.274248999999998</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="8">
         <v>16</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="8">
         <v>370</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="8">
         <v>5.92</v>
       </c>
     </row>
@@ -2700,19 +2684,19 @@
       <c r="C58">
         <v>130558</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="11">
         <v>-28.286535000000001</v>
       </c>
       <c r="E58" s="4">
         <v>-54.238835999999999</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="8">
         <v>26</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="8">
         <v>370</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="8">
         <v>9.6199999999999992</v>
       </c>
     </row>
@@ -2726,19 +2710,19 @@
       <c r="C59">
         <v>130538</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="11">
         <v>-28.029785</v>
       </c>
       <c r="E59" s="4">
         <v>-54.356262999999998</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="8">
         <v>30</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="8">
         <v>370</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="8">
         <v>11.1</v>
       </c>
     </row>
@@ -2752,19 +2736,19 @@
       <c r="C60">
         <v>130565</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="11">
         <v>-28.298959</v>
       </c>
       <c r="E60" s="4">
         <v>-54.251455</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="8">
         <v>12</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="8">
         <v>370</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="8">
         <v>4.4400000000000004</v>
       </c>
     </row>
@@ -2778,19 +2762,19 @@
       <c r="C61">
         <v>130172</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="11">
         <v>-28.357057000000001</v>
       </c>
       <c r="E61" s="4">
         <v>-54.269570000000002</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="8">
         <v>14</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="8">
         <v>340</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="8">
         <v>4.76</v>
       </c>
     </row>
@@ -2804,19 +2788,19 @@
       <c r="C62">
         <v>130308</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="11">
         <v>-28.316576999999999</v>
       </c>
       <c r="E62" s="4">
         <v>-54.259118999999998</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="8">
         <v>14</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="8">
         <v>370</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="8">
         <v>5.18</v>
       </c>
     </row>
@@ -2830,19 +2814,19 @@
       <c r="C63">
         <v>130630</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="11">
         <v>-28.308298131557201</v>
       </c>
       <c r="E63" s="4">
         <v>-54.250931690960797</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="8">
         <v>8</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="8">
         <v>370</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="8">
         <v>2.96</v>
       </c>
     </row>
@@ -2856,19 +2840,19 @@
       <c r="C64">
         <v>130591</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="11">
         <v>-28.368932000000001</v>
       </c>
       <c r="E64" s="4">
         <v>-54.267324000000002</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="8">
         <v>240</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="8">
         <v>340</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="8">
         <v>81.599999999999994</v>
       </c>
     </row>
@@ -2882,19 +2866,19 @@
       <c r="C65">
         <v>130462</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="11">
         <v>-28.369098000000001</v>
       </c>
       <c r="E65" s="5">
         <v>-54.267302999999998</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="8">
         <v>288</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G65" s="8">
         <v>340</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="8">
         <v>97.92</v>
       </c>
     </row>
@@ -2908,19 +2892,19 @@
       <c r="C66">
         <v>130596</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="11">
         <v>-28.316875</v>
       </c>
       <c r="E66" s="4">
         <v>-54.270797000000002</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="8">
         <v>20</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="8">
         <v>340</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="8">
         <v>6.8</v>
       </c>
     </row>
@@ -2934,19 +2918,19 @@
       <c r="C67">
         <v>130090</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="11">
         <v>-28.286805837969201</v>
       </c>
       <c r="E67" s="4">
         <v>-54.265236868478297</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="8">
         <v>98</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="8">
         <v>390</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="8">
         <v>38.22</v>
       </c>
     </row>
@@ -2960,19 +2944,19 @@
       <c r="C68">
         <v>130613</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D68" s="11">
         <v>-28.282567</v>
       </c>
       <c r="E68" s="4">
         <v>-54.253343999999998</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="8">
         <v>12</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="8">
         <v>340</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H68" s="8">
         <v>4.08</v>
       </c>
     </row>
@@ -2986,19 +2970,19 @@
       <c r="C69">
         <v>130562</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="11">
         <v>-28.308955000000001</v>
       </c>
       <c r="E69" s="4">
         <v>-54.258890999999998</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F69" s="8">
         <v>36</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G69" s="8">
         <v>390</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H69" s="8">
         <v>14.04</v>
       </c>
     </row>
@@ -3012,19 +2996,19 @@
       <c r="C70">
         <v>130630</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D70" s="11">
         <v>-28.303789999999999</v>
       </c>
       <c r="E70" s="4">
         <v>-54.270814999999999</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F70" s="8">
         <v>14</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G70" s="8">
         <v>340</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H70" s="8">
         <v>4.76</v>
       </c>
     </row>
@@ -3038,19 +3022,19 @@
       <c r="C71">
         <v>130581</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D71" s="11">
         <v>-29.94426</v>
       </c>
       <c r="E71" s="4">
         <v>-51.167195999999997</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F71" s="8">
         <v>32</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G71" s="8">
         <v>390</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H71" s="8">
         <v>12.48</v>
       </c>
     </row>
@@ -3064,19 +3048,19 @@
       <c r="C72">
         <v>130629</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D72" s="11">
         <v>-28.290735999999999</v>
       </c>
       <c r="E72" s="4">
         <v>-54.277341999999997</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="8">
         <v>16</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="8">
         <v>340</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="8">
         <v>5.44</v>
       </c>
     </row>
@@ -3090,19 +3074,19 @@
       <c r="C73">
         <v>130627</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="11">
         <v>-28.320262</v>
       </c>
       <c r="E73" s="4">
         <v>-54.268453000000001</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="8">
         <v>14</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G73" s="8">
         <v>340</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73" s="8">
         <v>4.76</v>
       </c>
     </row>
@@ -3116,19 +3100,19 @@
       <c r="C74">
         <v>130633</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D74" s="11">
         <v>-28.318494999999999</v>
       </c>
       <c r="E74" s="4">
         <v>-54.268120000000003</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F74" s="8">
         <v>9</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="8">
         <v>340</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H74" s="8">
         <v>3.06</v>
       </c>
     </row>
@@ -3142,19 +3126,19 @@
       <c r="C75">
         <v>130499</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D75" s="11">
         <v>-28.278700000000001</v>
       </c>
       <c r="E75" s="4">
         <v>-54.274098000000002</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="8">
         <v>22</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G75" s="8">
         <v>345</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H75" s="8">
         <v>7.59</v>
       </c>
     </row>
@@ -3163,24 +3147,24 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C76">
         <v>130361</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="11">
         <v>-28.309878000000001</v>
       </c>
       <c r="E76" s="4">
         <v>-54.251457000000002</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F76" s="8">
         <v>16</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="8">
         <v>340</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H76" s="8">
         <v>5.44</v>
       </c>
     </row>
@@ -3189,24 +3173,24 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C77">
         <v>130354</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="11">
         <v>-28.309179</v>
       </c>
       <c r="E77" s="4">
         <v>-54.251524000000003</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F77" s="8">
         <v>18</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="8">
         <v>340</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H77" s="8">
         <v>6.12</v>
       </c>
     </row>
@@ -3215,24 +3199,24 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C78">
         <v>130640</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D78" s="11">
         <v>-28.260301999999999</v>
       </c>
       <c r="E78" s="4">
         <v>-54.296765999999998</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F78" s="8">
         <v>20</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G78" s="8">
         <v>340</v>
       </c>
-      <c r="H78" s="9">
+      <c r="H78" s="8">
         <v>6.8</v>
       </c>
     </row>
@@ -3246,19 +3230,19 @@
       <c r="C79">
         <v>130497</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="11">
         <v>-28.384084797685201</v>
       </c>
       <c r="E79" s="4">
         <v>-53.940485008778303</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F79" s="8">
         <v>30</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G79" s="8">
         <v>400</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H79" s="8">
         <v>12</v>
       </c>
     </row>
@@ -3272,19 +3256,19 @@
       <c r="C80">
         <v>130498</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="11">
         <v>-28.308067000000001</v>
       </c>
       <c r="E80" s="4">
         <v>-54.248925</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F80" s="8">
         <v>12</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G80" s="8">
         <v>345</v>
       </c>
-      <c r="H80" s="9">
+      <c r="H80" s="8">
         <v>4.1399999999999997</v>
       </c>
     </row>
@@ -3298,19 +3282,19 @@
       <c r="C81">
         <v>130074</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D81" s="11">
         <v>-28.390128841181401</v>
       </c>
       <c r="E81" s="4">
         <v>-53.908592326569298</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F81" s="8">
         <v>10</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G81" s="8">
         <v>400</v>
       </c>
-      <c r="H81" s="9">
+      <c r="H81" s="8">
         <v>4</v>
       </c>
     </row>
@@ -3324,19 +3308,19 @@
       <c r="C82">
         <v>130653</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D82" s="11">
         <v>-28.329149999999998</v>
       </c>
       <c r="E82" s="4">
         <v>-54.279991000000003</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F82" s="8">
         <v>12</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G82" s="8">
         <v>345</v>
       </c>
-      <c r="H82" s="9">
+      <c r="H82" s="8">
         <v>4.1399999999999997</v>
       </c>
     </row>
@@ -3350,19 +3334,19 @@
       <c r="C83">
         <v>130642</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D83" s="11">
         <v>-28.282170000000001</v>
       </c>
       <c r="E83" s="4">
         <v>-54.273010999999997</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F83" s="8">
         <v>16</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G83" s="8">
         <v>345</v>
       </c>
-      <c r="H83" s="9">
+      <c r="H83" s="8">
         <v>5.52</v>
       </c>
     </row>
@@ -3376,19 +3360,19 @@
       <c r="C84">
         <v>130628</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D84" s="11">
         <v>-28.027308999999999</v>
       </c>
       <c r="E84" s="4">
         <v>-54.360798000000003</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F84" s="8">
         <v>12</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G84" s="8">
         <v>345</v>
       </c>
-      <c r="H84" s="9">
+      <c r="H84" s="8">
         <v>4.1399999999999997</v>
       </c>
     </row>
@@ -3402,19 +3386,19 @@
       <c r="C85">
         <v>130656</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D85" s="11">
         <v>-28.302097</v>
       </c>
       <c r="E85" s="4">
         <v>-54.271813000000002</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F85" s="8">
         <v>12</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G85" s="8">
         <v>345</v>
       </c>
-      <c r="H85" s="9">
+      <c r="H85" s="8">
         <v>4.1399999999999997</v>
       </c>
     </row>
@@ -3428,19 +3412,19 @@
       <c r="C86">
         <v>130674</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D86" s="11">
         <v>-28.356957999999999</v>
       </c>
       <c r="E86" s="4">
         <v>-54.267198999999998</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F86" s="8">
         <v>14</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G86" s="8">
         <v>345</v>
       </c>
-      <c r="H86" s="9">
+      <c r="H86" s="8">
         <v>4.83</v>
       </c>
     </row>
@@ -3449,24 +3433,24 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C87">
         <v>130665</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D87" s="11">
         <v>-28.320692999999999</v>
       </c>
       <c r="E87" s="4">
         <v>-54.263520999999997</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F87" s="8">
         <v>16</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G87" s="8">
         <v>400</v>
       </c>
-      <c r="H87" s="9">
+      <c r="H87" s="8">
         <v>6.4</v>
       </c>
     </row>
@@ -3475,24 +3459,24 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C88">
         <v>130666</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D88" s="11">
         <v>-28.303875999999999</v>
       </c>
       <c r="E88" s="4">
         <v>-54.264209000000001</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F88" s="8">
         <v>18</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G88" s="8">
         <v>400</v>
       </c>
-      <c r="H88" s="9">
+      <c r="H88" s="8">
         <v>7.2</v>
       </c>
     </row>
@@ -3506,19 +3490,19 @@
       <c r="C89">
         <v>130668</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D89" s="11">
         <v>-28.306341</v>
       </c>
       <c r="E89" s="4">
         <v>-54.248770999999998</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F89" s="8">
         <v>16</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G89" s="8">
         <v>345</v>
       </c>
-      <c r="H89" s="9">
+      <c r="H89" s="8">
         <v>5.52</v>
       </c>
     </row>
@@ -3532,19 +3516,19 @@
       <c r="C90">
         <v>130271</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D90" s="11">
         <v>-28.302143999999998</v>
       </c>
       <c r="E90" s="4">
         <v>-54.266972000000003</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F90" s="8">
         <v>12</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G90" s="8">
         <v>350</v>
       </c>
-      <c r="H90" s="9">
+      <c r="H90" s="8">
         <v>4.2</v>
       </c>
     </row>
@@ -3558,19 +3542,19 @@
       <c r="C91">
         <v>130715</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="11">
         <v>-28.286914599999999</v>
       </c>
       <c r="E91" s="4">
         <v>-54.236417299999999</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F91" s="8">
         <v>20</v>
       </c>
-      <c r="G91" s="9">
+      <c r="G91" s="8">
         <v>350</v>
       </c>
-      <c r="H91" s="9">
+      <c r="H91" s="8">
         <v>7</v>
       </c>
     </row>
@@ -3584,19 +3568,19 @@
       <c r="C92">
         <v>130713</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D92" s="11">
         <v>-28.315664999999999</v>
       </c>
       <c r="E92" s="4">
         <v>-54.258096999999999</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F92" s="8">
         <v>18</v>
       </c>
-      <c r="G92" s="9">
+      <c r="G92" s="8">
         <v>350</v>
       </c>
-      <c r="H92" s="9">
+      <c r="H92" s="8">
         <v>6.3</v>
       </c>
     </row>
@@ -3610,19 +3594,19 @@
       <c r="C93">
         <v>130710</v>
       </c>
-      <c r="D93" s="12">
+      <c r="D93" s="11">
         <v>-28.287313999999999</v>
       </c>
       <c r="E93" s="4">
         <v>-54.264854</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F93" s="8">
         <v>12</v>
       </c>
-      <c r="G93" s="9">
+      <c r="G93" s="8">
         <v>405</v>
       </c>
-      <c r="H93" s="9">
+      <c r="H93" s="8">
         <v>4.8600000000000003</v>
       </c>
     </row>
@@ -3636,19 +3620,19 @@
       <c r="C94">
         <v>130677</v>
       </c>
-      <c r="D94" s="12">
+      <c r="D94" s="11">
         <v>-28.300946</v>
       </c>
       <c r="E94" s="4">
         <v>-54.265129999999999</v>
       </c>
-      <c r="F94" s="9">
+      <c r="F94" s="8">
         <v>84</v>
       </c>
-      <c r="G94" s="9">
+      <c r="G94" s="8">
         <v>400</v>
       </c>
-      <c r="H94" s="9">
+      <c r="H94" s="8">
         <v>33.6</v>
       </c>
     </row>
@@ -3662,19 +3646,19 @@
       <c r="C95">
         <v>130657</v>
       </c>
-      <c r="D95" s="12">
+      <c r="D95" s="11">
         <v>-28.286325999999999</v>
       </c>
       <c r="E95" s="4">
         <v>-54.269433999999997</v>
       </c>
-      <c r="F95" s="9">
+      <c r="F95" s="8">
         <v>24</v>
       </c>
-      <c r="G95" s="9">
+      <c r="G95" s="8">
         <v>350</v>
       </c>
-      <c r="H95" s="9">
+      <c r="H95" s="8">
         <v>8.4</v>
       </c>
     </row>
@@ -3688,19 +3672,19 @@
       <c r="C96">
         <v>130714</v>
       </c>
-      <c r="D96" s="12">
+      <c r="D96" s="11">
         <v>-28.316683999999999</v>
       </c>
       <c r="E96" s="4">
         <v>-54.261862000000001</v>
       </c>
-      <c r="F96" s="9">
+      <c r="F96" s="8">
         <v>20</v>
       </c>
-      <c r="G96" s="9">
+      <c r="G96" s="8">
         <v>350</v>
       </c>
-      <c r="H96" s="9">
+      <c r="H96" s="8">
         <v>7</v>
       </c>
     </row>
@@ -3714,19 +3698,19 @@
       <c r="C97">
         <v>130439</v>
       </c>
-      <c r="D97" s="12">
+      <c r="D97" s="11">
         <v>-28.305638898327899</v>
       </c>
       <c r="E97" s="4">
         <v>-54.265296894791398</v>
       </c>
-      <c r="F97" s="9">
+      <c r="F97" s="8">
         <v>14</v>
       </c>
-      <c r="G97" s="9">
+      <c r="G97" s="8">
         <v>350</v>
       </c>
-      <c r="H97" s="9">
+      <c r="H97" s="8">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -3740,19 +3724,19 @@
       <c r="C98">
         <v>130079</v>
       </c>
-      <c r="D98" s="12">
+      <c r="D98" s="11">
         <v>-28.293597999999999</v>
       </c>
       <c r="E98" s="4">
         <v>-54.266038999999999</v>
       </c>
-      <c r="F98" s="9">
+      <c r="F98" s="8">
         <v>16</v>
       </c>
-      <c r="G98" s="9">
+      <c r="G98" s="8">
         <v>405</v>
       </c>
-      <c r="H98" s="9">
+      <c r="H98" s="8">
         <v>6.48</v>
       </c>
     </row>
@@ -3766,19 +3750,19 @@
       <c r="C99">
         <v>130729</v>
       </c>
-      <c r="D99" s="12">
+      <c r="D99" s="11">
         <v>-28.299693999999999</v>
       </c>
       <c r="E99" s="4">
         <v>-54.268788999999998</v>
       </c>
-      <c r="F99" s="9">
+      <c r="F99" s="8">
         <v>8</v>
       </c>
-      <c r="G99" s="9">
+      <c r="G99" s="8">
         <v>345</v>
       </c>
-      <c r="H99" s="9">
+      <c r="H99" s="8">
         <v>2.76</v>
       </c>
     </row>
@@ -3792,19 +3776,19 @@
       <c r="C100">
         <v>130763</v>
       </c>
-      <c r="D100" s="12">
+      <c r="D100" s="11">
         <v>-28.299802</v>
       </c>
       <c r="E100" s="4">
         <v>-54.249544999999998</v>
       </c>
-      <c r="F100" s="9">
+      <c r="F100" s="8">
         <v>110</v>
       </c>
-      <c r="G100" s="9">
+      <c r="G100" s="8">
         <v>405</v>
       </c>
-      <c r="H100" s="9">
+      <c r="H100" s="8">
         <v>44.55</v>
       </c>
     </row>
@@ -3818,19 +3802,19 @@
       <c r="C101">
         <v>130760</v>
       </c>
-      <c r="D101" s="12">
+      <c r="D101" s="11">
         <v>-28.282174999999999</v>
       </c>
       <c r="E101" s="4">
         <v>-54.265797999999997</v>
       </c>
-      <c r="F101" s="9">
+      <c r="F101" s="8">
         <v>8</v>
       </c>
-      <c r="G101" s="9">
+      <c r="G101" s="8">
         <v>345</v>
       </c>
-      <c r="H101" s="9">
+      <c r="H101" s="8">
         <v>2.76</v>
       </c>
     </row>
@@ -3844,19 +3828,19 @@
       <c r="C102">
         <v>130754</v>
       </c>
-      <c r="D102" s="12">
+      <c r="D102" s="11">
         <v>-28.282157999999999</v>
       </c>
       <c r="E102" s="4">
         <v>-54.265754999999999</v>
       </c>
-      <c r="F102" s="9">
+      <c r="F102" s="8">
         <v>8</v>
       </c>
-      <c r="G102" s="9">
+      <c r="G102" s="8">
         <v>345</v>
       </c>
-      <c r="H102" s="9">
+      <c r="H102" s="8">
         <v>2.76</v>
       </c>
     </row>
@@ -3870,19 +3854,19 @@
       <c r="C103">
         <v>130244</v>
       </c>
-      <c r="D103" s="12">
+      <c r="D103" s="11">
         <v>-28.304455000000001</v>
       </c>
       <c r="E103" s="4">
         <v>-54.243279999999999</v>
       </c>
-      <c r="F103" s="9">
+      <c r="F103" s="8">
         <v>10</v>
       </c>
-      <c r="G103" s="9">
+      <c r="G103" s="8">
         <v>345</v>
       </c>
-      <c r="H103" s="9">
+      <c r="H103" s="8">
         <v>3.45</v>
       </c>
     </row>
@@ -3896,19 +3880,19 @@
       <c r="C104">
         <v>130778</v>
       </c>
-      <c r="D104" s="12">
+      <c r="D104" s="11">
         <v>-28.309709000000002</v>
       </c>
       <c r="E104" s="4">
         <v>-54.277214000000001</v>
       </c>
-      <c r="F104" s="9">
+      <c r="F104" s="8">
         <v>28</v>
       </c>
-      <c r="G104" s="9">
+      <c r="G104" s="8">
         <v>345</v>
       </c>
-      <c r="H104" s="9">
+      <c r="H104" s="8">
         <v>9.66</v>
       </c>
     </row>
@@ -3922,19 +3906,19 @@
       <c r="C105">
         <v>130483</v>
       </c>
-      <c r="D105" s="12">
+      <c r="D105" s="11">
         <v>-28.319882</v>
       </c>
       <c r="E105" s="4">
         <v>-54.263043000000003</v>
       </c>
-      <c r="F105" s="9">
+      <c r="F105" s="8">
         <v>10</v>
       </c>
-      <c r="G105" s="9">
+      <c r="G105" s="8">
         <v>405</v>
       </c>
-      <c r="H105" s="9">
+      <c r="H105" s="8">
         <v>4.05</v>
       </c>
     </row>
@@ -3948,19 +3932,19 @@
       <c r="C106">
         <v>130644</v>
       </c>
-      <c r="D106" s="12">
+      <c r="D106" s="11">
         <v>-28.302934</v>
       </c>
       <c r="E106" s="4">
         <v>-54.264229</v>
       </c>
-      <c r="F106" s="9">
+      <c r="F106" s="8">
         <v>12</v>
       </c>
-      <c r="G106" s="9">
+      <c r="G106" s="8">
         <v>345</v>
       </c>
-      <c r="H106" s="9">
+      <c r="H106" s="8">
         <v>4.1399999999999997</v>
       </c>
     </row>
@@ -3974,19 +3958,19 @@
       <c r="C107">
         <v>130643</v>
       </c>
-      <c r="D107" s="12">
+      <c r="D107" s="11">
         <v>-28.30294</v>
       </c>
       <c r="E107" s="4">
         <v>-54.264201999999997</v>
       </c>
-      <c r="F107" s="9">
+      <c r="F107" s="8">
         <v>12</v>
       </c>
-      <c r="G107" s="9">
+      <c r="G107" s="8">
         <v>345</v>
       </c>
-      <c r="H107" s="9">
+      <c r="H107" s="8">
         <v>4.1399999999999997</v>
       </c>
     </row>
@@ -4000,19 +3984,19 @@
       <c r="C108">
         <v>130785</v>
       </c>
-      <c r="D108" s="12">
+      <c r="D108" s="11">
         <v>-28.296904999999999</v>
       </c>
       <c r="E108" s="4">
         <v>-54.262683000000003</v>
       </c>
-      <c r="F108" s="9">
+      <c r="F108" s="8">
         <v>12</v>
       </c>
-      <c r="G108" s="9">
+      <c r="G108" s="8">
         <v>405</v>
       </c>
-      <c r="H108" s="9">
+      <c r="H108" s="8">
         <v>4.8600000000000003</v>
       </c>
     </row>
@@ -4026,19 +4010,19 @@
       <c r="C109">
         <v>130790</v>
       </c>
-      <c r="D109" s="12">
+      <c r="D109" s="11">
         <v>-28.728273999999999</v>
       </c>
       <c r="E109" s="4">
         <v>-54.56644</v>
       </c>
-      <c r="F109" s="9">
+      <c r="F109" s="8">
         <v>12</v>
       </c>
-      <c r="G109" s="9">
+      <c r="G109" s="8">
         <v>345</v>
       </c>
-      <c r="H109" s="9">
+      <c r="H109" s="8">
         <v>4.1399999999999997</v>
       </c>
     </row>
@@ -4052,19 +4036,19 @@
       <c r="C110">
         <v>130792</v>
       </c>
-      <c r="D110" s="12">
+      <c r="D110" s="11">
         <v>-28.280425000000001</v>
       </c>
       <c r="E110" s="4">
         <v>-54.265562000000003</v>
       </c>
-      <c r="F110" s="9">
+      <c r="F110" s="8">
         <v>12</v>
       </c>
-      <c r="G110" s="9">
+      <c r="G110" s="8">
         <v>405</v>
       </c>
-      <c r="H110" s="9">
+      <c r="H110" s="8">
         <v>4.8600000000000003</v>
       </c>
     </row>
@@ -4078,19 +4062,19 @@
       <c r="C111">
         <v>130459</v>
       </c>
-      <c r="D111" s="12">
+      <c r="D111" s="11">
         <v>-28.316228196014499</v>
       </c>
       <c r="E111" s="4">
         <v>-54.259096984671203</v>
       </c>
-      <c r="F111" s="9">
+      <c r="F111" s="8">
         <v>8</v>
       </c>
-      <c r="G111" s="9">
+      <c r="G111" s="8">
         <v>405</v>
       </c>
-      <c r="H111" s="9">
+      <c r="H111" s="8">
         <v>3.24</v>
       </c>
     </row>
@@ -4104,19 +4088,19 @@
       <c r="C112">
         <v>130791</v>
       </c>
-      <c r="D112" s="12">
+      <c r="D112" s="11">
         <v>-28.377413600000001</v>
       </c>
       <c r="E112" s="4">
         <v>-54.255563299999999</v>
       </c>
-      <c r="F112" s="9">
+      <c r="F112" s="8">
         <v>50</v>
       </c>
-      <c r="G112" s="9">
+      <c r="G112" s="8">
         <v>405</v>
       </c>
-      <c r="H112" s="9">
+      <c r="H112" s="8">
         <v>20.25</v>
       </c>
     </row>
@@ -4130,19 +4114,19 @@
       <c r="C113">
         <v>130807</v>
       </c>
-      <c r="D113" s="12">
+      <c r="D113" s="11">
         <v>-28.3653333</v>
       </c>
       <c r="E113" s="4">
         <v>-54.2766108</v>
       </c>
-      <c r="F113" s="9">
+      <c r="F113" s="8">
         <v>16</v>
       </c>
-      <c r="G113" s="9">
+      <c r="G113" s="8">
         <v>405</v>
       </c>
-      <c r="H113" s="9">
+      <c r="H113" s="8">
         <v>6.48</v>
       </c>
     </row>
@@ -4156,19 +4140,19 @@
       <c r="C114">
         <v>130799</v>
       </c>
-      <c r="D114" s="12">
+      <c r="D114" s="11">
         <v>-28.280978000000001</v>
       </c>
       <c r="E114" s="4">
         <v>-54.264176200000001</v>
       </c>
-      <c r="F114" s="9">
+      <c r="F114" s="8">
         <v>16</v>
       </c>
-      <c r="G114" s="9">
+      <c r="G114" s="8">
         <v>345</v>
       </c>
-      <c r="H114" s="9">
+      <c r="H114" s="8">
         <v>5.52</v>
       </c>
     </row>
@@ -4177,24 +4161,24 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C115">
         <v>130812</v>
       </c>
-      <c r="D115" s="12">
+      <c r="D115" s="11">
         <v>-28.6547862</v>
       </c>
       <c r="E115" s="4">
         <v>-55.251213999999997</v>
       </c>
-      <c r="F115" s="9">
+      <c r="F115" s="8">
         <v>28</v>
       </c>
-      <c r="G115" s="9">
+      <c r="G115" s="8">
         <v>405</v>
       </c>
-      <c r="H115" s="9">
+      <c r="H115" s="8">
         <v>11.34</v>
       </c>
     </row>
@@ -4208,19 +4192,19 @@
       <c r="C116">
         <v>130229</v>
       </c>
-      <c r="D116" s="12">
+      <c r="D116" s="11">
         <v>-28.306172799999999</v>
       </c>
       <c r="E116" s="4">
         <v>-54.277309199999998</v>
       </c>
-      <c r="F116" s="9">
+      <c r="F116" s="8">
         <v>42</v>
       </c>
-      <c r="G116" s="9">
+      <c r="G116" s="8">
         <v>345</v>
       </c>
-      <c r="H116" s="9">
+      <c r="H116" s="8">
         <v>14.49</v>
       </c>
     </row>
@@ -4234,19 +4218,19 @@
       <c r="C117">
         <v>130822</v>
       </c>
-      <c r="D117" s="12">
+      <c r="D117" s="11">
         <v>-28.3034219</v>
       </c>
       <c r="E117" s="4">
         <v>-54.265631200000001</v>
       </c>
-      <c r="F117" s="9">
+      <c r="F117" s="8">
         <v>48</v>
       </c>
-      <c r="G117" s="9">
+      <c r="G117" s="8">
         <v>405</v>
       </c>
-      <c r="H117" s="9">
+      <c r="H117" s="8">
         <v>19.440000000000001</v>
       </c>
     </row>
@@ -4260,19 +4244,19 @@
       <c r="C118">
         <v>130817</v>
       </c>
-      <c r="D118" s="12">
+      <c r="D118" s="11">
         <v>-28.3073275</v>
       </c>
       <c r="E118" s="4">
         <v>-54.265521999999997</v>
       </c>
-      <c r="F118" s="9">
+      <c r="F118" s="8">
         <v>24</v>
       </c>
-      <c r="G118" s="9">
+      <c r="G118" s="8">
         <v>405</v>
       </c>
-      <c r="H118" s="9">
+      <c r="H118" s="8">
         <v>9.7200000000000006</v>
       </c>
     </row>
@@ -4286,19 +4270,19 @@
       <c r="C119">
         <v>130171</v>
       </c>
-      <c r="D119" s="12">
+      <c r="D119" s="11">
         <v>-28.3034219</v>
       </c>
       <c r="E119" s="4">
         <v>-54.265631200000001</v>
       </c>
-      <c r="F119" s="9">
+      <c r="F119" s="8">
         <v>26</v>
       </c>
-      <c r="G119" s="9">
+      <c r="G119" s="8">
         <v>405</v>
       </c>
-      <c r="H119" s="9">
+      <c r="H119" s="8">
         <v>10.53</v>
       </c>
     </row>
@@ -4312,19 +4296,19 @@
       <c r="C120">
         <v>130808</v>
       </c>
-      <c r="D120" s="12">
+      <c r="D120" s="11">
         <v>-28.301877000000001</v>
       </c>
       <c r="E120" s="4">
         <v>-54.246411000000002</v>
       </c>
-      <c r="F120" s="9">
+      <c r="F120" s="8">
         <v>24</v>
       </c>
-      <c r="G120" s="9">
+      <c r="G120" s="8">
         <v>405</v>
       </c>
-      <c r="H120" s="9">
+      <c r="H120" s="8">
         <v>9.7200000000000006</v>
       </c>
     </row>
@@ -4338,19 +4322,19 @@
       <c r="C121">
         <v>130819</v>
       </c>
-      <c r="D121" s="12">
+      <c r="D121" s="11">
         <v>-28.3045620221592</v>
       </c>
       <c r="E121" s="4">
         <v>-54.264109224696902</v>
       </c>
-      <c r="F121" s="9">
+      <c r="F121" s="8">
         <v>24</v>
       </c>
-      <c r="G121" s="9">
+      <c r="G121" s="8">
         <v>405</v>
       </c>
-      <c r="H121" s="9">
+      <c r="H121" s="8">
         <v>9.7200000000000006</v>
       </c>
     </row>
@@ -4364,19 +4348,19 @@
       <c r="C122">
         <v>130831</v>
       </c>
-      <c r="D122" s="12">
+      <c r="D122" s="11">
         <v>-28.302249478252602</v>
       </c>
       <c r="E122" s="4">
         <v>-54.268636309595003</v>
       </c>
-      <c r="F122" s="9">
+      <c r="F122" s="8">
         <v>12</v>
       </c>
-      <c r="G122" s="9">
+      <c r="G122" s="8">
         <v>405</v>
       </c>
-      <c r="H122" s="9">
+      <c r="H122" s="8">
         <v>4.8600000000000003</v>
       </c>
     </row>
@@ -4385,24 +4369,24 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C123">
         <v>130418</v>
       </c>
-      <c r="D123" s="12">
+      <c r="D123" s="11">
         <v>-28.256105899693701</v>
       </c>
       <c r="E123" s="4">
         <v>-54.021334364576099</v>
       </c>
-      <c r="F123" s="9">
+      <c r="F123" s="8">
         <v>12</v>
       </c>
-      <c r="G123" s="9">
+      <c r="G123" s="8">
         <v>405</v>
       </c>
-      <c r="H123" s="9">
+      <c r="H123" s="8">
         <v>4.8600000000000003</v>
       </c>
     </row>
@@ -4416,19 +4400,19 @@
       <c r="C124">
         <v>130834</v>
       </c>
-      <c r="D124" s="12">
+      <c r="D124" s="11">
         <v>-28.314367407080599</v>
       </c>
       <c r="E124" s="4">
         <v>-54.260783520063697</v>
       </c>
-      <c r="F124" s="9">
+      <c r="F124" s="8">
         <v>16</v>
       </c>
-      <c r="G124" s="9">
+      <c r="G124" s="8">
         <v>405</v>
       </c>
-      <c r="H124" s="9">
+      <c r="H124" s="8">
         <v>6.48</v>
       </c>
     </row>
@@ -4442,19 +4426,19 @@
       <c r="C125">
         <v>130857</v>
       </c>
-      <c r="D125" s="12">
+      <c r="D125" s="11">
         <v>-28.260799800000001</v>
       </c>
       <c r="E125" s="4">
         <v>-54.296879199999999</v>
       </c>
-      <c r="F125" s="9">
+      <c r="F125" s="8">
         <v>10</v>
       </c>
-      <c r="G125" s="9">
+      <c r="G125" s="8">
         <v>405</v>
       </c>
-      <c r="H125" s="9">
+      <c r="H125" s="8">
         <v>4.05</v>
       </c>
     </row>
@@ -4468,19 +4452,19 @@
       <c r="C126">
         <v>130738</v>
       </c>
-      <c r="D126" s="12">
+      <c r="D126" s="11">
         <v>-28.543714399999999</v>
       </c>
       <c r="E126" s="4">
         <v>-54.550433400000003</v>
       </c>
-      <c r="F126" s="9">
+      <c r="F126" s="8">
         <v>48</v>
       </c>
-      <c r="G126" s="9">
+      <c r="G126" s="8">
         <v>400</v>
       </c>
-      <c r="H126" s="9">
+      <c r="H126" s="8">
         <v>19.2</v>
       </c>
     </row>
@@ -4494,19 +4478,19 @@
       <c r="C127">
         <v>130851</v>
       </c>
-      <c r="D127" s="12">
+      <c r="D127" s="11">
         <v>-28.543321079354801</v>
       </c>
       <c r="E127" s="4">
         <v>-54.550296804911603</v>
       </c>
-      <c r="F127" s="9">
+      <c r="F127" s="8">
         <v>30</v>
       </c>
-      <c r="G127" s="9">
+      <c r="G127" s="8">
         <v>400</v>
       </c>
-      <c r="H127" s="9">
+      <c r="H127" s="8">
         <v>12</v>
       </c>
     </row>
@@ -4520,19 +4504,19 @@
       <c r="C128">
         <v>130864</v>
       </c>
-      <c r="D128" s="12">
+      <c r="D128" s="11">
         <v>-28.543246858941501</v>
       </c>
       <c r="E128" s="4">
         <v>-54.550245842942999</v>
       </c>
-      <c r="F128" s="9">
+      <c r="F128" s="8">
         <v>30</v>
       </c>
-      <c r="G128" s="9">
+      <c r="G128" s="8">
         <v>400</v>
       </c>
-      <c r="H128" s="9">
+      <c r="H128" s="8">
         <v>12</v>
       </c>
     </row>
@@ -4546,19 +4530,19 @@
       <c r="C129">
         <v>130867</v>
       </c>
-      <c r="D129" s="12">
+      <c r="D129" s="11">
         <v>-28.134748750519801</v>
       </c>
       <c r="E129" s="4">
         <v>-55.0302255282486</v>
       </c>
-      <c r="F129" s="9">
+      <c r="F129" s="8">
         <v>22</v>
       </c>
-      <c r="G129" s="9">
+      <c r="G129" s="8">
         <v>405</v>
       </c>
-      <c r="H129" s="9">
+      <c r="H129" s="8">
         <v>8.91</v>
       </c>
     </row>
@@ -4572,19 +4556,19 @@
       <c r="C130">
         <v>130683</v>
       </c>
-      <c r="D130" s="12">
+      <c r="D130" s="11">
         <v>-28.542816299999998</v>
       </c>
       <c r="E130" s="4">
         <v>-54.5534848</v>
       </c>
-      <c r="F130" s="9">
+      <c r="F130" s="8">
         <v>16</v>
       </c>
-      <c r="G130" s="9">
+      <c r="G130" s="8">
         <v>405</v>
       </c>
-      <c r="H130" s="9">
+      <c r="H130" s="8">
         <v>6.48</v>
       </c>
     </row>
@@ -4598,19 +4582,19 @@
       <c r="C131">
         <v>130855</v>
       </c>
-      <c r="D131" s="12">
+      <c r="D131" s="11">
         <v>-28.314335400000001</v>
       </c>
       <c r="E131" s="4">
         <v>-54.242130199999998</v>
       </c>
-      <c r="F131" s="9">
+      <c r="F131" s="8">
         <v>7</v>
       </c>
-      <c r="G131" s="9">
+      <c r="G131" s="8">
         <v>405</v>
       </c>
-      <c r="H131" s="9">
+      <c r="H131" s="8">
         <v>2.835</v>
       </c>
     </row>
@@ -4624,19 +4608,19 @@
       <c r="C132">
         <v>130869</v>
       </c>
-      <c r="D132" s="12">
+      <c r="D132" s="11">
         <v>-28.554155999999999</v>
       </c>
       <c r="E132" s="4">
         <v>-54.557296600000001</v>
       </c>
-      <c r="F132" s="9">
+      <c r="F132" s="8">
         <v>10</v>
       </c>
-      <c r="G132" s="9">
+      <c r="G132" s="8">
         <v>345</v>
       </c>
-      <c r="H132" s="9">
+      <c r="H132" s="8">
         <v>3.45</v>
       </c>
     </row>
@@ -4650,19 +4634,19 @@
       <c r="C133">
         <v>130875</v>
       </c>
-      <c r="D133" s="12">
+      <c r="D133" s="11">
         <v>-28.2804902735976</v>
       </c>
       <c r="E133" s="4">
         <v>-54.258725446597502</v>
       </c>
-      <c r="F133" s="9">
+      <c r="F133" s="8">
         <v>30</v>
       </c>
-      <c r="G133" s="9">
+      <c r="G133" s="8">
         <v>405</v>
       </c>
-      <c r="H133" s="9">
+      <c r="H133" s="8">
         <v>12.15</v>
       </c>
     </row>
@@ -4676,19 +4660,19 @@
       <c r="C134">
         <v>130833</v>
       </c>
-      <c r="D134" s="12">
+      <c r="D134" s="11">
         <v>-28.2803328</v>
       </c>
       <c r="E134" s="4">
         <v>-54.275769199999999</v>
       </c>
-      <c r="F134" s="9">
+      <c r="F134" s="8">
         <v>14</v>
       </c>
-      <c r="G134" s="9">
+      <c r="G134" s="8">
         <v>405</v>
       </c>
-      <c r="H134" s="9">
+      <c r="H134" s="8">
         <v>5.67</v>
       </c>
     </row>
@@ -4702,19 +4686,19 @@
       <c r="C135">
         <v>130886</v>
       </c>
-      <c r="D135" s="12">
+      <c r="D135" s="11">
         <v>-28.259977599999999</v>
       </c>
       <c r="E135" s="4">
         <v>-54.429679499999999</v>
       </c>
-      <c r="F135" s="9">
+      <c r="F135" s="8">
         <v>24</v>
       </c>
-      <c r="G135" s="9">
+      <c r="G135" s="8">
         <v>405</v>
       </c>
-      <c r="H135" s="9">
+      <c r="H135" s="8">
         <v>9.7200000000000006</v>
       </c>
     </row>
@@ -4728,19 +4712,19 @@
       <c r="C136">
         <v>130890</v>
       </c>
-      <c r="D136" s="12">
+      <c r="D136" s="11">
         <v>-28.3022338</v>
       </c>
       <c r="E136" s="4">
         <v>-54.268834200000001</v>
       </c>
-      <c r="F136" s="9">
+      <c r="F136" s="8">
         <v>8</v>
       </c>
-      <c r="G136" s="9">
+      <c r="G136" s="8">
         <v>405</v>
       </c>
-      <c r="H136" s="9">
+      <c r="H136" s="8">
         <v>3.24</v>
       </c>
     </row>
@@ -4754,19 +4738,19 @@
       <c r="C137">
         <v>130861</v>
       </c>
-      <c r="D137" s="12">
+      <c r="D137" s="11">
         <v>-28.310874900000002</v>
       </c>
       <c r="E137" s="4">
         <v>-54.282385599999998</v>
       </c>
-      <c r="F137" s="9">
+      <c r="F137" s="8">
         <v>22</v>
       </c>
-      <c r="G137" s="9">
+      <c r="G137" s="8">
         <v>405</v>
       </c>
-      <c r="H137" s="9">
+      <c r="H137" s="8">
         <v>8.91</v>
       </c>
     </row>
@@ -4780,19 +4764,19 @@
       <c r="C138">
         <v>130911</v>
       </c>
-      <c r="D138" s="12">
+      <c r="D138" s="11">
         <v>-28.367180099999999</v>
       </c>
       <c r="E138" s="4">
         <v>-54.274974399999998</v>
       </c>
-      <c r="F138" s="9">
+      <c r="F138" s="8">
         <v>12</v>
       </c>
-      <c r="G138" s="9">
+      <c r="G138" s="8">
         <v>350</v>
       </c>
-      <c r="H138" s="9">
+      <c r="H138" s="8">
         <v>4.2</v>
       </c>
     </row>
@@ -4806,19 +4790,19 @@
       <c r="C139">
         <v>130898</v>
       </c>
-      <c r="D139" s="12">
+      <c r="D139" s="11">
         <v>-28.2980388</v>
       </c>
       <c r="E139" s="4">
         <v>-54.244047199999997</v>
       </c>
-      <c r="F139" s="9">
+      <c r="F139" s="8">
         <v>12</v>
       </c>
-      <c r="G139" s="9">
+      <c r="G139" s="8">
         <v>350</v>
       </c>
-      <c r="H139" s="9">
+      <c r="H139" s="8">
         <v>4.2</v>
       </c>
     </row>
@@ -4832,19 +4816,19 @@
       <c r="C140">
         <v>130908</v>
       </c>
-      <c r="D140" s="12">
+      <c r="D140" s="11">
         <v>-28.2937631</v>
       </c>
       <c r="E140" s="4">
         <v>-54.2565156</v>
       </c>
-      <c r="F140" s="9">
+      <c r="F140" s="8">
         <v>11</v>
       </c>
-      <c r="G140" s="9">
+      <c r="G140" s="8">
         <v>350</v>
       </c>
-      <c r="H140" s="9">
+      <c r="H140" s="8">
         <v>3.85</v>
       </c>
     </row>
@@ -4853,24 +4837,24 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C141">
         <v>130904</v>
       </c>
-      <c r="D141" s="12">
+      <c r="D141" s="11">
         <v>-28.335056489999999</v>
       </c>
       <c r="E141" s="4">
         <v>-54.192553199999999</v>
       </c>
-      <c r="F141" s="9">
+      <c r="F141" s="8">
         <v>18</v>
       </c>
-      <c r="G141" s="9">
+      <c r="G141" s="8">
         <v>350</v>
       </c>
-      <c r="H141" s="9">
+      <c r="H141" s="8">
         <v>6.3</v>
       </c>
     </row>
@@ -4879,24 +4863,24 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C142">
         <v>130909</v>
       </c>
-      <c r="D142" s="12">
+      <c r="D142" s="11">
         <v>-28.387961700000002</v>
       </c>
       <c r="E142" s="4">
         <v>-53.9184731</v>
       </c>
-      <c r="F142" s="9">
+      <c r="F142" s="8">
         <v>14</v>
       </c>
-      <c r="G142" s="9">
+      <c r="G142" s="8">
         <v>350</v>
       </c>
-      <c r="H142" s="9">
+      <c r="H142" s="8">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -4905,24 +4889,24 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C143">
         <v>130917</v>
       </c>
-      <c r="D143" s="12">
+      <c r="D143" s="11">
         <v>-28.355021700000002</v>
       </c>
       <c r="E143" s="6">
         <v>-54.500766499999997</v>
       </c>
-      <c r="F143" s="9">
+      <c r="F143" s="8">
         <v>8</v>
       </c>
-      <c r="G143" s="9">
+      <c r="G143" s="8">
         <v>350</v>
       </c>
-      <c r="H143" s="9">
+      <c r="H143" s="8">
         <v>2.8</v>
       </c>
     </row>
@@ -4936,19 +4920,19 @@
       <c r="C144">
         <v>130915</v>
       </c>
-      <c r="D144" s="12">
+      <c r="D144" s="11">
         <v>-28.302527600000001</v>
       </c>
       <c r="E144" s="4">
         <v>-54.268803499999997</v>
       </c>
-      <c r="F144" s="9">
+      <c r="F144" s="8">
         <v>13</v>
       </c>
-      <c r="G144" s="9">
+      <c r="G144" s="8">
         <v>350</v>
       </c>
-      <c r="H144" s="9">
+      <c r="H144" s="8">
         <v>4.55</v>
       </c>
     </row>
@@ -4962,19 +4946,19 @@
       <c r="C145">
         <v>130056</v>
       </c>
-      <c r="D145" s="12">
+      <c r="D145" s="11">
         <v>-28.358078415321302</v>
       </c>
       <c r="E145" s="4">
         <v>-54.498774716781597</v>
       </c>
-      <c r="F145" s="9">
+      <c r="F145" s="8">
         <v>16</v>
       </c>
-      <c r="G145" s="9">
+      <c r="G145" s="8">
         <v>350</v>
       </c>
-      <c r="H145" s="9">
+      <c r="H145" s="8">
         <v>5.6</v>
       </c>
     </row>
@@ -4988,19 +4972,19 @@
       <c r="C146">
         <v>130931</v>
       </c>
-      <c r="D146" s="12">
+      <c r="D146" s="11">
         <v>-28.309475899999999</v>
       </c>
       <c r="E146" s="4">
         <v>-54.477024299999997</v>
       </c>
-      <c r="F146" s="9">
+      <c r="F146" s="8">
         <v>28</v>
       </c>
-      <c r="G146" s="9">
+      <c r="G146" s="8">
         <v>405</v>
       </c>
-      <c r="H146" s="9">
+      <c r="H146" s="8">
         <v>11.34</v>
       </c>
     </row>
@@ -5014,19 +4998,19 @@
       <c r="C147">
         <v>130933</v>
       </c>
-      <c r="D147" s="12">
+      <c r="D147" s="11">
         <v>-28.352185289619701</v>
       </c>
       <c r="E147" s="4">
         <v>-54.502524275499603</v>
       </c>
-      <c r="F147" s="9">
+      <c r="F147" s="8">
         <v>18</v>
       </c>
-      <c r="G147" s="9">
+      <c r="G147" s="8">
         <v>405</v>
       </c>
-      <c r="H147" s="9">
+      <c r="H147" s="8">
         <v>7.29</v>
       </c>
     </row>
@@ -5040,19 +5024,19 @@
       <c r="C148">
         <v>130935</v>
       </c>
-      <c r="D148" s="12">
+      <c r="D148" s="11">
         <v>-28.3518923593792</v>
       </c>
       <c r="E148" s="4">
         <v>-54.499183233315399</v>
       </c>
-      <c r="F148" s="9">
+      <c r="F148" s="8">
         <v>10</v>
       </c>
-      <c r="G148" s="9">
+      <c r="G148" s="8">
         <v>350</v>
       </c>
-      <c r="H148" s="9">
+      <c r="H148" s="8">
         <v>3.5</v>
       </c>
     </row>
@@ -5066,19 +5050,19 @@
       <c r="C149">
         <v>130936</v>
       </c>
-      <c r="D149" s="12">
+      <c r="D149" s="11">
         <v>-28.347902621475601</v>
       </c>
       <c r="E149" s="4">
         <v>-54.500595183966702</v>
       </c>
-      <c r="F149" s="9">
+      <c r="F149" s="8">
         <v>26</v>
       </c>
-      <c r="G149" s="9">
+      <c r="G149" s="8">
         <v>350</v>
       </c>
-      <c r="H149" s="9">
+      <c r="H149" s="8">
         <v>9.1</v>
       </c>
     </row>
@@ -5092,19 +5076,19 @@
       <c r="C150">
         <v>130937</v>
       </c>
-      <c r="D150" s="12">
+      <c r="D150" s="11">
         <v>-28.347683680872901</v>
       </c>
       <c r="E150" s="4">
         <v>-54.500780326569398</v>
       </c>
-      <c r="F150" s="9">
+      <c r="F150" s="8">
         <v>24</v>
       </c>
-      <c r="G150" s="9">
+      <c r="G150" s="8">
         <v>405</v>
       </c>
-      <c r="H150" s="9">
+      <c r="H150" s="8">
         <v>9.7200000000000006</v>
       </c>
     </row>
@@ -5118,19 +5102,19 @@
       <c r="C151">
         <v>130938</v>
       </c>
-      <c r="D151" s="12">
+      <c r="D151" s="11">
         <v>-28.3495674167559</v>
       </c>
       <c r="E151" s="4">
         <v>-54.500329727194099</v>
       </c>
-      <c r="F151" s="9">
+      <c r="F151" s="8">
         <v>12</v>
       </c>
-      <c r="G151" s="9">
+      <c r="G151" s="8">
         <v>405</v>
       </c>
-      <c r="H151" s="9">
+      <c r="H151" s="8">
         <v>4.8600000000000003</v>
       </c>
     </row>
@@ -5144,19 +5128,19 @@
       <c r="C152">
         <v>130943</v>
       </c>
-      <c r="D152" s="12">
+      <c r="D152" s="11">
         <v>-28.134681989524601</v>
       </c>
       <c r="E152" s="4">
         <v>-55.028486873868701</v>
       </c>
-      <c r="F152" s="9">
+      <c r="F152" s="8">
         <v>11</v>
       </c>
-      <c r="G152" s="9">
+      <c r="G152" s="8">
         <v>350</v>
       </c>
-      <c r="H152" s="9">
+      <c r="H152" s="8">
         <v>3.85</v>
       </c>
     </row>
@@ -5165,24 +5149,24 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C153">
         <v>130944</v>
       </c>
-      <c r="D153" s="12">
+      <c r="D153" s="11">
         <v>-28.291281600000001</v>
       </c>
       <c r="E153" s="4">
         <v>-54.271275299999999</v>
       </c>
-      <c r="F153" s="9">
+      <c r="F153" s="8">
         <v>40</v>
       </c>
-      <c r="G153" s="9">
+      <c r="G153" s="8">
         <v>405</v>
       </c>
-      <c r="H153" s="9">
+      <c r="H153" s="8">
         <v>16.2</v>
       </c>
     </row>
@@ -5191,24 +5175,24 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C154">
         <v>130945</v>
       </c>
-      <c r="D154" s="12">
+      <c r="D154" s="11">
         <v>-28.3113481</v>
       </c>
       <c r="E154" s="4">
         <v>-54.268197399999998</v>
       </c>
-      <c r="F154" s="9">
+      <c r="F154" s="8">
         <v>12</v>
       </c>
-      <c r="G154" s="9">
+      <c r="G154" s="8">
         <v>405</v>
       </c>
-      <c r="H154" s="9">
+      <c r="H154" s="8">
         <v>4.8600000000000003</v>
       </c>
     </row>
@@ -5222,19 +5206,19 @@
       <c r="C155">
         <v>130573</v>
       </c>
-      <c r="D155" s="12">
+      <c r="D155" s="11">
         <v>-28.307559131245501</v>
       </c>
       <c r="E155" s="4">
         <v>-54.258050775619999</v>
       </c>
-      <c r="F155" s="9">
+      <c r="F155" s="8">
         <v>46</v>
       </c>
-      <c r="G155" s="9">
+      <c r="G155" s="8">
         <v>405</v>
       </c>
-      <c r="H155" s="9">
+      <c r="H155" s="8">
         <v>18.63</v>
       </c>
     </row>
@@ -5243,24 +5227,24 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C156">
         <v>130544</v>
       </c>
-      <c r="D156" s="12">
+      <c r="D156" s="11">
         <v>-28.315536900000001</v>
       </c>
       <c r="E156" s="4">
         <v>-54.266629299999998</v>
       </c>
-      <c r="F156" s="9">
+      <c r="F156" s="8">
         <v>36</v>
       </c>
-      <c r="G156" s="9">
+      <c r="G156" s="8">
         <v>350</v>
       </c>
-      <c r="H156" s="9">
+      <c r="H156" s="8">
         <v>12.6</v>
       </c>
     </row>
@@ -5274,19 +5258,19 @@
       <c r="C157">
         <v>130946</v>
       </c>
-      <c r="D157" s="12">
+      <c r="D157" s="11">
         <v>-28.315822399999998</v>
       </c>
       <c r="E157" s="4">
         <v>-54.265181800000001</v>
       </c>
-      <c r="F157" s="9">
+      <c r="F157" s="8">
         <v>20</v>
       </c>
-      <c r="G157" s="9">
+      <c r="G157" s="8">
         <v>405</v>
       </c>
-      <c r="H157" s="9">
+      <c r="H157" s="8">
         <v>8.1</v>
       </c>
     </row>
@@ -5300,19 +5284,19 @@
       <c r="C158">
         <v>130960</v>
       </c>
-      <c r="D158" s="12">
+      <c r="D158" s="11">
         <v>-28.315822399999998</v>
       </c>
       <c r="E158" s="4">
         <v>-54.265181800000001</v>
       </c>
-      <c r="F158" s="9">
+      <c r="F158" s="8">
         <v>7</v>
       </c>
-      <c r="G158" s="9">
+      <c r="G158" s="8">
         <v>405</v>
       </c>
-      <c r="H158" s="9">
+      <c r="H158" s="8">
         <v>2.835</v>
       </c>
     </row>
@@ -5326,19 +5310,19 @@
       <c r="C159">
         <v>130961</v>
       </c>
-      <c r="D159" s="12">
+      <c r="D159" s="11">
         <v>-28.315273699999999</v>
       </c>
       <c r="E159" s="4">
         <v>-54.265269799999999</v>
       </c>
-      <c r="F159" s="9">
+      <c r="F159" s="8">
         <v>11</v>
       </c>
-      <c r="G159" s="9">
+      <c r="G159" s="8">
         <v>405</v>
       </c>
-      <c r="H159" s="9">
+      <c r="H159" s="8">
         <v>4.4550000000000001</v>
       </c>
     </row>
@@ -5347,50 +5331,50 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C160">
         <v>130895</v>
       </c>
-      <c r="D160" s="12">
+      <c r="D160" s="11">
         <v>-28.286857399999999</v>
       </c>
       <c r="E160" s="4">
         <v>-54.264125800000002</v>
       </c>
-      <c r="F160" s="9">
+      <c r="F160" s="8">
         <v>14</v>
       </c>
-      <c r="G160" s="9">
+      <c r="G160" s="8">
         <v>405</v>
       </c>
-      <c r="H160" s="9">
+      <c r="H160" s="8">
         <v>5.67</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="10">
+      <c r="A161" s="9">
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C161">
         <v>130280</v>
       </c>
-      <c r="D161" s="12">
+      <c r="D161" s="11">
         <v>-28.309564142919601</v>
       </c>
       <c r="E161" s="4">
         <v>-54.278522602642902</v>
       </c>
-      <c r="F161" s="9">
+      <c r="F161" s="8">
         <v>8</v>
       </c>
-      <c r="G161" s="9">
+      <c r="G161" s="8">
         <v>405</v>
       </c>
-      <c r="H161" s="9">
+      <c r="H161" s="8">
         <v>3.24</v>
       </c>
     </row>
@@ -5399,24 +5383,24 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C162">
         <v>130804</v>
       </c>
-      <c r="D162" s="12">
+      <c r="D162" s="11">
         <v>-29.704861999999999</v>
       </c>
       <c r="E162" s="4">
         <v>-53.823552800000002</v>
       </c>
-      <c r="F162" s="9">
+      <c r="F162" s="8">
         <v>16</v>
       </c>
-      <c r="G162" s="9">
+      <c r="G162" s="8">
         <v>405</v>
       </c>
-      <c r="H162" s="9">
+      <c r="H162" s="8">
         <v>6.48</v>
       </c>
     </row>
@@ -5430,19 +5414,19 @@
       <c r="C163">
         <v>130968</v>
       </c>
-      <c r="D163" s="12">
+      <c r="D163" s="11">
         <v>-28.326902</v>
       </c>
       <c r="E163" s="4">
         <v>-54.275294000000002</v>
       </c>
-      <c r="F163" s="9">
+      <c r="F163" s="8">
         <v>14</v>
       </c>
-      <c r="G163" s="9">
+      <c r="G163" s="8">
         <v>405</v>
       </c>
-      <c r="H163" s="9">
+      <c r="H163" s="8">
         <v>5.67</v>
       </c>
     </row>
@@ -5456,19 +5440,19 @@
       <c r="C164">
         <v>130982</v>
       </c>
-      <c r="D164" s="12">
+      <c r="D164" s="11">
         <v>-28.549072699572601</v>
       </c>
       <c r="E164" s="4">
         <v>-54.549093102833197</v>
       </c>
-      <c r="F164" s="9">
+      <c r="F164" s="8">
         <v>14</v>
       </c>
-      <c r="G164" s="9">
+      <c r="G164" s="8">
         <v>405</v>
       </c>
-      <c r="H164" s="9">
+      <c r="H164" s="8">
         <v>5.67</v>
       </c>
     </row>
@@ -5477,24 +5461,24 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C165">
         <v>130980</v>
       </c>
-      <c r="D165" s="12">
+      <c r="D165" s="11">
         <v>-28.586725569890501</v>
       </c>
       <c r="E165" s="4">
         <v>-54.507480174385599</v>
       </c>
-      <c r="F165" s="9">
+      <c r="F165" s="8">
         <v>28</v>
       </c>
-      <c r="G165" s="9">
+      <c r="G165" s="8">
         <v>405</v>
       </c>
-      <c r="H165" s="9">
+      <c r="H165" s="8">
         <v>11.34</v>
       </c>
     </row>
@@ -5503,24 +5487,24 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C166">
         <v>130967</v>
       </c>
-      <c r="D166" s="12">
+      <c r="D166" s="11">
         <v>-28.300813099999999</v>
       </c>
       <c r="E166" s="4">
         <v>-54.249127700000003</v>
       </c>
-      <c r="F166" s="9">
+      <c r="F166" s="8">
         <v>17</v>
       </c>
-      <c r="G166" s="9">
+      <c r="G166" s="8">
         <v>405</v>
       </c>
-      <c r="H166" s="9">
+      <c r="H166" s="8">
         <v>6.8849999999999998</v>
       </c>
     </row>
@@ -5529,24 +5513,24 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C167">
         <v>130816</v>
       </c>
-      <c r="D167" s="12">
+      <c r="D167" s="11">
         <v>-28.5441133136441</v>
       </c>
       <c r="E167" s="4">
         <v>-54.546248160504199</v>
       </c>
-      <c r="F167" s="9">
+      <c r="F167" s="8">
         <v>6</v>
       </c>
-      <c r="G167" s="9">
+      <c r="G167" s="8">
         <v>405</v>
       </c>
-      <c r="H167" s="9">
+      <c r="H167" s="8">
         <v>2.4300000000000002</v>
       </c>
     </row>
@@ -5560,19 +5544,19 @@
       <c r="C168">
         <v>130986</v>
       </c>
-      <c r="D168" s="12">
+      <c r="D168" s="11">
         <v>-28.547231410616</v>
       </c>
       <c r="E168" s="4">
         <v>-54.5504168851134</v>
       </c>
-      <c r="F168" s="9">
+      <c r="F168" s="8">
         <v>12</v>
       </c>
-      <c r="G168" s="9">
+      <c r="G168" s="8">
         <v>415</v>
       </c>
-      <c r="H168" s="9">
+      <c r="H168" s="8">
         <v>4.9800000000000004</v>
       </c>
     </row>
@@ -5586,19 +5570,19 @@
       <c r="C169">
         <v>130992</v>
       </c>
-      <c r="D169" s="12">
+      <c r="D169" s="11">
         <v>-28.346498032404298</v>
       </c>
       <c r="E169" s="4">
         <v>-54.501902589151399</v>
       </c>
-      <c r="F169" s="9">
+      <c r="F169" s="8">
         <v>10</v>
       </c>
-      <c r="G169" s="9">
+      <c r="G169" s="8">
         <v>415</v>
       </c>
-      <c r="H169" s="9">
+      <c r="H169" s="8">
         <v>4.1500000000000004</v>
       </c>
     </row>
@@ -5612,19 +5596,19 @@
       <c r="C170">
         <v>131005</v>
       </c>
-      <c r="D170" s="12">
+      <c r="D170" s="11">
         <v>-28.315737630000001</v>
       </c>
       <c r="E170" s="4">
         <v>-54.257278829999997</v>
       </c>
-      <c r="F170" s="9">
+      <c r="F170" s="8">
         <v>17</v>
       </c>
-      <c r="G170" s="9">
+      <c r="G170" s="8">
         <v>415</v>
       </c>
-      <c r="H170" s="9">
+      <c r="H170" s="8">
         <v>7.0549999999999997</v>
       </c>
     </row>
@@ -5638,19 +5622,19 @@
       <c r="C171">
         <v>131014</v>
       </c>
-      <c r="D171" s="12">
+      <c r="D171" s="11">
         <v>-28.396201668646199</v>
       </c>
       <c r="E171" s="4">
         <v>-54.478167758783897</v>
       </c>
-      <c r="F171" s="9">
+      <c r="F171" s="8">
         <v>12</v>
       </c>
-      <c r="G171" s="9">
+      <c r="G171" s="8">
         <v>415</v>
       </c>
-      <c r="H171" s="9">
+      <c r="H171" s="8">
         <v>4.9800000000000004</v>
       </c>
     </row>
@@ -5664,19 +5648,19 @@
       <c r="C172">
         <v>131032</v>
       </c>
-      <c r="D172" s="12">
+      <c r="D172" s="11">
         <v>-28.298622631800001</v>
       </c>
       <c r="E172" s="4">
         <v>-54.23846709</v>
       </c>
-      <c r="F172" s="9">
+      <c r="F172" s="8">
         <v>8</v>
       </c>
-      <c r="G172" s="9">
+      <c r="G172" s="8">
         <v>415</v>
       </c>
-      <c r="H172" s="9">
+      <c r="H172" s="8">
         <v>3.32</v>
       </c>
     </row>
@@ -5690,19 +5674,19 @@
       <c r="C173">
         <v>130948</v>
       </c>
-      <c r="D173" s="12">
+      <c r="D173" s="11">
         <v>-28.307848199999999</v>
       </c>
       <c r="E173" s="4">
         <v>-54.265960200000002</v>
       </c>
-      <c r="F173" s="9">
+      <c r="F173" s="8">
         <v>17</v>
       </c>
-      <c r="G173" s="9">
+      <c r="G173" s="8">
         <v>405</v>
       </c>
-      <c r="H173" s="9">
+      <c r="H173" s="8">
         <v>6.8849999999999998</v>
       </c>
     </row>
@@ -5711,24 +5695,24 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C174">
         <v>130540</v>
       </c>
-      <c r="D174" s="12">
+      <c r="D174" s="11">
         <v>-28.259614718000002</v>
       </c>
       <c r="E174" s="4">
         <v>-52.431655200000002</v>
       </c>
-      <c r="F174" s="9">
+      <c r="F174" s="8">
         <v>11</v>
       </c>
-      <c r="G174" s="9">
+      <c r="G174" s="8">
         <v>415</v>
       </c>
-      <c r="H174" s="9">
+      <c r="H174" s="8">
         <v>4.5650000000000004</v>
       </c>
     </row>
@@ -5742,19 +5726,19 @@
       <c r="C175">
         <v>130921</v>
       </c>
-      <c r="D175" s="12">
+      <c r="D175" s="11">
         <v>-28.298397120000001</v>
       </c>
       <c r="E175" s="4">
         <v>-54.279496999999999</v>
       </c>
-      <c r="F175" s="9">
+      <c r="F175" s="8">
         <v>10</v>
       </c>
-      <c r="G175" s="9">
+      <c r="G175" s="8">
         <v>415</v>
       </c>
-      <c r="H175" s="9">
+      <c r="H175" s="8">
         <v>4.1500000000000004</v>
       </c>
     </row>
@@ -5768,19 +5752,19 @@
       <c r="C176">
         <v>130956</v>
       </c>
-      <c r="D176" s="12">
+      <c r="D176" s="11">
         <v>-28.276130060919002</v>
       </c>
       <c r="E176" s="4">
         <v>-54.259939899999999</v>
       </c>
-      <c r="F176" s="9">
+      <c r="F176" s="8">
         <v>16</v>
       </c>
-      <c r="G176" s="9">
+      <c r="G176" s="8">
         <v>415</v>
       </c>
-      <c r="H176" s="9">
+      <c r="H176" s="8">
         <v>6.64</v>
       </c>
     </row>
@@ -5794,19 +5778,19 @@
       <c r="C177">
         <v>130984</v>
       </c>
-      <c r="D177" s="12">
+      <c r="D177" s="11">
         <v>-28.302738428165899</v>
       </c>
       <c r="E177" s="4">
         <v>-54.268316208999998</v>
       </c>
-      <c r="F177" s="9">
+      <c r="F177" s="8">
         <v>16</v>
       </c>
-      <c r="G177" s="9">
+      <c r="G177" s="8">
         <v>405</v>
       </c>
-      <c r="H177" s="9">
+      <c r="H177" s="8">
         <v>6.48</v>
       </c>
     </row>
@@ -5820,19 +5804,19 @@
       <c r="C178">
         <v>131010</v>
       </c>
-      <c r="D178" s="12">
+      <c r="D178" s="11">
         <v>-28.219274633720001</v>
       </c>
       <c r="E178" s="4">
         <v>-54.208232299999999</v>
       </c>
-      <c r="F178" s="9">
+      <c r="F178" s="8">
         <v>30</v>
       </c>
-      <c r="G178" s="9">
+      <c r="G178" s="8">
         <v>445</v>
       </c>
-      <c r="H178" s="9">
+      <c r="H178" s="8">
         <v>13.35</v>
       </c>
     </row>
@@ -5841,24 +5825,24 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C179">
         <v>131012</v>
       </c>
-      <c r="D179" s="12">
+      <c r="D179" s="11">
         <v>-28.261319911463598</v>
       </c>
       <c r="E179" s="4">
         <v>-54.217166589135402</v>
       </c>
-      <c r="F179" s="9">
+      <c r="F179" s="8">
         <v>8</v>
       </c>
-      <c r="G179" s="9">
+      <c r="G179" s="8">
         <v>415</v>
       </c>
-      <c r="H179" s="9">
+      <c r="H179" s="8">
         <v>3.32</v>
       </c>
     </row>
@@ -5872,19 +5856,19 @@
       <c r="C180">
         <v>131030</v>
       </c>
-      <c r="D180" s="12">
+      <c r="D180" s="11">
         <v>-28.283336942447999</v>
       </c>
       <c r="E180" s="4">
         <v>-54.260078774935899</v>
       </c>
-      <c r="F180" s="9">
+      <c r="F180" s="8">
         <v>14</v>
       </c>
-      <c r="G180" s="9">
+      <c r="G180" s="8">
         <v>415</v>
       </c>
-      <c r="H180" s="9">
+      <c r="H180" s="8">
         <v>5.81</v>
       </c>
     </row>
@@ -5898,19 +5882,19 @@
       <c r="C181">
         <v>131034</v>
       </c>
-      <c r="D181" s="12">
+      <c r="D181" s="11">
         <v>-28.314393171028399</v>
       </c>
       <c r="E181" s="4">
         <v>-54.258473378295001</v>
       </c>
-      <c r="F181" s="9">
+      <c r="F181" s="8">
         <v>24</v>
       </c>
-      <c r="G181" s="9">
+      <c r="G181" s="8">
         <v>415</v>
       </c>
-      <c r="H181" s="9">
+      <c r="H181" s="8">
         <v>9.9600000000000009</v>
       </c>
     </row>
@@ -5924,19 +5908,19 @@
       <c r="C182">
         <v>131045</v>
       </c>
-      <c r="D182" s="12">
+      <c r="D182" s="11">
         <v>-28.309409865810402</v>
       </c>
       <c r="E182" s="4">
         <v>-54.278233381763101</v>
       </c>
-      <c r="F182" s="9">
+      <c r="F182" s="8">
         <v>18</v>
       </c>
-      <c r="G182" s="9">
+      <c r="G182" s="8">
         <v>415</v>
       </c>
-      <c r="H182" s="9">
+      <c r="H182" s="8">
         <v>7.47</v>
       </c>
     </row>
@@ -5945,24 +5929,24 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C183">
         <v>131052</v>
       </c>
-      <c r="D183" s="12">
+      <c r="D183" s="11">
         <v>-28.354958501000201</v>
       </c>
       <c r="E183" s="4">
         <v>-54.502694512465297</v>
       </c>
-      <c r="F183" s="9">
+      <c r="F183" s="8">
         <v>18</v>
       </c>
-      <c r="G183" s="9">
+      <c r="G183" s="8">
         <v>415</v>
       </c>
-      <c r="H183" s="9">
+      <c r="H183" s="8">
         <v>7.47</v>
       </c>
     </row>
@@ -5971,24 +5955,24 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C184">
         <v>131051</v>
       </c>
-      <c r="D184" s="12">
+      <c r="D184" s="11">
         <v>-28.355845724394602</v>
       </c>
       <c r="E184" s="4">
         <v>-54.503514904935201</v>
       </c>
-      <c r="F184" s="9">
+      <c r="F184" s="8">
         <v>54</v>
       </c>
-      <c r="G184" s="9">
+      <c r="G184" s="8">
         <v>415</v>
       </c>
-      <c r="H184" s="9">
+      <c r="H184" s="8">
         <v>22.41</v>
       </c>
     </row>
@@ -6002,19 +5986,19 @@
       <c r="C185">
         <v>131059</v>
       </c>
-      <c r="D185" s="12">
+      <c r="D185" s="11">
         <v>-28.3075032214117</v>
       </c>
       <c r="E185" s="4">
         <v>-54.257512760899999</v>
       </c>
-      <c r="F185" s="9">
+      <c r="F185" s="8">
         <v>28</v>
       </c>
-      <c r="G185" s="9">
+      <c r="G185" s="8">
         <v>415</v>
       </c>
-      <c r="H185" s="9">
+      <c r="H185" s="8">
         <v>11.62</v>
       </c>
     </row>
@@ -6028,19 +6012,19 @@
       <c r="C186">
         <v>131068</v>
       </c>
-      <c r="D186" s="12">
+      <c r="D186" s="11">
         <v>-28.308102266919999</v>
       </c>
       <c r="E186" s="4">
         <v>-54.271119974299999</v>
       </c>
-      <c r="F186" s="9">
+      <c r="F186" s="8">
         <v>26</v>
       </c>
-      <c r="G186" s="9">
+      <c r="G186" s="8">
         <v>415</v>
       </c>
-      <c r="H186" s="9">
+      <c r="H186" s="8">
         <v>10.79</v>
       </c>
     </row>
@@ -6054,19 +6038,19 @@
       <c r="C187">
         <v>131081</v>
       </c>
-      <c r="D187" s="12">
+      <c r="D187" s="11">
         <v>-28.307962618000001</v>
       </c>
       <c r="E187" s="4">
         <v>-54.260513719999999</v>
       </c>
-      <c r="F187" s="9">
+      <c r="F187" s="8">
         <v>20</v>
       </c>
-      <c r="G187" s="9">
+      <c r="G187" s="8">
         <v>415</v>
       </c>
-      <c r="H187" s="9">
+      <c r="H187" s="8">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -6080,19 +6064,19 @@
       <c r="C188">
         <v>131124</v>
       </c>
-      <c r="D188" s="12">
+      <c r="D188" s="11">
         <v>-28.260720173883701</v>
       </c>
       <c r="E188" s="4">
         <v>-52.430103140053703</v>
       </c>
-      <c r="F188" s="9">
+      <c r="F188" s="8">
         <v>8</v>
       </c>
-      <c r="G188" s="9">
+      <c r="G188" s="8">
         <v>415</v>
       </c>
-      <c r="H188" s="9">
+      <c r="H188" s="8">
         <v>3.32</v>
       </c>
     </row>
@@ -6106,19 +6090,19 @@
       <c r="C189">
         <v>130004</v>
       </c>
-      <c r="D189" s="12">
+      <c r="D189" s="11">
         <v>-28.278741715799999</v>
       </c>
       <c r="E189" s="4">
         <v>-54.238003640000002</v>
       </c>
-      <c r="F189" s="9">
+      <c r="F189" s="8">
         <v>10</v>
       </c>
-      <c r="G189" s="9">
+      <c r="G189" s="8">
         <v>450</v>
       </c>
-      <c r="H189" s="9">
+      <c r="H189" s="8">
         <v>4.5</v>
       </c>
     </row>
@@ -6132,19 +6116,19 @@
       <c r="C190">
         <v>130533</v>
       </c>
-      <c r="D190" s="12">
+      <c r="D190" s="11">
         <v>-28.29847474</v>
       </c>
       <c r="E190" s="4">
         <v>-54.260819245999997</v>
       </c>
-      <c r="F190" s="9">
+      <c r="F190" s="8">
         <v>86</v>
       </c>
-      <c r="G190" s="9">
+      <c r="G190" s="8">
         <v>450</v>
       </c>
-      <c r="H190" s="9">
+      <c r="H190" s="8">
         <v>38.700000000000003</v>
       </c>
     </row>
@@ -6153,24 +6137,24 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C191">
         <v>130863</v>
       </c>
-      <c r="D191" s="12">
+      <c r="D191" s="11">
         <v>-28.357138830087401</v>
       </c>
       <c r="E191" s="4">
         <v>-54.268598560509602</v>
       </c>
-      <c r="F191" s="9">
+      <c r="F191" s="8">
         <v>26</v>
       </c>
-      <c r="G191" s="9">
+      <c r="G191" s="8">
         <v>415</v>
       </c>
-      <c r="H191" s="9">
+      <c r="H191" s="8">
         <v>10.79</v>
       </c>
     </row>
@@ -6179,24 +6163,24 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C192">
         <v>130885</v>
       </c>
-      <c r="D192" s="12">
+      <c r="D192" s="11">
         <v>-28.291195456229399</v>
       </c>
       <c r="E192" s="4">
         <v>-54.239932323416298</v>
       </c>
-      <c r="F192" s="9">
+      <c r="F192" s="8">
         <v>14</v>
       </c>
-      <c r="G192" s="9">
+      <c r="G192" s="8">
         <v>450</v>
       </c>
-      <c r="H192" s="9">
+      <c r="H192" s="8">
         <v>6.3</v>
       </c>
     </row>
@@ -6210,19 +6194,19 @@
       <c r="C193">
         <v>130998</v>
       </c>
-      <c r="D193" s="12">
+      <c r="D193" s="11">
         <v>-28.317174193357602</v>
       </c>
       <c r="E193" s="4">
         <v>-54.259667531675397</v>
       </c>
-      <c r="F193" s="9">
+      <c r="F193" s="8">
         <v>14</v>
       </c>
-      <c r="G193" s="9">
+      <c r="G193" s="8">
         <v>415</v>
       </c>
-      <c r="H193" s="9">
+      <c r="H193" s="8">
         <v>5.81</v>
       </c>
     </row>
@@ -6236,19 +6220,19 @@
       <c r="C194">
         <v>131083</v>
       </c>
-      <c r="D194" s="12">
+      <c r="D194" s="11">
         <v>-28.298391842871101</v>
       </c>
       <c r="E194" s="4">
         <v>-54.243693718148897</v>
       </c>
-      <c r="F194" s="9">
+      <c r="F194" s="8">
         <v>10</v>
       </c>
-      <c r="G194" s="9">
+      <c r="G194" s="8">
         <v>415</v>
       </c>
-      <c r="H194" s="9">
+      <c r="H194" s="8">
         <v>4.1500000000000004</v>
       </c>
     </row>
@@ -6262,19 +6246,19 @@
       <c r="C195">
         <v>131115</v>
       </c>
-      <c r="D195" s="12">
-        <v>-28.302881334995401</v>
+      <c r="D195" s="11">
+        <v>-28.309365193843799</v>
       </c>
       <c r="E195" s="4">
-        <v>-54.277671568686699</v>
-      </c>
-      <c r="F195" s="9">
+        <v>-54.274150571440501</v>
+      </c>
+      <c r="F195" s="8">
         <v>21</v>
       </c>
-      <c r="G195" s="9">
+      <c r="G195" s="8">
         <v>450</v>
       </c>
-      <c r="H195" s="9">
+      <c r="H195" s="8">
         <v>9.4499999999999993</v>
       </c>
     </row>
@@ -6288,24 +6272,24 @@
       <c r="C196">
         <v>131157</v>
       </c>
-      <c r="D196" s="12">
+      <c r="D196" s="11">
         <v>-28.1331444348851</v>
       </c>
       <c r="E196" s="4">
         <v>-54.357324660516298</v>
       </c>
-      <c r="F196" s="9">
+      <c r="F196" s="8">
         <v>20</v>
       </c>
-      <c r="G196" s="9">
+      <c r="G196" s="8">
         <v>450</v>
       </c>
-      <c r="H196" s="9">
+      <c r="H196" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
+      <c r="A197" s="9">
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
@@ -6314,24 +6298,24 @@
       <c r="C197">
         <v>131157</v>
       </c>
-      <c r="D197" s="12">
+      <c r="D197" s="11">
         <v>-28.3290412036487</v>
       </c>
       <c r="E197" s="4">
         <v>-54.499439309373201</v>
       </c>
-      <c r="F197" s="9">
+      <c r="F197" s="8">
         <v>16</v>
       </c>
-      <c r="G197" s="9">
+      <c r="G197" s="8">
         <v>450</v>
       </c>
-      <c r="H197" s="9">
+      <c r="H197" s="8">
         <v>7.2</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
+      <c r="A198" s="9">
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
@@ -6340,24 +6324,24 @@
       <c r="C198">
         <v>131170</v>
       </c>
-      <c r="D198" s="12">
+      <c r="D198" s="11">
         <v>-28.328882372323601</v>
       </c>
       <c r="E198" s="4">
         <v>-54.2798596028397</v>
       </c>
-      <c r="F198" s="9">
+      <c r="F198" s="8">
         <v>10</v>
       </c>
-      <c r="G198" s="9">
+      <c r="G198" s="8">
         <v>450</v>
       </c>
-      <c r="H198" s="9">
+      <c r="H198" s="8">
         <v>4.5</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
+      <c r="A199" s="9">
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
@@ -6366,50 +6350,50 @@
       <c r="C199">
         <v>131177</v>
       </c>
-      <c r="D199" s="12">
+      <c r="D199" s="11">
         <v>-28.219274633723799</v>
       </c>
       <c r="E199" s="4">
         <v>-54.208232321902699</v>
       </c>
-      <c r="F199" s="9">
+      <c r="F199" s="8">
         <v>30</v>
       </c>
-      <c r="G199" s="9">
+      <c r="G199" s="8">
         <v>445</v>
       </c>
-      <c r="H199" s="9">
+      <c r="H199" s="8">
         <v>13.35</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
+      <c r="A200" s="9">
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C200">
         <v>131182</v>
       </c>
-      <c r="D200" s="12">
+      <c r="D200" s="11">
         <v>-28.281018814435701</v>
       </c>
       <c r="E200" s="4">
         <v>-54.270733960899399</v>
       </c>
-      <c r="F200" s="9">
+      <c r="F200" s="8">
         <v>16</v>
       </c>
-      <c r="G200" s="9">
+      <c r="G200" s="8">
         <v>450</v>
       </c>
-      <c r="H200" s="9">
+      <c r="H200" s="8">
         <v>7.2</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
+      <c r="A201" s="9">
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
@@ -6418,50 +6402,50 @@
       <c r="C201">
         <v>131183</v>
       </c>
-      <c r="D201" s="12">
+      <c r="D201" s="11">
         <v>-28.3480411850081</v>
       </c>
       <c r="E201" s="4">
         <v>-54.500246901099501</v>
       </c>
-      <c r="F201" s="9">
+      <c r="F201" s="8">
         <v>10</v>
       </c>
-      <c r="G201" s="9">
+      <c r="G201" s="8">
         <v>450</v>
       </c>
-      <c r="H201" s="9">
+      <c r="H201" s="8">
         <v>4.5</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
+      <c r="A202" s="9">
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C202">
         <v>131198</v>
       </c>
-      <c r="D202" s="12">
+      <c r="D202" s="11">
         <v>-28.298182580637398</v>
       </c>
       <c r="E202" s="4">
         <v>-54.243677046830797</v>
       </c>
-      <c r="F202" s="9">
+      <c r="F202" s="8">
         <v>86</v>
       </c>
-      <c r="G202" s="9">
+      <c r="G202" s="8">
         <v>450</v>
       </c>
-      <c r="H202" s="9">
+      <c r="H202" s="8">
         <v>38.700000000000003</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
+      <c r="A203" s="9">
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
@@ -6470,203 +6454,125 @@
       <c r="C203">
         <v>131188</v>
       </c>
-      <c r="D203" s="12">
+      <c r="D203" s="11">
         <v>-28.3036576974166</v>
       </c>
       <c r="E203" s="4">
         <v>-54.273855521290102</v>
       </c>
-      <c r="F203" s="9">
+      <c r="F203" s="8">
         <v>10</v>
       </c>
-      <c r="G203" s="9">
+      <c r="G203" s="8">
         <v>450</v>
       </c>
-      <c r="H203" s="9">
+      <c r="H203" s="8">
         <v>4.5</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
+      <c r="A204" s="9">
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C204">
-        <v>131158</v>
-      </c>
-      <c r="D204" s="12">
-        <v>-28.304173174988101</v>
+        <v>131194</v>
+      </c>
+      <c r="D204" s="11">
+        <v>-28.305960505379499</v>
       </c>
       <c r="E204" s="7">
-        <v>-54.269415588877699</v>
-      </c>
-      <c r="F204" s="9">
+        <v>-54.2517506054999</v>
+      </c>
+      <c r="F204" s="8">
         <v>8</v>
       </c>
-      <c r="G204" s="9">
+      <c r="G204" s="8">
         <v>450</v>
       </c>
-      <c r="H204" s="9">
+      <c r="H204" s="8">
         <v>3.6</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
+      <c r="A205" s="9">
         <v>204</v>
       </c>
-      <c r="B205" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C205">
-        <v>131082</v>
-      </c>
-      <c r="D205" s="12">
-        <v>-28.304173174988101</v>
-      </c>
-      <c r="E205" s="7">
-        <v>-54.269415588877699</v>
-      </c>
-      <c r="F205" s="9">
+      <c r="B205" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C205" s="9">
+        <v>131240</v>
+      </c>
+      <c r="D205" s="11">
+        <v>-28.302599557386401</v>
+      </c>
+      <c r="E205" s="9">
+        <v>-54.242064045169798</v>
+      </c>
+      <c r="F205" s="1">
+        <v>11</v>
+      </c>
+      <c r="G205" s="1">
+        <v>450</v>
+      </c>
+      <c r="H205" s="1">
+        <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="9">
+        <v>205</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C206" s="9">
+        <v>131219</v>
+      </c>
+      <c r="D206" s="11">
+        <v>-28.303149427370101</v>
+      </c>
+      <c r="E206" s="9">
+        <v>-54.267852131675902</v>
+      </c>
+      <c r="F206" s="9">
         <v>10</v>
-      </c>
-      <c r="G205" s="9">
-        <v>450</v>
-      </c>
-      <c r="H205" s="9">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
-        <v>205</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C206">
-        <v>131194</v>
-      </c>
-      <c r="D206" s="12">
-        <v>-28.305960505379499</v>
-      </c>
-      <c r="E206" s="8">
-        <v>-54.2517506054999</v>
-      </c>
-      <c r="F206" s="9">
-        <v>8</v>
       </c>
       <c r="G206" s="9">
         <v>450</v>
       </c>
       <c r="H206" s="9">
-        <v>3.6</v>
+        <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
+      <c r="A207" s="9">
         <v>206</v>
       </c>
-      <c r="B207" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C207">
-        <v>131202</v>
-      </c>
-      <c r="D207" s="12">
-        <v>-28.304173174988101</v>
-      </c>
-      <c r="E207" s="7">
-        <v>-54.269415588877699</v>
+      <c r="B207" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C207" s="9">
+        <v>131241</v>
+      </c>
+      <c r="D207" s="11">
+        <v>-28.547111319813101</v>
+      </c>
+      <c r="E207" s="9">
+        <v>-54.550414560504002</v>
       </c>
       <c r="F207" s="9">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G207" s="9">
         <v>450</v>
       </c>
       <c r="H207" s="9">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="10">
-        <v>207</v>
-      </c>
-      <c r="B208" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C208" s="10">
-        <v>131240</v>
-      </c>
-      <c r="D208" s="12">
-        <v>-28.302599557386401</v>
-      </c>
-      <c r="E208" s="10">
-        <v>-54.242064045169798</v>
-      </c>
-      <c r="F208" s="1">
-        <v>11</v>
-      </c>
-      <c r="G208" s="1">
-        <v>450</v>
-      </c>
-      <c r="H208" s="1">
-        <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="10">
-        <v>208</v>
-      </c>
-      <c r="B209" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="C209" s="10">
-        <v>131219</v>
-      </c>
-      <c r="D209" s="12">
-        <v>-28.303149427370101</v>
-      </c>
-      <c r="E209" s="10">
-        <v>-54.267852131675902</v>
-      </c>
-      <c r="F209" s="10">
-        <v>10</v>
-      </c>
-      <c r="G209" s="10">
-        <v>450</v>
-      </c>
-      <c r="H209" s="10">
-        <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="10">
-        <v>209</v>
-      </c>
-      <c r="B210" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C210" s="10">
-        <v>131241</v>
-      </c>
-      <c r="D210" s="12">
-        <v>-28.547111319813101</v>
-      </c>
-      <c r="E210" s="10">
-        <v>-54.550414560504002</v>
-      </c>
-      <c r="F210" s="10">
-        <v>6</v>
-      </c>
-      <c r="G210" s="10">
-        <v>450</v>
-      </c>
-      <c r="H210" s="10">
         <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
         <v>2.7</v>
       </c>

--- a/localização clientes.xlsx
+++ b/localização clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Empresa\google\Sinc_Empresa\Projetos\Python\energens-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8181E8F1-6E95-478F-A2EB-3541B5214BCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160A7FC9-C1C2-4C69-93D0-CF1AD19306EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="215">
   <si>
     <t>id</t>
   </si>
@@ -670,6 +670,15 @@
   </si>
   <si>
     <t>Lavagem da Ipiranga</t>
+  </si>
+  <si>
+    <t>Cintia Ribas</t>
+  </si>
+  <si>
+    <t>Paulo Cargnelutti</t>
+  </si>
+  <si>
+    <t>Nair Biolosor Kuntz</t>
   </si>
 </sst>
 </file>
@@ -860,8 +869,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FD6B3B7-5DCF-4893-B21A-B1CB3118375F}" name="Tabela1" displayName="Tabela1" ref="A1:H207" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H207" xr:uid="{3E3CFA4C-A6AD-46F0-AAC7-262EE49187F1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FD6B3B7-5DCF-4893-B21A-B1CB3118375F}" name="Tabela1" displayName="Tabela1" ref="A1:H210" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H210" xr:uid="{3E3CFA4C-A6AD-46F0-AAC7-262EE49187F1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E204">
     <sortCondition ref="A1:A204"/>
   </sortState>
@@ -1176,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E4D8A3-B036-45B9-BFB1-CE1FD37008B3}">
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="E206" sqref="E206"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="A211" sqref="A211:XFD216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6577,6 +6586,87 @@
         <v>2.7</v>
       </c>
     </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="9">
+        <v>207</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C208" s="9">
+        <v>131158</v>
+      </c>
+      <c r="D208" s="11">
+        <v>-28.360497873476699</v>
+      </c>
+      <c r="E208" s="9">
+        <v>-54.497803222423101</v>
+      </c>
+      <c r="F208" s="9">
+        <v>8</v>
+      </c>
+      <c r="G208" s="9">
+        <v>450</v>
+      </c>
+      <c r="H208" s="9">
+        <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="9">
+        <v>208</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C209" s="9">
+        <v>131202</v>
+      </c>
+      <c r="D209" s="11">
+        <v>-28.183883739641502</v>
+      </c>
+      <c r="E209" s="11">
+        <v>-54.304625224717597</v>
+      </c>
+      <c r="F209" s="9">
+        <v>16</v>
+      </c>
+      <c r="G209" s="9">
+        <v>450</v>
+      </c>
+      <c r="H209" s="9">
+        <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="9">
+        <v>209</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C210" s="9">
+        <v>131082</v>
+      </c>
+      <c r="D210" s="11">
+        <v>-28.354272405194099</v>
+      </c>
+      <c r="E210" s="11">
+        <v>-54.254262533907799</v>
+      </c>
+      <c r="F210" s="9">
+        <v>10</v>
+      </c>
+      <c r="G210" s="9">
+        <v>450</v>
+      </c>
+      <c r="H210" s="9">
+        <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
+        <v>4.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">

--- a/localização clientes.xlsx
+++ b/localização clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Empresa\google\Sinc_Empresa\Projetos\Python\energens-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160A7FC9-C1C2-4C69-93D0-CF1AD19306EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFC5D7E-FFD0-40ED-82D9-4126C44DDB71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
   </bookViews>
@@ -609,9 +609,6 @@
     <t>Vivian Soares Schorr Rohleder</t>
   </si>
   <si>
-    <t>Gelson Tofolo</t>
-  </si>
-  <si>
     <t>Mercado Popular</t>
   </si>
   <si>
@@ -679,6 +676,9 @@
   </si>
   <si>
     <t>Nair Biolosor Kuntz</t>
+  </si>
+  <si>
+    <t>Gelso Tofolo</t>
   </si>
 </sst>
 </file>
@@ -1187,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E4D8A3-B036-45B9-BFB1-CE1FD37008B3}">
   <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="A211" sqref="A211:XFD216"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,7 +1362,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7">
         <v>130051</v>
@@ -1648,7 +1648,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C18">
         <v>130255</v>
@@ -1674,7 +1674,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C19">
         <v>130034</v>
@@ -1908,7 +1908,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C28">
         <v>130212</v>
@@ -2116,7 +2116,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C36">
         <v>130413</v>
@@ -2298,7 +2298,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C43">
         <v>130093</v>
@@ -3156,7 +3156,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C76">
         <v>130361</v>
@@ -3182,7 +3182,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C77">
         <v>130354</v>
@@ -3208,7 +3208,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C78">
         <v>130640</v>
@@ -3442,7 +3442,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C87">
         <v>130665</v>
@@ -3468,7 +3468,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C88">
         <v>130666</v>
@@ -4170,7 +4170,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C115">
         <v>130812</v>
@@ -4378,7 +4378,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C123">
         <v>130418</v>
@@ -4846,7 +4846,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C141">
         <v>130904</v>
@@ -4872,7 +4872,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C142">
         <v>130909</v>
@@ -4898,7 +4898,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C143">
         <v>130917</v>
@@ -5158,7 +5158,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C153">
         <v>130944</v>
@@ -5184,7 +5184,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C154">
         <v>130945</v>
@@ -5236,7 +5236,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C156">
         <v>130544</v>
@@ -5340,7 +5340,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="C160">
         <v>130895</v>
@@ -5392,7 +5392,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C162">
         <v>130804</v>
@@ -6525,11 +6525,11 @@
         <v>11</v>
       </c>
       <c r="G205" s="1">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="H205" s="1">
         <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
-        <v>4.95</v>
+        <v>5.0049999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -6552,11 +6552,11 @@
         <v>10</v>
       </c>
       <c r="G206" s="9">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="H206" s="9">
         <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -6579,11 +6579,11 @@
         <v>6</v>
       </c>
       <c r="G207" s="9">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="H207" s="9">
         <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -6591,7 +6591,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C208" s="9">
         <v>131158</v>
@@ -6618,7 +6618,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C209" s="9">
         <v>131202</v>
@@ -6645,7 +6645,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C210" s="9">
         <v>131082</v>

--- a/localização clientes.xlsx
+++ b/localização clientes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Empresa\google\Sinc_Empresa\Projetos\Python\energens-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFC5D7E-FFD0-40ED-82D9-4126C44DDB71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C811FD6-2FCF-466B-A3BD-92E0E1A96104}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="220">
   <si>
     <t>id</t>
   </si>
@@ -679,6 +679,21 @@
   </si>
   <si>
     <t>Gelso Tofolo</t>
+  </si>
+  <si>
+    <t>Nildo Luis Gonçalves de Oliveira</t>
+  </si>
+  <si>
+    <t>Leomar Avozani</t>
+  </si>
+  <si>
+    <t>Dario Luiz Teichmann</t>
+  </si>
+  <si>
+    <t>Zilda Grass da Silva</t>
+  </si>
+  <si>
+    <t>Ivo  Alfonso Lunkes</t>
   </si>
 </sst>
 </file>
@@ -869,8 +884,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FD6B3B7-5DCF-4893-B21A-B1CB3118375F}" name="Tabela1" displayName="Tabela1" ref="A1:H210" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H210" xr:uid="{3E3CFA4C-A6AD-46F0-AAC7-262EE49187F1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FD6B3B7-5DCF-4893-B21A-B1CB3118375F}" name="Tabela1" displayName="Tabela1" ref="A1:H216" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H216" xr:uid="{3E3CFA4C-A6AD-46F0-AAC7-262EE49187F1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E204">
     <sortCondition ref="A1:A204"/>
   </sortState>
@@ -1185,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E4D8A3-B036-45B9-BFB1-CE1FD37008B3}">
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="G216" sqref="G216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6667,6 +6682,168 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="9">
+        <v>210</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C211">
+        <v>131257</v>
+      </c>
+      <c r="D211" s="11">
+        <v>-28.264600448545099</v>
+      </c>
+      <c r="E211" s="9">
+        <v>-54.206485364597299</v>
+      </c>
+      <c r="F211">
+        <v>8</v>
+      </c>
+      <c r="G211">
+        <v>455</v>
+      </c>
+      <c r="H211" s="9">
+        <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="9">
+        <v>211</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C212">
+        <v>131265</v>
+      </c>
+      <c r="D212" s="11">
+        <v>-28.303123363058301</v>
+      </c>
+      <c r="E212" s="9">
+        <v>-54.272830830867498</v>
+      </c>
+      <c r="F212">
+        <v>10</v>
+      </c>
+      <c r="G212">
+        <v>455</v>
+      </c>
+      <c r="H212" s="9">
+        <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="9">
+        <v>212</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C213">
+        <v>131271</v>
+      </c>
+      <c r="D213" s="11">
+        <v>-28.283676080019699</v>
+      </c>
+      <c r="E213" s="9">
+        <v>-54.261995802841</v>
+      </c>
+      <c r="F213">
+        <v>15</v>
+      </c>
+      <c r="G213">
+        <v>455</v>
+      </c>
+      <c r="H213" s="9">
+        <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
+        <v>6.8250000000000002</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="9">
+        <v>213</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C214">
+        <v>131272</v>
+      </c>
+      <c r="D214" s="11">
+        <v>-28.308008007779101</v>
+      </c>
+      <c r="E214" s="9">
+        <v>-54.264556443553303</v>
+      </c>
+      <c r="F214">
+        <v>12</v>
+      </c>
+      <c r="G214">
+        <v>455</v>
+      </c>
+      <c r="H214" s="9">
+        <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="9">
+        <v>214</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C215">
+        <v>131276</v>
+      </c>
+      <c r="D215" s="11">
+        <v>-28.301181451464299</v>
+      </c>
+      <c r="E215" s="9">
+        <v>-54.236898312529199</v>
+      </c>
+      <c r="F215">
+        <v>16</v>
+      </c>
+      <c r="G215">
+        <v>378.125</v>
+      </c>
+      <c r="H215" s="9">
+        <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="9">
+        <v>215</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C216">
+        <v>131256</v>
+      </c>
+      <c r="D216" s="11">
+        <v>-28.2866579805081</v>
+      </c>
+      <c r="E216" s="9">
+        <v>-54.238545900063002</v>
+      </c>
+      <c r="F216">
+        <v>32</v>
+      </c>
+      <c r="G216">
+        <v>455</v>
+      </c>
+      <c r="H216" s="9">
+        <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
+        <v>14.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">

--- a/localização clientes.xlsx
+++ b/localização clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Empresa\google\Sinc_Empresa\Projetos\Python\energens-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C811FD6-2FCF-466B-A3BD-92E0E1A96104}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CEB5AA-97AF-4F5D-89BC-DD97B204E04D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
   </bookViews>
@@ -1203,7 +1203,7 @@
   <dimension ref="A1:H216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="G216" sqref="G216"/>
+      <selection activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6720,10 +6720,10 @@
         <v>131265</v>
       </c>
       <c r="D212" s="11">
-        <v>-28.303123363058301</v>
+        <v>-28.306707498833902</v>
       </c>
       <c r="E212" s="9">
-        <v>-54.272830830867498</v>
+        <v>-54.271106476657401</v>
       </c>
       <c r="F212">
         <v>10</v>

--- a/localização clientes.xlsx
+++ b/localização clientes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Empresa\google\Sinc_Empresa\Projetos\Python\energens-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CEB5AA-97AF-4F5D-89BC-DD97B204E04D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54887152-7EDF-4147-9074-E1B87B059A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="255">
   <si>
     <t>id</t>
   </si>
@@ -694,12 +694,120 @@
   </si>
   <si>
     <t>Ivo  Alfonso Lunkes</t>
+  </si>
+  <si>
+    <t>Bruna Stolz</t>
+  </si>
+  <si>
+    <t>Clecio Herculino Ebert</t>
+  </si>
+  <si>
+    <t>Arlindo Barichello</t>
+  </si>
+  <si>
+    <t>Vanessa Santos de Freitas</t>
+  </si>
+  <si>
+    <t>Giovana  Wezel Morais</t>
+  </si>
+  <si>
+    <t>Glaucio Guarani</t>
+  </si>
+  <si>
+    <t>Belmiria Maciel Stiler</t>
+  </si>
+  <si>
+    <t>Marcos Novicki</t>
+  </si>
+  <si>
+    <t>Antonio Denis Werste</t>
+  </si>
+  <si>
+    <t>Claudiomiro Freitas Da Silva</t>
+  </si>
+  <si>
+    <t>Eduardo Macalli Da Silva</t>
+  </si>
+  <si>
+    <t>Diango De Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vicente Bernardi</t>
+  </si>
+  <si>
+    <t>Abambae Imoveis Ltda</t>
+  </si>
+  <si>
+    <t>Eliseu Manica Advogados Associados</t>
+  </si>
+  <si>
+    <t>Experato Agente Autonomo De Investimentos Ltda</t>
+  </si>
+  <si>
+    <t>Tupambae Negocios Imobiliarios Ltda</t>
+  </si>
+  <si>
+    <t>Lucio Andre Metz Da Fonseca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Julio Hernandez De Macedo                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dhayse Clara Rodrigues Dos Santos (Rodrigo)                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kelly Giordani                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marcelo Aloísio Correa                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leonildo Augusti &amp; Cia Ltda                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vitavet Farmacêutica Ltda                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Frendenberger Frendenberger Ltda (Leticia)                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maristela Mascarin Scheneider                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rogério Ferrando                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ricardo Paranhos                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Graziela Dorneles De Lima                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nilse Carpenedo                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vicente Simon Haas                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Edivan Dalla Porta Frizzo                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Paulo Leal                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mário Luis Oliveira Dos Santos                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Simone Posser Kruger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -770,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -784,6 +892,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,8 +993,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FD6B3B7-5DCF-4893-B21A-B1CB3118375F}" name="Tabela1" displayName="Tabela1" ref="A1:H216" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H216" xr:uid="{3E3CFA4C-A6AD-46F0-AAC7-262EE49187F1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FD6B3B7-5DCF-4893-B21A-B1CB3118375F}" name="Tabela1" displayName="Tabela1" ref="A1:H251" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H251" xr:uid="{3E3CFA4C-A6AD-46F0-AAC7-262EE49187F1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E204">
     <sortCondition ref="A1:A204"/>
   </sortState>
@@ -1200,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E4D8A3-B036-45B9-BFB1-CE1FD37008B3}">
-  <dimension ref="A1:H216"/>
+  <dimension ref="A1:H251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="D213" sqref="D213"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="A217" sqref="A217:XFD217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,7 +1322,10 @@
     <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -6719,10 +6831,10 @@
       <c r="C212">
         <v>131265</v>
       </c>
-      <c r="D212" s="11">
+      <c r="D212" s="13">
         <v>-28.306707498833902</v>
       </c>
-      <c r="E212" s="9">
+      <c r="E212" s="13">
         <v>-54.271106476657401</v>
       </c>
       <c r="F212">
@@ -6746,10 +6858,10 @@
       <c r="C213">
         <v>131271</v>
       </c>
-      <c r="D213" s="11">
+      <c r="D213" s="13">
         <v>-28.283676080019699</v>
       </c>
-      <c r="E213" s="9">
+      <c r="E213" s="13">
         <v>-54.261995802841</v>
       </c>
       <c r="F213">
@@ -6773,10 +6885,10 @@
       <c r="C214">
         <v>131272</v>
       </c>
-      <c r="D214" s="11">
+      <c r="D214" s="13">
         <v>-28.308008007779101</v>
       </c>
-      <c r="E214" s="9">
+      <c r="E214" s="13">
         <v>-54.264556443553303</v>
       </c>
       <c r="F214">
@@ -6800,10 +6912,10 @@
       <c r="C215">
         <v>131276</v>
       </c>
-      <c r="D215" s="11">
+      <c r="D215" s="13">
         <v>-28.301181451464299</v>
       </c>
-      <c r="E215" s="9">
+      <c r="E215" s="13">
         <v>-54.236898312529199</v>
       </c>
       <c r="F215">
@@ -6827,10 +6939,10 @@
       <c r="C216">
         <v>131256</v>
       </c>
-      <c r="D216" s="11">
+      <c r="D216" s="13">
         <v>-28.2866579805081</v>
       </c>
-      <c r="E216" s="9">
+      <c r="E216" s="13">
         <v>-54.238545900063002</v>
       </c>
       <c r="F216">
@@ -6842,6 +6954,916 @@
       <c r="H216" s="9">
         <f>Tabela1[[#This Row],[modules_number]]*Tabela1[[#This Row],[modules_power]]/1000</f>
         <v>14.56</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="9">
+        <v>217</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C217" s="9">
+        <v>131301</v>
+      </c>
+      <c r="D217" s="13">
+        <v>-28.3074436151187</v>
+      </c>
+      <c r="E217" s="13">
+        <v>-54.241533174426202</v>
+      </c>
+      <c r="F217" s="9">
+        <v>6</v>
+      </c>
+      <c r="G217" s="9">
+        <v>445</v>
+      </c>
+      <c r="H217" s="9">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="9">
+        <v>218</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C218" s="9">
+        <v>130954</v>
+      </c>
+      <c r="D218" s="13">
+        <v>-28.363816078997999</v>
+      </c>
+      <c r="E218" s="13">
+        <v>-54.268155592146101</v>
+      </c>
+      <c r="F218" s="9">
+        <v>14</v>
+      </c>
+      <c r="G218" s="9">
+        <v>455</v>
+      </c>
+      <c r="H218" s="9">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="9">
+        <v>219</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C219" s="9">
+        <v>130926</v>
+      </c>
+      <c r="D219" s="13">
+        <v>-28.541366697646701</v>
+      </c>
+      <c r="E219" s="13">
+        <v>-54.548634342813102</v>
+      </c>
+      <c r="F219" s="9">
+        <v>20</v>
+      </c>
+      <c r="G219" s="9">
+        <v>445</v>
+      </c>
+      <c r="H219" s="9">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="9">
+        <v>220</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C220" s="9">
+        <v>131290</v>
+      </c>
+      <c r="D220" s="13">
+        <v>-28.288470002847301</v>
+      </c>
+      <c r="E220" s="13">
+        <v>-54.275605951983998</v>
+      </c>
+      <c r="F220" s="9">
+        <v>8</v>
+      </c>
+      <c r="G220" s="9">
+        <v>445</v>
+      </c>
+      <c r="H220" s="9">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="9">
+        <v>221</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C221" s="9">
+        <v>131296</v>
+      </c>
+      <c r="D221" s="13">
+        <v>-28.3088983315027</v>
+      </c>
+      <c r="E221" s="13">
+        <v>-54.276044574004999</v>
+      </c>
+      <c r="F221" s="9">
+        <v>10</v>
+      </c>
+      <c r="G221" s="9">
+        <v>445</v>
+      </c>
+      <c r="H221" s="9">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="9">
+        <v>222</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C222" s="9">
+        <v>131019</v>
+      </c>
+      <c r="D222" s="11">
+        <v>-28.3088983315027</v>
+      </c>
+      <c r="E222" s="9">
+        <v>-54.264551226513802</v>
+      </c>
+      <c r="F222" s="9">
+        <v>10</v>
+      </c>
+      <c r="G222" s="9">
+        <v>445</v>
+      </c>
+      <c r="H222" s="9">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="9">
+        <v>223</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C223" s="9">
+        <v>131320</v>
+      </c>
+      <c r="D223" s="11">
+        <v>-28.319133891100101</v>
+      </c>
+      <c r="E223" s="9">
+        <v>-54.256652546162599</v>
+      </c>
+      <c r="F223" s="9">
+        <v>15</v>
+      </c>
+      <c r="G223" s="9">
+        <v>445</v>
+      </c>
+      <c r="H223" s="9">
+        <v>6.6749999999999998</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="9">
+        <v>224</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C224" s="9">
+        <v>131325</v>
+      </c>
+      <c r="D224" s="11">
+        <v>-28.3049119154478</v>
+      </c>
+      <c r="E224" s="9">
+        <v>-54.245066760511101</v>
+      </c>
+      <c r="F224" s="9">
+        <v>12</v>
+      </c>
+      <c r="G224" s="9">
+        <v>445</v>
+      </c>
+      <c r="H224" s="9">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="9">
+        <v>225</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C225" s="9">
+        <v>131326</v>
+      </c>
+      <c r="D225" s="11">
+        <v>-28.360899019911901</v>
+      </c>
+      <c r="E225" s="9">
+        <v>-54.268215731674204</v>
+      </c>
+      <c r="F225" s="9">
+        <v>9</v>
+      </c>
+      <c r="G225" s="9">
+        <v>445</v>
+      </c>
+      <c r="H225" s="9">
+        <v>4.0049999999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="9">
+        <v>226</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C226" s="9">
+        <v>131328</v>
+      </c>
+      <c r="D226" s="11">
+        <v>-28.299784760256099</v>
+      </c>
+      <c r="E226" s="9">
+        <v>-54.251454294815197</v>
+      </c>
+      <c r="F226" s="9">
+        <v>12</v>
+      </c>
+      <c r="G226" s="9">
+        <v>445</v>
+      </c>
+      <c r="H226" s="9">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="9">
+        <v>227</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C227" s="9">
+        <v>131332</v>
+      </c>
+      <c r="D227" s="11">
+        <v>-28.309824078999</v>
+      </c>
+      <c r="E227" s="9">
+        <v>-54.272802489346397</v>
+      </c>
+      <c r="F227" s="9">
+        <v>9</v>
+      </c>
+      <c r="G227" s="9">
+        <v>445</v>
+      </c>
+      <c r="H227" s="9">
+        <v>4.0049999999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="9">
+        <v>228</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C228" s="9">
+        <v>131027</v>
+      </c>
+      <c r="D228" s="13">
+        <v>-28.283208203916701</v>
+      </c>
+      <c r="E228" s="13">
+        <v>-54.273438997673303</v>
+      </c>
+      <c r="F228" s="9">
+        <v>15</v>
+      </c>
+      <c r="G228" s="9">
+        <v>445</v>
+      </c>
+      <c r="H228" s="9">
+        <v>6.6749999999999998</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="9">
+        <v>229</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C229" s="9">
+        <v>130748</v>
+      </c>
+      <c r="D229" s="13">
+        <v>-28.303331742831599</v>
+      </c>
+      <c r="E229" s="13">
+        <v>-54.260893589346601</v>
+      </c>
+      <c r="F229" s="9">
+        <v>24</v>
+      </c>
+      <c r="G229" s="9">
+        <v>445</v>
+      </c>
+      <c r="H229" s="9">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="9">
+        <v>230</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C230" s="9">
+        <v>130573</v>
+      </c>
+      <c r="D230" s="13">
+        <v>-28.3076343557406</v>
+      </c>
+      <c r="E230" s="13">
+        <v>-54.2579410811881</v>
+      </c>
+      <c r="F230" s="9">
+        <v>10</v>
+      </c>
+      <c r="G230" s="9">
+        <v>410</v>
+      </c>
+      <c r="H230" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="9">
+        <v>231</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C231" s="9">
+        <v>130573</v>
+      </c>
+      <c r="D231" s="13">
+        <v>-28.3076343557406</v>
+      </c>
+      <c r="E231" s="13">
+        <v>-54.2579410811881</v>
+      </c>
+      <c r="F231" s="9">
+        <v>10</v>
+      </c>
+      <c r="G231" s="9">
+        <v>410</v>
+      </c>
+      <c r="H231" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="9">
+        <v>232</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C232" s="9">
+        <v>130573</v>
+      </c>
+      <c r="D232" s="13">
+        <v>-28.3076343557406</v>
+      </c>
+      <c r="E232" s="13">
+        <v>-54.2579410811881</v>
+      </c>
+      <c r="F232" s="9">
+        <v>16</v>
+      </c>
+      <c r="G232" s="9">
+        <v>410</v>
+      </c>
+      <c r="H232" s="9">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="9">
+        <v>233</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C233" s="9">
+        <v>130573</v>
+      </c>
+      <c r="D233" s="13">
+        <v>-28.3076343557406</v>
+      </c>
+      <c r="E233" s="13">
+        <v>-54.2579410811881</v>
+      </c>
+      <c r="F233" s="9">
+        <v>10</v>
+      </c>
+      <c r="G233" s="9">
+        <v>410</v>
+      </c>
+      <c r="H233" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="9">
+        <v>234</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C234" s="9">
+        <v>131341</v>
+      </c>
+      <c r="D234" s="11">
+        <v>-28.286689521839101</v>
+      </c>
+      <c r="E234" s="9">
+        <v>-54.269322088681498</v>
+      </c>
+      <c r="F234" s="9">
+        <v>12</v>
+      </c>
+      <c r="G234" s="9">
+        <v>445</v>
+      </c>
+      <c r="H234" s="9">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="9">
+        <v>236</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C235" s="9">
+        <v>131025</v>
+      </c>
+      <c r="D235" s="11">
+        <v>-28.278403680041901</v>
+      </c>
+      <c r="E235" s="9">
+        <v>-54.270940308435101</v>
+      </c>
+      <c r="F235" s="9">
+        <v>14</v>
+      </c>
+      <c r="G235" s="9">
+        <v>445</v>
+      </c>
+      <c r="H235" s="9">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="9">
+        <v>237</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C236" s="9">
+        <v>131291</v>
+      </c>
+      <c r="D236" s="11">
+        <v>-28.297305838276301</v>
+      </c>
+      <c r="E236" s="9">
+        <v>-54.273604585307098</v>
+      </c>
+      <c r="F236" s="9">
+        <v>6</v>
+      </c>
+      <c r="G236" s="9">
+        <v>445</v>
+      </c>
+      <c r="H236" s="9">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="9">
+        <v>238</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C237" s="9">
+        <v>131293</v>
+      </c>
+      <c r="D237" s="9">
+        <v>28.270724240642</v>
+      </c>
+      <c r="E237" s="9">
+        <v>-54.262767670682599</v>
+      </c>
+      <c r="F237" s="9">
+        <v>15</v>
+      </c>
+      <c r="G237" s="9">
+        <v>445</v>
+      </c>
+      <c r="H237" s="9">
+        <v>6.6749999999999998</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="9">
+        <v>239</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C238" s="9">
+        <v>131306</v>
+      </c>
+      <c r="D238" s="9">
+        <v>-28.280383057444698</v>
+      </c>
+      <c r="E238" s="9">
+        <v>-54.2650733674786</v>
+      </c>
+      <c r="F238" s="9">
+        <v>10</v>
+      </c>
+      <c r="G238" s="9">
+        <v>445</v>
+      </c>
+      <c r="H238" s="9">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="9">
+        <v>240</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C239" s="9">
+        <v>131310</v>
+      </c>
+      <c r="D239" s="9">
+        <v>-28.2871954022092</v>
+      </c>
+      <c r="E239" s="9">
+        <v>-54.265814488608598</v>
+      </c>
+      <c r="F239" s="9">
+        <v>85</v>
+      </c>
+      <c r="G239" s="9">
+        <v>445</v>
+      </c>
+      <c r="H239" s="9">
+        <v>37.825000000000003</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="9">
+        <v>241</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C240" s="9">
+        <v>131330</v>
+      </c>
+      <c r="D240" s="9">
+        <v>-28.2966532777113</v>
+      </c>
+      <c r="E240" s="9">
+        <v>-54.265574427099097</v>
+      </c>
+      <c r="F240" s="9">
+        <v>44</v>
+      </c>
+      <c r="G240" s="9">
+        <v>445</v>
+      </c>
+      <c r="H240" s="9">
+        <v>19.579999999999998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="9">
+        <v>242</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C241" s="9">
+        <v>131336</v>
+      </c>
+      <c r="D241" s="9">
+        <v>-28.304902648647001</v>
+      </c>
+      <c r="E241" s="9">
+        <v>54.276961796973502</v>
+      </c>
+      <c r="F241" s="9">
+        <v>30</v>
+      </c>
+      <c r="G241" s="9">
+        <v>445</v>
+      </c>
+      <c r="H241" s="9">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="9">
+        <v>243</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C242" s="9">
+        <v>131339</v>
+      </c>
+      <c r="D242" s="9">
+        <v>-28.299733447446901</v>
+      </c>
+      <c r="E242" s="9">
+        <v>-54.248476011554999</v>
+      </c>
+      <c r="F242" s="9">
+        <v>18</v>
+      </c>
+      <c r="G242" s="9">
+        <v>445</v>
+      </c>
+      <c r="H242" s="9">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="9">
+        <v>244</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C243" s="9">
+        <v>131357</v>
+      </c>
+      <c r="D243" s="9">
+        <v>-28.179520318571601</v>
+      </c>
+      <c r="E243" s="9">
+        <v>-54.2642055544557</v>
+      </c>
+      <c r="F243" s="9">
+        <v>15</v>
+      </c>
+      <c r="G243" s="9">
+        <v>445</v>
+      </c>
+      <c r="H243" s="9">
+        <v>6.6749999999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="9">
+        <v>245</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C244" s="9">
+        <v>131359</v>
+      </c>
+      <c r="D244" s="9">
+        <v>-28.3170082865044</v>
+      </c>
+      <c r="E244" s="9">
+        <v>-54.264799835204201</v>
+      </c>
+      <c r="F244" s="9">
+        <v>12</v>
+      </c>
+      <c r="G244" s="9">
+        <v>445</v>
+      </c>
+      <c r="H244" s="9">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="9">
+        <v>246</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C245" s="9">
+        <v>131361</v>
+      </c>
+      <c r="D245" s="9">
+        <v>-28.310732671826699</v>
+      </c>
+      <c r="E245" s="9">
+        <v>-54.276227602840301</v>
+      </c>
+      <c r="F245" s="9">
+        <v>9</v>
+      </c>
+      <c r="G245" s="9">
+        <v>445</v>
+      </c>
+      <c r="H245" s="9">
+        <v>4.0049999999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="9">
+        <v>247</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C246" s="9">
+        <v>131362</v>
+      </c>
+      <c r="D246" s="9">
+        <v>-27.8551172684943</v>
+      </c>
+      <c r="E246" s="9">
+        <v>-54.441477145930897</v>
+      </c>
+      <c r="F246" s="9">
+        <v>12</v>
+      </c>
+      <c r="G246" s="9">
+        <v>445</v>
+      </c>
+      <c r="H246" s="9">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="9">
+        <v>248</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C247" s="9">
+        <v>131366</v>
+      </c>
+      <c r="D247" s="9">
+        <v>-28.296643358636199</v>
+      </c>
+      <c r="E247" s="9">
+        <v>-54.265051122616697</v>
+      </c>
+      <c r="F247" s="9">
+        <v>13</v>
+      </c>
+      <c r="G247" s="9">
+        <v>445</v>
+      </c>
+      <c r="H247" s="9">
+        <v>5.7850000000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="9">
+        <v>250</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C248" s="9">
+        <v>131372</v>
+      </c>
+      <c r="D248" s="9">
+        <v>-28.297402654653101</v>
+      </c>
+      <c r="E248" s="9">
+        <v>-54.266582932667198</v>
+      </c>
+      <c r="F248" s="9">
+        <v>14</v>
+      </c>
+      <c r="G248" s="9">
+        <v>445</v>
+      </c>
+      <c r="H248" s="9">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="9">
+        <v>251</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C249" s="9">
+        <v>131375</v>
+      </c>
+      <c r="D249" s="9">
+        <v>-28.313055435902498</v>
+      </c>
+      <c r="E249" s="9">
+        <v>-54.236431884243302</v>
+      </c>
+      <c r="F249" s="9">
+        <v>30</v>
+      </c>
+      <c r="G249" s="9">
+        <v>445</v>
+      </c>
+      <c r="H249" s="9">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="9">
+        <v>253</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C250" s="9">
+        <v>131384</v>
+      </c>
+      <c r="D250" s="9">
+        <v>-28.307959477597599</v>
+      </c>
+      <c r="E250" s="9">
+        <v>-54.260753232235402</v>
+      </c>
+      <c r="F250" s="9">
+        <v>11</v>
+      </c>
+      <c r="G250" s="9">
+        <v>445</v>
+      </c>
+      <c r="H250" s="9">
+        <v>4.8949999999999996</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="9">
+        <v>254</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C251" s="9">
+        <v>131387</v>
+      </c>
+      <c r="D251" s="11">
+        <v>-28.319731210454499</v>
+      </c>
+      <c r="E251" s="11">
+        <v>-54.269727311936997</v>
+      </c>
+      <c r="F251" s="9">
+        <v>9</v>
+      </c>
+      <c r="G251" s="9">
+        <v>445</v>
+      </c>
+      <c r="H251" s="9">
+        <v>4.0049999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/localização clientes.xlsx
+++ b/localização clientes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Empresa\google\Sinc_Empresa\Projetos\Python\energens-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54887152-7EDF-4147-9074-E1B87B059A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40642A8A-4D96-43E0-B4D8-270E79CA2FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{2E342BAB-693F-437E-8667-20A37EE1A38F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="254">
   <si>
     <t>id</t>
   </si>
@@ -790,9 +790,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Edivan Dalla Porta Frizzo                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Paulo Leal                                                  </t>
   </si>
   <si>
     <t xml:space="preserve"> Mário Luis Oliveira Dos Santos                              </t>
@@ -993,8 +990,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FD6B3B7-5DCF-4893-B21A-B1CB3118375F}" name="Tabela1" displayName="Tabela1" ref="A1:H251" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H251" xr:uid="{3E3CFA4C-A6AD-46F0-AAC7-262EE49187F1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FD6B3B7-5DCF-4893-B21A-B1CB3118375F}" name="Tabela1" displayName="Tabela1" ref="A1:H250" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H250" xr:uid="{3E3CFA4C-A6AD-46F0-AAC7-262EE49187F1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E204">
     <sortCondition ref="A1:A204"/>
   </sortState>
@@ -1309,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E4D8A3-B036-45B9-BFB1-CE1FD37008B3}">
-  <dimension ref="A1:H251"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="A217" sqref="A217:XFD217"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="B249" sqref="B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,7 +1534,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1563,7 +1560,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1589,7 +1586,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1615,7 +1612,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1641,7 +1638,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1667,7 +1664,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1693,7 +1690,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1719,7 +1716,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1745,7 +1742,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1771,7 +1768,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1797,7 +1794,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1823,7 +1820,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1849,7 +1846,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1875,7 +1872,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1901,7 +1898,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1927,7 +1924,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1953,7 +1950,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1979,7 +1976,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2005,7 +2002,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2031,7 +2028,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2057,7 +2054,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2083,7 +2080,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2109,7 +2106,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2135,7 +2132,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2161,7 +2158,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2187,7 +2184,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2213,7 +2210,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2239,7 +2236,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="9">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2265,7 +2262,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="9">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2291,7 +2288,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="9">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -2317,7 +2314,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2343,7 +2340,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40" s="9">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -2369,7 +2366,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -2395,7 +2392,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42" s="9">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2421,7 +2418,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43" s="9">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -2447,7 +2444,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="A44" s="9">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -2473,7 +2470,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="A45" s="9">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -2499,7 +2496,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46" s="9">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -2525,7 +2522,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -2551,7 +2548,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="A48" s="9">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -2577,7 +2574,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="A49" s="9">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2603,7 +2600,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="A50" s="9">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -2629,7 +2626,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="A51" s="9">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -2655,7 +2652,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="A52" s="9">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -2681,7 +2678,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="A53" s="9">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -2707,7 +2704,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="A54" s="9">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -2733,7 +2730,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="A55" s="9">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -2759,7 +2756,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="A56" s="9">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -2785,7 +2782,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="A57" s="9">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -2811,7 +2808,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="A58" s="9">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -2837,7 +2834,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="A59" s="9">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -2863,7 +2860,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="A60" s="9">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -2889,7 +2886,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="A61" s="9">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -2915,7 +2912,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="A62" s="9">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -2941,7 +2938,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="A63" s="9">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -2967,7 +2964,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="A64" s="9">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -2993,7 +2990,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+      <c r="A65" s="9">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -3019,7 +3016,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+      <c r="A66" s="9">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -3045,7 +3042,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+      <c r="A67" s="9">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -3071,7 +3068,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+      <c r="A68" s="9">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -3097,7 +3094,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+      <c r="A69" s="9">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -3123,7 +3120,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+      <c r="A70" s="9">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -3149,7 +3146,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+      <c r="A71" s="9">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -3175,7 +3172,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+      <c r="A72" s="9">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -3201,7 +3198,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+      <c r="A73" s="9">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -3227,7 +3224,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+      <c r="A74" s="9">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -3253,7 +3250,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+      <c r="A75" s="9">
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -3279,7 +3276,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+      <c r="A76" s="9">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -3305,7 +3302,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+      <c r="A77" s="9">
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -3331,7 +3328,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+      <c r="A78" s="9">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -3357,7 +3354,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+      <c r="A79" s="9">
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -3383,7 +3380,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+      <c r="A80" s="9">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -3409,7 +3406,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+      <c r="A81" s="9">
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -3435,7 +3432,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+      <c r="A82" s="9">
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -3461,7 +3458,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+      <c r="A83" s="9">
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -3487,7 +3484,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+      <c r="A84" s="9">
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -3513,7 +3510,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+      <c r="A85" s="9">
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -3539,7 +3536,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+      <c r="A86" s="9">
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -3565,7 +3562,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+      <c r="A87" s="9">
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -3591,7 +3588,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+      <c r="A88" s="9">
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -3617,7 +3614,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+      <c r="A89" s="9">
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -3643,7 +3640,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+      <c r="A90" s="9">
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -3669,7 +3666,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+      <c r="A91" s="9">
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -3695,7 +3692,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+      <c r="A92" s="9">
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -3721,7 +3718,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+      <c r="A93" s="9">
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -3747,7 +3744,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+      <c r="A94" s="9">
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -3773,7 +3770,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+      <c r="A95" s="9">
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -3799,7 +3796,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+      <c r="A96" s="9">
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -3825,7 +3822,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+      <c r="A97" s="9">
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -3851,7 +3848,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+      <c r="A98" s="9">
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -3877,7 +3874,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+      <c r="A99" s="9">
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
@@ -3903,7 +3900,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+      <c r="A100" s="9">
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -3929,7 +3926,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+      <c r="A101" s="9">
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
@@ -3955,7 +3952,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+      <c r="A102" s="9">
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -3981,7 +3978,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+      <c r="A103" s="9">
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -4007,7 +4004,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+      <c r="A104" s="9">
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -4033,7 +4030,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+      <c r="A105" s="9">
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -4059,7 +4056,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+      <c r="A106" s="9">
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -4085,7 +4082,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+      <c r="A107" s="9">
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -4111,7 +4108,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+      <c r="A108" s="9">
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
@@ -4137,7 +4134,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+      <c r="A109" s="9">
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -4163,7 +4160,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+      <c r="A110" s="9">
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -4189,7 +4186,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+      <c r="A111" s="9">
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
@@ -4215,7 +4212,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+      <c r="A112" s="9">
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
@@ -4241,7 +4238,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
+      <c r="A113" s="9">
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
@@ -4267,7 +4264,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+      <c r="A114" s="9">
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
@@ -4293,7 +4290,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+      <c r="A115" s="9">
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -4319,7 +4316,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
+      <c r="A116" s="9">
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
@@ -4345,7 +4342,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
+      <c r="A117" s="9">
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
@@ -4371,7 +4368,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
+      <c r="A118" s="9">
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
@@ -4397,7 +4394,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
+      <c r="A119" s="9">
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
@@ -4423,7 +4420,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+      <c r="A120" s="9">
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
@@ -4449,7 +4446,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
+      <c r="A121" s="9">
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
@@ -4475,7 +4472,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
+      <c r="A122" s="9">
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
@@ -4501,7 +4498,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
+      <c r="A123" s="9">
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
@@ -4527,7 +4524,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
+      <c r="A124" s="9">
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
@@ -4553,7 +4550,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
+      <c r="A125" s="9">
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
@@ -4579,7 +4576,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
+      <c r="A126" s="9">
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
@@ -4605,7 +4602,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
+      <c r="A127" s="9">
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -4631,7 +4628,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
+      <c r="A128" s="9">
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -4657,7 +4654,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
+      <c r="A129" s="9">
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
@@ -4683,7 +4680,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
+      <c r="A130" s="9">
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
@@ -4709,7 +4706,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
+      <c r="A131" s="9">
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
@@ -4735,7 +4732,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
+      <c r="A132" s="9">
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -4761,7 +4758,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
+      <c r="A133" s="9">
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -4787,7 +4784,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
+      <c r="A134" s="9">
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -4813,7 +4810,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
+      <c r="A135" s="9">
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
@@ -4839,7 +4836,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
+      <c r="A136" s="9">
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -4865,7 +4862,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
+      <c r="A137" s="9">
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
@@ -4891,7 +4888,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
+      <c r="A138" s="9">
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
@@ -4917,7 +4914,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
+      <c r="A139" s="9">
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
@@ -4943,7 +4940,7 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
+      <c r="A140" s="9">
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
@@ -4969,7 +4966,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
+      <c r="A141" s="9">
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
@@ -4995,7 +4992,7 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
+      <c r="A142" s="9">
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
@@ -5021,7 +5018,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
+      <c r="A143" s="9">
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
@@ -5047,7 +5044,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
+      <c r="A144" s="9">
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
@@ -5073,7 +5070,7 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
+      <c r="A145" s="9">
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
@@ -5099,7 +5096,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
+      <c r="A146" s="9">
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
@@ -5125,7 +5122,7 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
+      <c r="A147" s="9">
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
@@ -5151,7 +5148,7 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
+      <c r="A148" s="9">
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
@@ -5177,7 +5174,7 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
+      <c r="A149" s="9">
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
@@ -5203,7 +5200,7 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
+      <c r="A150" s="9">
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
@@ -5229,7 +5226,7 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
+      <c r="A151" s="9">
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
@@ -5255,7 +5252,7 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
+      <c r="A152" s="9">
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
@@ -5281,7 +5278,7 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
+      <c r="A153" s="9">
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
@@ -5307,7 +5304,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
+      <c r="A154" s="9">
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
@@ -5333,7 +5330,7 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
+      <c r="A155" s="9">
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
@@ -5359,7 +5356,7 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
+      <c r="A156" s="9">
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
@@ -5385,7 +5382,7 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
+      <c r="A157" s="9">
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
@@ -5411,7 +5408,7 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
+      <c r="A158" s="9">
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
@@ -5437,7 +5434,7 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
+      <c r="A159" s="9">
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
@@ -5463,7 +5460,7 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
+      <c r="A160" s="9">
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
@@ -5515,7 +5512,7 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
+      <c r="A162" s="9">
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
@@ -5541,7 +5538,7 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
+      <c r="A163" s="9">
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
@@ -5567,7 +5564,7 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
+      <c r="A164" s="9">
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
@@ -5593,7 +5590,7 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
+      <c r="A165" s="9">
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
@@ -5619,7 +5616,7 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
+      <c r="A166" s="9">
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
@@ -5645,7 +5642,7 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
+      <c r="A167" s="9">
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
@@ -5671,7 +5668,7 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
+      <c r="A168" s="9">
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
@@ -5697,7 +5694,7 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
+      <c r="A169" s="9">
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
@@ -5723,7 +5720,7 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
+      <c r="A170" s="9">
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
@@ -5749,7 +5746,7 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
+      <c r="A171" s="9">
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
@@ -5775,7 +5772,7 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
+      <c r="A172" s="9">
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
@@ -5801,7 +5798,7 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
+      <c r="A173" s="9">
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
@@ -5827,7 +5824,7 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
+      <c r="A174" s="9">
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
@@ -5853,7 +5850,7 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
+      <c r="A175" s="9">
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
@@ -5879,7 +5876,7 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
+      <c r="A176" s="9">
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
@@ -5905,7 +5902,7 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
+      <c r="A177" s="9">
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
@@ -5931,7 +5928,7 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
+      <c r="A178" s="9">
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
@@ -5957,7 +5954,7 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
+      <c r="A179" s="9">
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
@@ -5983,7 +5980,7 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
+      <c r="A180" s="9">
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
@@ -6009,7 +6006,7 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
+      <c r="A181" s="9">
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
@@ -6035,7 +6032,7 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
+      <c r="A182" s="9">
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
@@ -6061,7 +6058,7 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
+      <c r="A183" s="9">
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
@@ -6087,7 +6084,7 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
+      <c r="A184" s="9">
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
@@ -6113,7 +6110,7 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
+      <c r="A185" s="9">
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
@@ -6139,7 +6136,7 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
+      <c r="A186" s="9">
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
@@ -6165,7 +6162,7 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
+      <c r="A187" s="9">
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
@@ -6191,7 +6188,7 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
+      <c r="A188" s="9">
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
@@ -6217,7 +6214,7 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
+      <c r="A189" s="9">
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
@@ -6243,7 +6240,7 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
+      <c r="A190" s="9">
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
@@ -6269,7 +6266,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
+      <c r="A191" s="9">
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
@@ -6295,7 +6292,7 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
+      <c r="A192" s="9">
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
@@ -6321,7 +6318,7 @@
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
+      <c r="A193" s="9">
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
@@ -6347,7 +6344,7 @@
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
+      <c r="A194" s="9">
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
@@ -6373,7 +6370,7 @@
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
+      <c r="A195" s="9">
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
@@ -6399,7 +6396,7 @@
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
+      <c r="A196" s="9">
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
@@ -6958,7 +6955,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B217" s="10" t="s">
         <v>220</v>
@@ -6984,7 +6981,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B218" s="10" t="s">
         <v>221</v>
@@ -7010,7 +7007,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B219" s="10" t="s">
         <v>222</v>
@@ -7036,7 +7033,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="9">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B220" s="10" t="s">
         <v>223</v>
@@ -7062,7 +7059,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="9">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B221" s="10" t="s">
         <v>224</v>
@@ -7088,7 +7085,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="9">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B222" s="10" t="s">
         <v>225</v>
@@ -7114,7 +7111,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="9">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B223" s="10" t="s">
         <v>226</v>
@@ -7140,7 +7137,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="9">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B224" s="10" t="s">
         <v>227</v>
@@ -7166,7 +7163,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="9">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B225" s="10" t="s">
         <v>228</v>
@@ -7192,7 +7189,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="9">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B226" s="10" t="s">
         <v>229</v>
@@ -7218,7 +7215,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="9">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B227" s="10" t="s">
         <v>230</v>
@@ -7244,7 +7241,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="9">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B228" s="10" t="s">
         <v>231</v>
@@ -7270,7 +7267,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="9">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B229" s="10" t="s">
         <v>232</v>
@@ -7296,7 +7293,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="9">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B230" s="10" t="s">
         <v>233</v>
@@ -7322,7 +7319,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="9">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B231" s="10" t="s">
         <v>234</v>
@@ -7348,7 +7345,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="9">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B232" s="10" t="s">
         <v>235</v>
@@ -7374,7 +7371,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="9">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B233" s="10" t="s">
         <v>236</v>
@@ -7400,7 +7397,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="9">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B234" s="10" t="s">
         <v>237</v>
@@ -7426,7 +7423,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="9">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B235" s="10" t="s">
         <v>238</v>
@@ -7452,7 +7449,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="9">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B236" s="10" t="s">
         <v>239</v>
@@ -7478,7 +7475,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="9">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B237" s="10" t="s">
         <v>240</v>
@@ -7504,7 +7501,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="9">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B238" s="10" t="s">
         <v>241</v>
@@ -7530,7 +7527,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="9">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B239" s="10" t="s">
         <v>242</v>
@@ -7556,7 +7553,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="9">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B240" s="10" t="s">
         <v>243</v>
@@ -7582,7 +7579,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="9">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B241" s="10" t="s">
         <v>244</v>
@@ -7608,7 +7605,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="9">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B242" s="10" t="s">
         <v>245</v>
@@ -7634,7 +7631,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="9">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B243" s="10" t="s">
         <v>246</v>
@@ -7660,7 +7657,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="9">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B244" s="10" t="s">
         <v>247</v>
@@ -7686,7 +7683,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="9">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B245" s="10" t="s">
         <v>248</v>
@@ -7712,7 +7709,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="9">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B246" s="10" t="s">
         <v>249</v>
@@ -7738,7 +7735,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="9">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B247" s="10" t="s">
         <v>250</v>
@@ -7764,7 +7761,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="9">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B248" s="10" t="s">
         <v>251</v>
@@ -7790,79 +7787,53 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="9">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B249" s="10" t="s">
         <v>252</v>
       </c>
       <c r="C249" s="9">
-        <v>131375</v>
+        <v>131384</v>
       </c>
       <c r="D249" s="9">
-        <v>-28.313055435902498</v>
+        <v>-28.307959477597599</v>
       </c>
       <c r="E249" s="9">
-        <v>-54.236431884243302</v>
+        <v>-54.260753232235402</v>
       </c>
       <c r="F249" s="9">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G249" s="9">
         <v>445</v>
       </c>
       <c r="H249" s="9">
-        <v>13.35</v>
+        <v>4.8949999999999996</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="9">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B250" s="10" t="s">
         <v>253</v>
       </c>
       <c r="C250" s="9">
-        <v>131384</v>
-      </c>
-      <c r="D250" s="9">
-        <v>-28.307959477597599</v>
-      </c>
-      <c r="E250" s="9">
-        <v>-54.260753232235402</v>
+        <v>131387</v>
+      </c>
+      <c r="D250" s="11">
+        <v>-28.319731210454499</v>
+      </c>
+      <c r="E250" s="11">
+        <v>-54.269727311936997</v>
       </c>
       <c r="F250" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G250" s="9">
         <v>445</v>
       </c>
       <c r="H250" s="9">
-        <v>4.8949999999999996</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="9">
-        <v>254</v>
-      </c>
-      <c r="B251" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C251" s="9">
-        <v>131387</v>
-      </c>
-      <c r="D251" s="11">
-        <v>-28.319731210454499</v>
-      </c>
-      <c r="E251" s="11">
-        <v>-54.269727311936997</v>
-      </c>
-      <c r="F251" s="9">
-        <v>9</v>
-      </c>
-      <c r="G251" s="9">
-        <v>445</v>
-      </c>
-      <c r="H251" s="9">
         <v>4.0049999999999999</v>
       </c>
     </row>
